--- a/NIDA_Expts/Experiments/SubjectList_ExperimentalProtocol.xlsx
+++ b/NIDA_Expts/Experiments/SubjectList_ExperimentalProtocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panayimc\Documents\GitHub\Marios-temp\NIDA_Expts\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74734E16-EE28-4985-8665-A7C151F0D0FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54453EB8-16C9-44C7-B2A9-A4588E14BB5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{541D3559-B055-4FE0-B959-0E0FD0A7F009}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="140">
   <si>
     <t>Rat</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>Program</t>
+  </si>
+  <si>
+    <t>Stage1COunterbalancing</t>
   </si>
 </sst>
 </file>
@@ -6730,7 +6733,7 @@
   <dimension ref="A2:AE58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AH51" sqref="AH51"/>
+      <selection activeCell="Y48" sqref="Y47:Y58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9817,6 +9820,12 @@
       <c r="X46" s="9" t="s">
         <v>119</v>
       </c>
+      <c r="Y46" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="37" t="s">
@@ -9885,6 +9894,13 @@
       <c r="X47" t="s">
         <v>117</v>
       </c>
+      <c r="Y47" t="str">
+        <f>IF(Z47=16, "A", "B")</f>
+        <v>A</v>
+      </c>
+      <c r="Z47">
+        <v>16</v>
+      </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="M48" t="s">
@@ -9923,8 +9939,15 @@
       <c r="X48" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="49" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="Y48" t="str">
+        <f t="shared" ref="Y48:Y58" si="0">IF(Z48=16, "A", "B")</f>
+        <v>B</v>
+      </c>
+      <c r="Z48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M49" t="s">
         <v>123</v>
       </c>
@@ -9961,8 +9984,15 @@
       <c r="X49" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="50" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="Y49" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="Z49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M50" t="s">
         <v>123</v>
       </c>
@@ -9999,8 +10029,15 @@
       <c r="X50" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="51" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="Y50" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="Z50">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M51" t="s">
         <v>123</v>
       </c>
@@ -10037,8 +10074,15 @@
       <c r="X51" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="52" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="Y51" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="Z51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M52" t="s">
         <v>123</v>
       </c>
@@ -10075,8 +10119,15 @@
       <c r="X52" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="53" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="Y52" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="Z52">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M53" s="37" t="s">
         <v>123</v>
       </c>
@@ -10113,8 +10164,15 @@
       <c r="X53" s="37" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="54" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="Y53" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="Z53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M54" s="37" t="s">
         <v>123</v>
       </c>
@@ -10151,8 +10209,15 @@
       <c r="X54" s="37" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="55" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="Y54" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="Z54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M55" s="37" t="s">
         <v>123</v>
       </c>
@@ -10189,8 +10254,15 @@
       <c r="X55" s="37" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="56" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="Y55" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="Z55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M56" s="49" t="s">
         <v>123</v>
       </c>
@@ -10227,8 +10299,15 @@
       <c r="X56" s="49" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="57" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="Y56" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="Z56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M57" s="49" t="s">
         <v>123</v>
       </c>
@@ -10265,8 +10344,15 @@
       <c r="X57" s="49" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="58" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="Y57" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="Z57">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M58" s="49" t="s">
         <v>123</v>
       </c>
@@ -10302,6 +10388,13 @@
       </c>
       <c r="X58" s="49" t="s">
         <v>117</v>
+      </c>
+      <c r="Y58" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="Z58">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/NIDA_Expts/Experiments/SubjectList_ExperimentalProtocol.xlsx
+++ b/NIDA_Expts/Experiments/SubjectList_ExperimentalProtocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panayimc\Documents\GitHub\Marios-temp\NIDA_Expts\Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\Marios-temp\NIDA_Expts\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54453EB8-16C9-44C7-B2A9-A4588E14BB5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65017A5-DF3E-41D8-9EBC-E5C3BD7C2328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{541D3559-B055-4FE0-B959-0E0FD0A7F009}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{541D3559-B055-4FE0-B959-0E0FD0A7F009}"/>
   </bookViews>
   <sheets>
     <sheet name="AnimalWeights" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="169">
   <si>
     <t>Rat</t>
   </si>
@@ -464,6 +464,93 @@
   <si>
     <t>Stage1COunterbalancing</t>
   </si>
+  <si>
+    <t>A++--</t>
+  </si>
+  <si>
+    <t>B+-</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>D+</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>counterbalancing</t>
+  </si>
+  <si>
+    <t>9_____</t>
+  </si>
+  <si>
+    <t>10____</t>
+  </si>
+  <si>
+    <t>11____</t>
+  </si>
+  <si>
+    <t>12____</t>
+  </si>
+  <si>
+    <t>13____</t>
+  </si>
+  <si>
+    <t>14____</t>
+  </si>
+  <si>
+    <t>34____</t>
+  </si>
+  <si>
+    <t>35____</t>
+  </si>
+  <si>
+    <t>36____</t>
+  </si>
+  <si>
+    <t>37____</t>
+  </si>
+  <si>
+    <t>38____</t>
+  </si>
+  <si>
+    <t>39____</t>
+  </si>
+  <si>
+    <t>15____</t>
+  </si>
+  <si>
+    <t>16____</t>
+  </si>
+  <si>
+    <t>40____</t>
+  </si>
+  <si>
+    <t>41____</t>
+  </si>
+  <si>
+    <t>Value_100</t>
+  </si>
+  <si>
+    <t>Value_50</t>
+  </si>
+  <si>
+    <t>Prob_LowV</t>
+  </si>
+  <si>
+    <t>Prob_HighV</t>
+  </si>
 </sst>
 </file>
 
@@ -519,7 +606,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,8 +649,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -609,11 +702,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -700,6 +802,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1915,16 +2020,16 @@
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
         <v>11</v>
       </c>
@@ -1950,7 +2055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2053,7 +2158,7 @@
       <c r="BD2" s="15"/>
       <c r="BE2" s="15"/>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2161,7 +2266,7 @@
       <c r="BD3" s="2"/>
       <c r="BE3" s="2"/>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -2269,7 +2374,7 @@
       <c r="BD4" s="4"/>
       <c r="BE4" s="4"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
@@ -2377,7 +2482,7 @@
       <c r="BD5" s="21"/>
       <c r="BE5" s="21"/>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2485,7 +2590,7 @@
       <c r="BD6" s="2"/>
       <c r="BE6" s="2"/>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -2593,7 +2698,7 @@
       <c r="BD7" s="4"/>
       <c r="BE7" s="4"/>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>5</v>
       </c>
@@ -2701,7 +2806,7 @@
       <c r="BD8" s="21"/>
       <c r="BE8" s="21"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2809,7 +2914,7 @@
       <c r="BD9" s="2"/>
       <c r="BE9" s="2"/>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>5</v>
       </c>
@@ -2917,7 +3022,7 @@
       <c r="BD10" s="21"/>
       <c r="BE10" s="21"/>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -3025,7 +3130,7 @@
       <c r="BD11" s="2"/>
       <c r="BE11" s="2"/>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -3133,7 +3238,7 @@
       <c r="BD12" s="4"/>
       <c r="BE12" s="4"/>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>5</v>
       </c>
@@ -3241,7 +3346,7 @@
       <c r="BD13" s="21"/>
       <c r="BE13" s="21"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -3349,7 +3454,7 @@
       <c r="BD14" s="2"/>
       <c r="BE14" s="2"/>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -3457,7 +3562,7 @@
       <c r="BD15" s="4"/>
       <c r="BE15" s="4"/>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>5</v>
       </c>
@@ -3565,7 +3670,7 @@
       <c r="BD16" s="21"/>
       <c r="BE16" s="21"/>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3673,7 +3778,7 @@
       <c r="BD17" s="2"/>
       <c r="BE17" s="2"/>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>5</v>
       </c>
@@ -3781,7 +3886,7 @@
       <c r="BD18" s="21"/>
       <c r="BE18" s="21"/>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -3889,7 +3994,7 @@
       <c r="BD19" s="2"/>
       <c r="BE19" s="2"/>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
@@ -3997,7 +4102,7 @@
       <c r="BD20" s="4"/>
       <c r="BE20" s="4"/>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>5</v>
       </c>
@@ -4105,7 +4210,7 @@
       <c r="BD21" s="21"/>
       <c r="BE21" s="21"/>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -4213,7 +4318,7 @@
       <c r="BD22" s="2"/>
       <c r="BE22" s="2"/>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -4321,7 +4426,7 @@
       <c r="BD23" s="4"/>
       <c r="BE23" s="4"/>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>5</v>
       </c>
@@ -4429,7 +4534,7 @@
       <c r="BD24" s="21"/>
       <c r="BE24" s="21"/>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -4502,7 +4607,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -4575,7 +4680,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>5</v>
       </c>
@@ -4681,7 +4786,7 @@
       <c r="BD27" s="37"/>
       <c r="BE27" s="37"/>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
@@ -4789,7 +4894,7 @@
       <c r="BD28" s="2"/>
       <c r="BE28" s="2"/>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>8</v>
       </c>
@@ -4897,7 +5002,7 @@
       <c r="BD29" s="21"/>
       <c r="BE29" s="21"/>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
@@ -5005,7 +5110,7 @@
       <c r="BD30" s="2"/>
       <c r="BE30" s="2"/>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>8</v>
       </c>
@@ -5113,7 +5218,7 @@
       <c r="BD31" s="21"/>
       <c r="BE31" s="21"/>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -5221,7 +5326,7 @@
       <c r="BD32" s="2"/>
       <c r="BE32" s="2"/>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>8</v>
       </c>
@@ -5329,7 +5434,7 @@
       <c r="BD33" s="21"/>
       <c r="BE33" s="21"/>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
         <v>8</v>
       </c>
@@ -5435,7 +5540,7 @@
       <c r="BD34" s="37"/>
       <c r="BE34" s="37"/>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
         <v>8</v>
       </c>
@@ -5541,7 +5646,7 @@
       <c r="BD35" s="37"/>
       <c r="BE35" s="37"/>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -5649,7 +5754,7 @@
       <c r="BD36" s="2"/>
       <c r="BE36" s="2"/>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
@@ -5757,7 +5862,7 @@
       <c r="BD37" s="4"/>
       <c r="BE37" s="4"/>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>8</v>
       </c>
@@ -5865,7 +5970,7 @@
       <c r="BD38" s="21"/>
       <c r="BE38" s="21"/>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
         <v>8</v>
       </c>
@@ -5973,7 +6078,7 @@
       <c r="BD39" s="37"/>
       <c r="BE39" s="37"/>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
         <v>8</v>
       </c>
@@ -6081,7 +6186,7 @@
       <c r="BD40" s="37"/>
       <c r="BE40" s="37"/>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>8</v>
       </c>
@@ -6189,7 +6294,7 @@
       <c r="BD41" s="37"/>
       <c r="BE41" s="37"/>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
         <v>8</v>
       </c>
@@ -6295,7 +6400,7 @@
       <c r="BD42" s="37"/>
       <c r="BE42" s="37"/>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>8</v>
       </c>
@@ -6401,7 +6506,7 @@
       <c r="BD43" s="37"/>
       <c r="BE43" s="37"/>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
         <v>8</v>
       </c>
@@ -6507,7 +6612,7 @@
       <c r="BD44" s="37"/>
       <c r="BE44" s="37"/>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
         <v>8</v>
       </c>
@@ -6613,7 +6718,7 @@
       <c r="BD45" s="37"/>
       <c r="BE45" s="37"/>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="s">
         <v>8</v>
       </c>
@@ -6730,28 +6835,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AE58"/>
+  <dimension ref="A2:AS58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y48" sqref="Y47:Y58"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW24" sqref="AW24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="18" max="18" width="8.88671875" style="57"/>
-    <col min="21" max="21" width="8.88671875" style="66"/>
-    <col min="22" max="22" width="13.33203125" style="66" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.33203125" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="57"/>
+    <col min="21" max="21" width="8.85546875" style="66"/>
+    <col min="22" max="22" width="13.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" customWidth="1"/>
+    <col min="38" max="38" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AE2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -6837,7 +6943,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -6921,7 +7027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -7005,7 +7111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
@@ -7089,7 +7195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -7173,7 +7279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -7257,7 +7363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>5</v>
       </c>
@@ -7344,7 +7450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -7428,7 +7534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>5</v>
       </c>
@@ -7512,7 +7618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -7596,7 +7702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -7680,7 +7786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
@@ -7764,7 +7870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -7848,7 +7954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -7932,7 +8038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>5</v>
       </c>
@@ -8016,7 +8122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -8100,7 +8206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>5</v>
       </c>
@@ -8184,7 +8290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -8230,7 +8336,7 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -8262,7 +8368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>5</v>
       </c>
@@ -8294,7 +8400,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -8326,7 +8432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -8360,8 +8466,20 @@
       <c r="AB24" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AL24" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN24" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP24" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR24" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>5</v>
       </c>
@@ -8437,8 +8555,53 @@
       <c r="AB25" s="9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AD25" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE25" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF25" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG25" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH25" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI25" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ25" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL25" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM25" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN25" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO25" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP25" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ25" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR25" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS25" s="70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -8511,8 +8674,61 @@
       <c r="AB26" s="66">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AD26" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE26" s="8">
+        <v>11</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG26" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH26" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI26" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ26" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL26" t="str">
+        <f>AI26</f>
+        <v>Tone</v>
+      </c>
+      <c r="AM26" t="str">
+        <f>AJ26</f>
+        <v>Siren</v>
+      </c>
+      <c r="AN26" t="str">
+        <f>AG26</f>
+        <v>Click</v>
+      </c>
+      <c r="AO26" t="str">
+        <f>AH26</f>
+        <v>Noise</v>
+      </c>
+      <c r="AP26" t="str">
+        <f>AG26</f>
+        <v>Click</v>
+      </c>
+      <c r="AQ26" t="str">
+        <f>AI26</f>
+        <v>Tone</v>
+      </c>
+      <c r="AR26" t="str">
+        <f>AH26</f>
+        <v>Noise</v>
+      </c>
+      <c r="AS26" t="str">
+        <f>AJ26</f>
+        <v>Siren</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -8585,8 +8801,61 @@
       <c r="AB27" s="66">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AD27" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE27" s="8">
+        <v>12</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG27" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH27" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI27" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ27" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL27" t="str">
+        <f t="shared" ref="AL27:AL41" si="0">AI27</f>
+        <v>Noise</v>
+      </c>
+      <c r="AM27" t="str">
+        <f t="shared" ref="AM27:AM41" si="1">AJ27</f>
+        <v>Tone</v>
+      </c>
+      <c r="AN27" t="str">
+        <f t="shared" ref="AN27:AN41" si="2">AG27</f>
+        <v>Siren</v>
+      </c>
+      <c r="AO27" t="str">
+        <f t="shared" ref="AO27:AO41" si="3">AH27</f>
+        <v>Click</v>
+      </c>
+      <c r="AP27" t="str">
+        <f t="shared" ref="AP27:AP41" si="4">AG27</f>
+        <v>Siren</v>
+      </c>
+      <c r="AQ27" t="str">
+        <f t="shared" ref="AQ27:AQ41" si="5">AI27</f>
+        <v>Noise</v>
+      </c>
+      <c r="AR27" t="str">
+        <f t="shared" ref="AR27:AR41" si="6">AH27</f>
+        <v>Click</v>
+      </c>
+      <c r="AS27" t="str">
+        <f t="shared" ref="AS27:AS41" si="7">AJ27</f>
+        <v>Tone</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>5</v>
       </c>
@@ -8659,8 +8928,61 @@
       <c r="AB28" s="66">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AD28" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE28" s="8">
+        <v>13</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG28" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH28" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI28" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ28" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL28" t="str">
+        <f t="shared" si="0"/>
+        <v>Click</v>
+      </c>
+      <c r="AM28" t="str">
+        <f t="shared" si="1"/>
+        <v>Noise</v>
+      </c>
+      <c r="AN28" t="str">
+        <f t="shared" si="2"/>
+        <v>Tone</v>
+      </c>
+      <c r="AO28" t="str">
+        <f t="shared" si="3"/>
+        <v>Siren</v>
+      </c>
+      <c r="AP28" t="str">
+        <f t="shared" si="4"/>
+        <v>Tone</v>
+      </c>
+      <c r="AQ28" t="str">
+        <f t="shared" si="5"/>
+        <v>Click</v>
+      </c>
+      <c r="AR28" t="str">
+        <f t="shared" si="6"/>
+        <v>Siren</v>
+      </c>
+      <c r="AS28" t="str">
+        <f t="shared" si="7"/>
+        <v>Noise</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -8733,8 +9055,61 @@
       <c r="AB29" s="66">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AD29" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE29" s="8">
+        <v>14</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG29" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH29" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI29" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ29" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL29" t="str">
+        <f t="shared" si="0"/>
+        <v>Siren</v>
+      </c>
+      <c r="AM29" t="str">
+        <f t="shared" si="1"/>
+        <v>Click</v>
+      </c>
+      <c r="AN29" t="str">
+        <f t="shared" si="2"/>
+        <v>Noise</v>
+      </c>
+      <c r="AO29" t="str">
+        <f t="shared" si="3"/>
+        <v>Tone</v>
+      </c>
+      <c r="AP29" t="str">
+        <f t="shared" si="4"/>
+        <v>Noise</v>
+      </c>
+      <c r="AQ29" t="str">
+        <f t="shared" si="5"/>
+        <v>Siren</v>
+      </c>
+      <c r="AR29" t="str">
+        <f t="shared" si="6"/>
+        <v>Tone</v>
+      </c>
+      <c r="AS29" t="str">
+        <f t="shared" si="7"/>
+        <v>Click</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>8</v>
       </c>
@@ -8810,8 +9185,61 @@
       <c r="AB30" s="66">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AD30" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE30" s="8">
+        <v>11</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG30" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH30" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI30" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ30" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL30" t="str">
+        <f t="shared" si="0"/>
+        <v>Tone</v>
+      </c>
+      <c r="AM30" t="str">
+        <f t="shared" si="1"/>
+        <v>Siren</v>
+      </c>
+      <c r="AN30" t="str">
+        <f t="shared" si="2"/>
+        <v>Click</v>
+      </c>
+      <c r="AO30" t="str">
+        <f t="shared" si="3"/>
+        <v>Noise</v>
+      </c>
+      <c r="AP30" t="str">
+        <f t="shared" si="4"/>
+        <v>Click</v>
+      </c>
+      <c r="AQ30" t="str">
+        <f t="shared" si="5"/>
+        <v>Tone</v>
+      </c>
+      <c r="AR30" t="str">
+        <f t="shared" si="6"/>
+        <v>Noise</v>
+      </c>
+      <c r="AS30" t="str">
+        <f t="shared" si="7"/>
+        <v>Siren</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -8884,8 +9312,61 @@
       <c r="AB31" s="66">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AD31" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE31" s="8">
+        <v>12</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG31" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH31" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI31" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ31" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL31" t="str">
+        <f t="shared" si="0"/>
+        <v>Noise</v>
+      </c>
+      <c r="AM31" t="str">
+        <f t="shared" si="1"/>
+        <v>Tone</v>
+      </c>
+      <c r="AN31" t="str">
+        <f t="shared" si="2"/>
+        <v>Siren</v>
+      </c>
+      <c r="AO31" t="str">
+        <f t="shared" si="3"/>
+        <v>Click</v>
+      </c>
+      <c r="AP31" t="str">
+        <f t="shared" si="4"/>
+        <v>Siren</v>
+      </c>
+      <c r="AQ31" t="str">
+        <f t="shared" si="5"/>
+        <v>Noise</v>
+      </c>
+      <c r="AR31" t="str">
+        <f t="shared" si="6"/>
+        <v>Click</v>
+      </c>
+      <c r="AS31" t="str">
+        <f t="shared" si="7"/>
+        <v>Tone</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>8</v>
       </c>
@@ -8958,8 +9439,61 @@
       <c r="AB32" s="66">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD32" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE32" s="8">
+        <v>11</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG32" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH32" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI32" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ32" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL32" t="str">
+        <f t="shared" si="0"/>
+        <v>Tone</v>
+      </c>
+      <c r="AM32" t="str">
+        <f t="shared" si="1"/>
+        <v>Siren</v>
+      </c>
+      <c r="AN32" t="str">
+        <f t="shared" si="2"/>
+        <v>Click</v>
+      </c>
+      <c r="AO32" t="str">
+        <f t="shared" si="3"/>
+        <v>Noise</v>
+      </c>
+      <c r="AP32" t="str">
+        <f t="shared" si="4"/>
+        <v>Click</v>
+      </c>
+      <c r="AQ32" t="str">
+        <f t="shared" si="5"/>
+        <v>Tone</v>
+      </c>
+      <c r="AR32" t="str">
+        <f t="shared" si="6"/>
+        <v>Noise</v>
+      </c>
+      <c r="AS32" t="str">
+        <f t="shared" si="7"/>
+        <v>Siren</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -9032,8 +9566,61 @@
       <c r="AB33" s="66">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD33" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE33" s="8">
+        <v>12</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG33" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH33" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI33" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ33" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL33" t="str">
+        <f t="shared" si="0"/>
+        <v>Noise</v>
+      </c>
+      <c r="AM33" t="str">
+        <f t="shared" si="1"/>
+        <v>Tone</v>
+      </c>
+      <c r="AN33" t="str">
+        <f t="shared" si="2"/>
+        <v>Siren</v>
+      </c>
+      <c r="AO33" t="str">
+        <f t="shared" si="3"/>
+        <v>Click</v>
+      </c>
+      <c r="AP33" t="str">
+        <f t="shared" si="4"/>
+        <v>Siren</v>
+      </c>
+      <c r="AQ33" t="str">
+        <f t="shared" si="5"/>
+        <v>Noise</v>
+      </c>
+      <c r="AR33" t="str">
+        <f t="shared" si="6"/>
+        <v>Click</v>
+      </c>
+      <c r="AS33" t="str">
+        <f t="shared" si="7"/>
+        <v>Tone</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>8</v>
       </c>
@@ -9106,8 +9693,61 @@
       <c r="AB34" s="66">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD34" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE34" s="8">
+        <v>13</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG34" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH34" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI34" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ34" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL34" t="str">
+        <f t="shared" si="0"/>
+        <v>Click</v>
+      </c>
+      <c r="AM34" t="str">
+        <f t="shared" si="1"/>
+        <v>Noise</v>
+      </c>
+      <c r="AN34" t="str">
+        <f t="shared" si="2"/>
+        <v>Tone</v>
+      </c>
+      <c r="AO34" t="str">
+        <f t="shared" si="3"/>
+        <v>Siren</v>
+      </c>
+      <c r="AP34" t="str">
+        <f t="shared" si="4"/>
+        <v>Tone</v>
+      </c>
+      <c r="AQ34" t="str">
+        <f t="shared" si="5"/>
+        <v>Click</v>
+      </c>
+      <c r="AR34" t="str">
+        <f t="shared" si="6"/>
+        <v>Siren</v>
+      </c>
+      <c r="AS34" t="str">
+        <f t="shared" si="7"/>
+        <v>Noise</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
         <v>8</v>
       </c>
@@ -9180,8 +9820,61 @@
       <c r="AB35" s="66">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD35" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE35" s="8">
+        <v>14</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG35" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH35" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI35" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ35" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL35" t="str">
+        <f t="shared" si="0"/>
+        <v>Siren</v>
+      </c>
+      <c r="AM35" t="str">
+        <f t="shared" si="1"/>
+        <v>Click</v>
+      </c>
+      <c r="AN35" t="str">
+        <f t="shared" si="2"/>
+        <v>Noise</v>
+      </c>
+      <c r="AO35" t="str">
+        <f t="shared" si="3"/>
+        <v>Tone</v>
+      </c>
+      <c r="AP35" t="str">
+        <f t="shared" si="4"/>
+        <v>Noise</v>
+      </c>
+      <c r="AQ35" t="str">
+        <f t="shared" si="5"/>
+        <v>Siren</v>
+      </c>
+      <c r="AR35" t="str">
+        <f t="shared" si="6"/>
+        <v>Tone</v>
+      </c>
+      <c r="AS35" t="str">
+        <f t="shared" si="7"/>
+        <v>Click</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
         <v>8</v>
       </c>
@@ -9254,8 +9947,61 @@
       <c r="AB36" s="66">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD36" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE36" s="8">
+        <v>11</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG36" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH36" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI36" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ36" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL36" t="str">
+        <f t="shared" si="0"/>
+        <v>Tone</v>
+      </c>
+      <c r="AM36" t="str">
+        <f t="shared" si="1"/>
+        <v>Siren</v>
+      </c>
+      <c r="AN36" t="str">
+        <f t="shared" si="2"/>
+        <v>Click</v>
+      </c>
+      <c r="AO36" t="str">
+        <f t="shared" si="3"/>
+        <v>Noise</v>
+      </c>
+      <c r="AP36" t="str">
+        <f t="shared" si="4"/>
+        <v>Click</v>
+      </c>
+      <c r="AQ36" t="str">
+        <f t="shared" si="5"/>
+        <v>Tone</v>
+      </c>
+      <c r="AR36" t="str">
+        <f t="shared" si="6"/>
+        <v>Noise</v>
+      </c>
+      <c r="AS36" t="str">
+        <f t="shared" si="7"/>
+        <v>Siren</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
@@ -9328,8 +10074,61 @@
       <c r="AB37" s="66">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD37" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE37" s="8">
+        <v>12</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG37" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH37" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI37" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ37" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL37" t="str">
+        <f t="shared" si="0"/>
+        <v>Noise</v>
+      </c>
+      <c r="AM37" t="str">
+        <f t="shared" si="1"/>
+        <v>Tone</v>
+      </c>
+      <c r="AN37" t="str">
+        <f t="shared" si="2"/>
+        <v>Siren</v>
+      </c>
+      <c r="AO37" t="str">
+        <f t="shared" si="3"/>
+        <v>Click</v>
+      </c>
+      <c r="AP37" t="str">
+        <f t="shared" si="4"/>
+        <v>Siren</v>
+      </c>
+      <c r="AQ37" t="str">
+        <f t="shared" si="5"/>
+        <v>Noise</v>
+      </c>
+      <c r="AR37" t="str">
+        <f t="shared" si="6"/>
+        <v>Click</v>
+      </c>
+      <c r="AS37" t="str">
+        <f t="shared" si="7"/>
+        <v>Tone</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
@@ -9402,8 +10201,61 @@
       <c r="AB38" s="66">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD38" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE38" s="8">
+        <v>13</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG38" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH38" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI38" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ38" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL38" t="str">
+        <f t="shared" si="0"/>
+        <v>Click</v>
+      </c>
+      <c r="AM38" t="str">
+        <f t="shared" si="1"/>
+        <v>Noise</v>
+      </c>
+      <c r="AN38" t="str">
+        <f t="shared" si="2"/>
+        <v>Tone</v>
+      </c>
+      <c r="AO38" t="str">
+        <f t="shared" si="3"/>
+        <v>Siren</v>
+      </c>
+      <c r="AP38" t="str">
+        <f t="shared" si="4"/>
+        <v>Tone</v>
+      </c>
+      <c r="AQ38" t="str">
+        <f t="shared" si="5"/>
+        <v>Click</v>
+      </c>
+      <c r="AR38" t="str">
+        <f t="shared" si="6"/>
+        <v>Siren</v>
+      </c>
+      <c r="AS38" t="str">
+        <f t="shared" si="7"/>
+        <v>Noise</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>8</v>
       </c>
@@ -9476,8 +10328,61 @@
       <c r="AB39" s="66">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD39" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE39" s="8">
+        <v>14</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG39" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH39" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI39" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ39" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL39" t="str">
+        <f t="shared" si="0"/>
+        <v>Siren</v>
+      </c>
+      <c r="AM39" t="str">
+        <f t="shared" si="1"/>
+        <v>Click</v>
+      </c>
+      <c r="AN39" t="str">
+        <f t="shared" si="2"/>
+        <v>Noise</v>
+      </c>
+      <c r="AO39" t="str">
+        <f t="shared" si="3"/>
+        <v>Tone</v>
+      </c>
+      <c r="AP39" t="str">
+        <f t="shared" si="4"/>
+        <v>Noise</v>
+      </c>
+      <c r="AQ39" t="str">
+        <f t="shared" si="5"/>
+        <v>Siren</v>
+      </c>
+      <c r="AR39" t="str">
+        <f t="shared" si="6"/>
+        <v>Tone</v>
+      </c>
+      <c r="AS39" t="str">
+        <f t="shared" si="7"/>
+        <v>Click</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
         <v>8</v>
       </c>
@@ -9550,8 +10455,61 @@
       <c r="AB40" s="66">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD40" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE40" s="8">
+        <v>13</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG40" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH40" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI40" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ40" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL40" t="str">
+        <f t="shared" si="0"/>
+        <v>Click</v>
+      </c>
+      <c r="AM40" t="str">
+        <f t="shared" si="1"/>
+        <v>Noise</v>
+      </c>
+      <c r="AN40" t="str">
+        <f t="shared" si="2"/>
+        <v>Tone</v>
+      </c>
+      <c r="AO40" t="str">
+        <f t="shared" si="3"/>
+        <v>Siren</v>
+      </c>
+      <c r="AP40" t="str">
+        <f t="shared" si="4"/>
+        <v>Tone</v>
+      </c>
+      <c r="AQ40" t="str">
+        <f t="shared" si="5"/>
+        <v>Click</v>
+      </c>
+      <c r="AR40" t="str">
+        <f t="shared" si="6"/>
+        <v>Siren</v>
+      </c>
+      <c r="AS40" t="str">
+        <f t="shared" si="7"/>
+        <v>Noise</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>8</v>
       </c>
@@ -9624,8 +10582,61 @@
       <c r="AB41" s="66">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD41" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE41" s="8">
+        <v>14</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG41" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH41" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI41" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ41" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL41" t="str">
+        <f t="shared" si="0"/>
+        <v>Siren</v>
+      </c>
+      <c r="AM41" t="str">
+        <f t="shared" si="1"/>
+        <v>Click</v>
+      </c>
+      <c r="AN41" t="str">
+        <f t="shared" si="2"/>
+        <v>Noise</v>
+      </c>
+      <c r="AO41" t="str">
+        <f t="shared" si="3"/>
+        <v>Tone</v>
+      </c>
+      <c r="AP41" t="str">
+        <f t="shared" si="4"/>
+        <v>Noise</v>
+      </c>
+      <c r="AQ41" t="str">
+        <f t="shared" si="5"/>
+        <v>Siren</v>
+      </c>
+      <c r="AR41" t="str">
+        <f t="shared" si="6"/>
+        <v>Tone</v>
+      </c>
+      <c r="AS41" t="str">
+        <f t="shared" si="7"/>
+        <v>Click</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
         <v>8</v>
       </c>
@@ -9657,7 +10668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>8</v>
       </c>
@@ -9689,7 +10700,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
         <v>8</v>
       </c>
@@ -9721,7 +10732,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
         <v>8</v>
       </c>
@@ -9753,7 +10764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="s">
         <v>8</v>
       </c>
@@ -9827,7 +10838,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" s="37" t="s">
         <v>8</v>
       </c>
@@ -9902,7 +10913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="M48" t="s">
         <v>123</v>
       </c>
@@ -9940,14 +10951,14 @@
         <v>117</v>
       </c>
       <c r="Y48" t="str">
-        <f t="shared" ref="Y48:Y58" si="0">IF(Z48=16, "A", "B")</f>
+        <f t="shared" ref="Y48:Y58" si="8">IF(Z48=16, "A", "B")</f>
         <v>B</v>
       </c>
       <c r="Z48">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M49" t="s">
         <v>123</v>
       </c>
@@ -9985,14 +10996,14 @@
         <v>118</v>
       </c>
       <c r="Y49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="Z49">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M50" t="s">
         <v>123</v>
       </c>
@@ -10030,14 +11041,14 @@
         <v>118</v>
       </c>
       <c r="Y50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="Z50">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M51" t="s">
         <v>123</v>
       </c>
@@ -10075,14 +11086,14 @@
         <v>118</v>
       </c>
       <c r="Y51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="Z51">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M52" t="s">
         <v>123</v>
       </c>
@@ -10120,14 +11131,14 @@
         <v>118</v>
       </c>
       <c r="Y52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="Z52">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M53" s="37" t="s">
         <v>123</v>
       </c>
@@ -10165,14 +11176,14 @@
         <v>117</v>
       </c>
       <c r="Y53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="Z53">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M54" s="37" t="s">
         <v>123</v>
       </c>
@@ -10210,14 +11221,14 @@
         <v>118</v>
       </c>
       <c r="Y54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="Z54">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M55" s="37" t="s">
         <v>123</v>
       </c>
@@ -10255,14 +11266,14 @@
         <v>118</v>
       </c>
       <c r="Y55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="Z55">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M56" s="49" t="s">
         <v>123</v>
       </c>
@@ -10300,14 +11311,14 @@
         <v>117</v>
       </c>
       <c r="Y56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="Z56">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M57" s="49" t="s">
         <v>123</v>
       </c>
@@ -10345,14 +11356,14 @@
         <v>117</v>
       </c>
       <c r="Y57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="Z57">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M58" s="49" t="s">
         <v>123</v>
       </c>
@@ -10390,7 +11401,7 @@
         <v>117</v>
       </c>
       <c r="Y58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="Z58">
@@ -10416,9 +11427,9 @@
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -10450,7 +11461,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -10508,7 +11519,7 @@
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -10566,7 +11577,7 @@
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
@@ -10624,7 +11635,7 @@
       <c r="AI4" s="21"/>
       <c r="AJ4" s="21"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -10682,7 +11693,7 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -10740,7 +11751,7 @@
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>5</v>
       </c>
@@ -10798,7 +11809,7 @@
       <c r="AI7" s="21"/>
       <c r="AJ7" s="21"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -10856,7 +11867,7 @@
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>5</v>
       </c>
@@ -10914,7 +11925,7 @@
       <c r="AI9" s="21"/>
       <c r="AJ9" s="21"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -10972,7 +11983,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -11030,7 +12041,7 @@
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>5</v>
       </c>
@@ -11088,7 +12099,7 @@
       <c r="AI12" s="21"/>
       <c r="AJ12" s="21"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -11146,7 +12157,7 @@
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -11204,7 +12215,7 @@
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>5</v>
       </c>
@@ -11262,7 +12273,7 @@
       <c r="AI15" s="21"/>
       <c r="AJ15" s="21"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -11320,7 +12331,7 @@
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>5</v>
       </c>
@@ -11378,7 +12389,7 @@
       <c r="AI17" s="21"/>
       <c r="AJ17" s="21"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -11436,7 +12447,7 @@
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
@@ -11494,7 +12505,7 @@
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>5</v>
       </c>
@@ -11552,7 +12563,7 @@
       <c r="AI20" s="21"/>
       <c r="AJ20" s="21"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -11610,7 +12621,7 @@
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
@@ -11668,7 +12679,7 @@
       <c r="AI22" s="4"/>
       <c r="AJ22" s="4"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>5</v>
       </c>
@@ -11726,7 +12737,7 @@
       <c r="AI23" s="21"/>
       <c r="AJ23" s="21"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -11758,7 +12769,7 @@
         <v>290.40000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -11790,7 +12801,7 @@
         <v>311.60000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>5</v>
       </c>
@@ -11848,7 +12859,7 @@
       <c r="AI26" s="37"/>
       <c r="AJ26" s="37"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -11906,7 +12917,7 @@
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>8</v>
       </c>
@@ -11964,7 +12975,7 @@
       <c r="AI28" s="21"/>
       <c r="AJ28" s="21"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -12022,7 +13033,7 @@
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>8</v>
       </c>
@@ -12080,7 +13091,7 @@
       <c r="AI30" s="21"/>
       <c r="AJ30" s="21"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -12138,7 +13149,7 @@
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>8</v>
       </c>
@@ -12196,7 +13207,7 @@
       <c r="AI32" s="21"/>
       <c r="AJ32" s="21"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
         <v>8</v>
       </c>
@@ -12254,7 +13265,7 @@
       <c r="AI33" s="37"/>
       <c r="AJ33" s="37"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
         <v>8</v>
       </c>
@@ -12312,7 +13323,7 @@
       <c r="AI34" s="37"/>
       <c r="AJ34" s="37"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>8</v>
       </c>
@@ -12370,7 +13381,7 @@
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>8</v>
       </c>
@@ -12428,7 +13439,7 @@
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>8</v>
       </c>
@@ -12486,7 +13497,7 @@
       <c r="AI37" s="21"/>
       <c r="AJ37" s="21"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>8</v>
       </c>
@@ -12544,7 +13555,7 @@
       <c r="AI38" s="37"/>
       <c r="AJ38" s="37"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
         <v>8</v>
       </c>
@@ -12602,7 +13613,7 @@
       <c r="AI39" s="37"/>
       <c r="AJ39" s="37"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
         <v>8</v>
       </c>
@@ -12660,7 +13671,7 @@
       <c r="AI40" s="37"/>
       <c r="AJ40" s="37"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>8</v>
       </c>
@@ -12718,7 +13729,7 @@
       <c r="AI41" s="37"/>
       <c r="AJ41" s="37"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
         <v>8</v>
       </c>
@@ -12776,7 +13787,7 @@
       <c r="AI42" s="37"/>
       <c r="AJ42" s="37"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>8</v>
       </c>
@@ -12834,7 +13845,7 @@
       <c r="AI43" s="37"/>
       <c r="AJ43" s="37"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
         <v>8</v>
       </c>
@@ -12892,7 +13903,7 @@
       <c r="AI44" s="37"/>
       <c r="AJ44" s="37"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
         <v>8</v>
       </c>
@@ -12966,32 +13977,32 @@
       <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="3.5546875" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.44140625" customWidth="1"/>
-    <col min="23" max="23" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.88671875" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.5703125" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.42578125" customWidth="1"/>
+    <col min="23" max="23" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" customWidth="1"/>
     <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5546875" customWidth="1"/>
-    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5703125" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>94</v>
       </c>
@@ -12999,7 +14010,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>11</v>
       </c>
@@ -13016,7 +14027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -13109,7 +14120,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -13206,7 +14217,7 @@
         <v>227.60000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -13303,7 +14314,7 @@
         <v>229.20000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
@@ -13400,7 +14411,7 @@
         <v>230.8</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -13497,7 +14508,7 @@
         <v>266.40000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -13594,7 +14605,7 @@
         <v>249.60000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>5</v>
       </c>
@@ -13691,7 +14702,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -13788,7 +14799,7 @@
         <v>226.4</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>5</v>
       </c>
@@ -13885,7 +14896,7 @@
         <v>237.20000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -13982,7 +14993,7 @@
         <v>215.20000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -14079,7 +15090,7 @@
         <v>207.60000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
@@ -14176,7 +15187,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -14273,7 +15284,7 @@
         <v>295.60000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -14370,7 +15381,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>5</v>
       </c>
@@ -14467,7 +15478,7 @@
         <v>208.4</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -14564,7 +15575,7 @@
         <v>193.60000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>5</v>
       </c>
@@ -14661,7 +15672,7 @@
         <v>245.60000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -14758,7 +15769,7 @@
         <v>243.20000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -14855,7 +15866,7 @@
         <v>243.20000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>5</v>
       </c>
@@ -14952,7 +15963,7 @@
         <v>319.60000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -15049,7 +16060,7 @@
         <v>262.40000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -15146,7 +16157,7 @@
         <v>220.8</v>
       </c>
     </row>
-    <row r="25" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>5</v>
       </c>
@@ -15243,7 +16254,7 @@
         <v>262.40000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -15340,7 +16351,7 @@
         <v>290.40000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -15437,7 +16448,7 @@
         <v>311.60000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>5</v>
       </c>
@@ -15531,7 +16542,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -15628,7 +16639,7 @@
         <v>401.20000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>8</v>
       </c>
@@ -15725,7 +16736,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="31" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -15822,7 +16833,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>8</v>
       </c>
@@ -15919,7 +16930,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="33" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -16016,7 +17027,7 @@
         <v>436.40000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>8</v>
       </c>
@@ -16113,7 +17124,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
         <v>8</v>
       </c>
@@ -16207,7 +17218,7 @@
         <v>421.6</v>
       </c>
     </row>
-    <row r="36" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
         <v>8</v>
       </c>
@@ -16301,7 +17312,7 @@
         <v>454.8</v>
       </c>
     </row>
-    <row r="37" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
@@ -16398,7 +17409,7 @@
         <v>422.8</v>
       </c>
     </row>
-    <row r="38" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
@@ -16495,7 +17506,7 @@
         <v>442.40000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>8</v>
       </c>
@@ -16592,7 +17603,7 @@
         <v>396.40000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
         <v>8</v>
       </c>
@@ -16689,7 +17700,7 @@
         <v>596.80000000000007</v>
       </c>
     </row>
-    <row r="41" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>8</v>
       </c>
@@ -16786,7 +17797,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="42" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
         <v>8</v>
       </c>
@@ -16883,7 +17894,7 @@
         <v>532.80000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>8</v>
       </c>
@@ -16977,7 +17988,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="44" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
         <v>8</v>
       </c>
@@ -17071,7 +18082,7 @@
         <v>483.20000000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
         <v>8</v>
       </c>
@@ -17165,7 +18176,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="46" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="s">
         <v>8</v>
       </c>
@@ -17259,7 +18270,7 @@
         <v>464.8</v>
       </c>
     </row>
-    <row r="47" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="37" t="s">
         <v>8</v>
       </c>
@@ -17353,7 +18364,7 @@
         <v>431.6</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -17382,19 +18393,19 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="110.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="85.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1"/>
-    <col min="8" max="8" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="110.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>28</v>
       </c>
@@ -17405,7 +18416,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -17441,7 +18452,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -17455,7 +18466,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -17469,7 +18480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -17492,7 +18503,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -17515,7 +18526,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -17538,7 +18549,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -17555,7 +18566,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -17575,7 +18586,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -17595,7 +18606,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -17615,7 +18626,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -17635,7 +18646,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -17655,7 +18666,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -17672,7 +18683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -17689,7 +18700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -17706,7 +18717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -17732,7 +18743,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -17758,7 +18769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -17784,7 +18795,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -17810,7 +18821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>14</v>
       </c>
@@ -17836,7 +18847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -17862,7 +18873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
@@ -17888,7 +18899,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -17914,7 +18925,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -17940,7 +18951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -17963,7 +18974,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>13</v>
       </c>
@@ -17971,7 +18982,7 @@
         <v>44189</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
         <v>14</v>
       </c>
@@ -17979,7 +18990,7 @@
         <v>44190</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>15</v>
       </c>
@@ -18005,7 +19016,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>16</v>
       </c>
@@ -18034,7 +19045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -18063,7 +19074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -18089,7 +19100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
@@ -18109,7 +19120,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>13</v>
       </c>
@@ -18117,7 +19128,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>14</v>
       </c>
@@ -18125,7 +19136,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -18151,7 +19162,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>16</v>
       </c>
@@ -18174,7 +19185,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
@@ -18203,7 +19214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
@@ -18214,7 +19225,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
@@ -18222,7 +19233,7 @@
         <v>44202</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
@@ -18230,7 +19241,7 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>14</v>
       </c>
@@ -18238,7 +19249,7 @@
         <v>44204</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>15</v>
       </c>
@@ -18246,7 +19257,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>16</v>
       </c>
@@ -18254,7 +19265,7 @@
         <v>44206</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -18262,7 +19273,7 @@
         <v>44207</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
@@ -18270,7 +19281,7 @@
         <v>44208</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -18278,7 +19289,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>13</v>
       </c>
@@ -18286,7 +19297,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>14</v>
       </c>
@@ -18294,7 +19305,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>15</v>
       </c>
@@ -18302,7 +19313,7 @@
         <v>44212</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>16</v>
       </c>
@@ -18310,7 +19321,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>10</v>
       </c>
@@ -18318,7 +19329,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -18326,7 +19337,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>12</v>
       </c>
@@ -18334,7 +19345,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>13</v>
       </c>
@@ -18342,7 +19353,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>14</v>
       </c>
@@ -18350,7 +19361,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>15</v>
       </c>
@@ -18358,7 +19369,7 @@
         <v>44219</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>16</v>
       </c>
@@ -18366,7 +19377,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>10</v>
       </c>
@@ -18374,7 +19385,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>11</v>
       </c>
@@ -18382,7 +19393,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>12</v>
       </c>
@@ -18390,7 +19401,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>13</v>
       </c>
@@ -18398,7 +19409,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>14</v>
       </c>
@@ -18406,7 +19417,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>15</v>
       </c>
@@ -18414,7 +19425,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>16</v>
       </c>
@@ -18422,7 +19433,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
@@ -18430,7 +19441,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>11</v>
       </c>
@@ -18438,7 +19449,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>12</v>
       </c>
@@ -18446,7 +19457,7 @@
         <v>44230</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>13</v>
       </c>
@@ -18454,7 +19465,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>14</v>
       </c>
@@ -18462,7 +19473,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>15</v>
       </c>
@@ -18470,7 +19481,7 @@
         <v>44233</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>16</v>
       </c>
@@ -18478,7 +19489,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
@@ -18486,7 +19497,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>11</v>
       </c>
@@ -18494,7 +19505,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>12</v>
       </c>
@@ -18502,7 +19513,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>13</v>
       </c>
@@ -18510,7 +19521,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>14</v>
       </c>
@@ -18518,7 +19529,7 @@
         <v>44239</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>15</v>
       </c>
@@ -18526,7 +19537,7 @@
         <v>44240</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>16</v>
       </c>
@@ -18534,7 +19545,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>10</v>
       </c>
@@ -18542,7 +19553,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>11</v>
       </c>
@@ -18550,7 +19561,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>12</v>
       </c>
@@ -18558,7 +19569,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>13</v>
       </c>
@@ -18566,7 +19577,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>14</v>
       </c>
@@ -18574,7 +19585,7 @@
         <v>44246</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>15</v>
       </c>
@@ -18582,7 +19593,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>16</v>
       </c>
@@ -18590,7 +19601,7 @@
         <v>44248</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>10</v>
       </c>
@@ -18598,7 +19609,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>11</v>
       </c>
@@ -18606,7 +19617,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>12</v>
       </c>
@@ -18614,7 +19625,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>13</v>
       </c>
@@ -18622,7 +19633,7 @@
         <v>44252</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>14</v>
       </c>
@@ -18630,7 +19641,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>15</v>
       </c>
@@ -18638,7 +19649,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>16</v>
       </c>
@@ -18646,7 +19657,7 @@
         <v>44255</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>10</v>
       </c>
@@ -18654,7 +19665,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>11</v>
       </c>
@@ -18662,7 +19673,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>12</v>
       </c>
@@ -18670,7 +19681,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>13</v>
       </c>
@@ -18678,7 +19689,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>14</v>
       </c>
@@ -18686,7 +19697,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>15</v>
       </c>
@@ -18694,7 +19705,7 @@
         <v>44261</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>16</v>
       </c>
@@ -18702,7 +19713,7 @@
         <v>44262</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>10</v>
       </c>
@@ -18710,7 +19721,7 @@
         <v>44263</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>11</v>
       </c>
@@ -18718,7 +19729,7 @@
         <v>44264</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>12</v>
       </c>
@@ -18726,7 +19737,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>13</v>
       </c>
@@ -18734,7 +19745,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>14</v>
       </c>
@@ -18742,7 +19753,7 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>15</v>
       </c>
@@ -18750,7 +19761,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>16</v>
       </c>
@@ -18758,7 +19769,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>10</v>
       </c>
@@ -18766,7 +19777,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>11</v>
       </c>
@@ -18774,7 +19785,7 @@
         <v>44271</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>12</v>
       </c>
@@ -18782,7 +19793,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>13</v>
       </c>
@@ -18790,7 +19801,7 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>14</v>
       </c>
@@ -18798,7 +19809,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>15</v>
       </c>
@@ -18806,7 +19817,7 @@
         <v>44275</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>16</v>
       </c>
@@ -18814,7 +19825,7 @@
         <v>44276</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>10</v>
       </c>
@@ -18822,7 +19833,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>11</v>
       </c>
@@ -18830,7 +19841,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>12</v>
       </c>
@@ -18838,7 +19849,7 @@
         <v>44279</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>13</v>
       </c>
@@ -18846,7 +19857,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>14</v>
       </c>
@@ -18854,7 +19865,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>15</v>
       </c>
@@ -18862,7 +19873,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>16</v>
       </c>
@@ -18870,7 +19881,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>10</v>
       </c>
@@ -18878,7 +19889,7 @@
         <v>44284</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>11</v>
       </c>
@@ -18886,7 +19897,7 @@
         <v>44285</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>12</v>
       </c>
@@ -18894,7 +19905,7 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>13</v>
       </c>
@@ -18902,7 +19913,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>14</v>
       </c>
@@ -18910,7 +19921,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>15</v>
       </c>
@@ -18918,7 +19929,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>16</v>
       </c>
@@ -18926,7 +19937,7 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>10</v>
       </c>
@@ -18934,7 +19945,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>11</v>
       </c>
@@ -18942,7 +19953,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>12</v>
       </c>
@@ -18950,7 +19961,7 @@
         <v>44293</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>13</v>
       </c>
@@ -18958,7 +19969,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>14</v>
       </c>
@@ -18966,7 +19977,7 @@
         <v>44295</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>15</v>
       </c>
@@ -18974,7 +19985,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>16</v>
       </c>
@@ -18982,7 +19993,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>10</v>
       </c>
@@ -18990,7 +20001,7 @@
         <v>44298</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>11</v>
       </c>
@@ -18998,7 +20009,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>12</v>
       </c>
@@ -19006,7 +20017,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>13</v>
       </c>
@@ -19014,7 +20025,7 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>14</v>
       </c>
@@ -19022,7 +20033,7 @@
         <v>44302</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>15</v>
       </c>
@@ -19030,7 +20041,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>16</v>
       </c>
@@ -19038,7 +20049,7 @@
         <v>44304</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>10</v>
       </c>
@@ -19046,7 +20057,7 @@
         <v>44305</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>11</v>
       </c>
@@ -19054,7 +20065,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>12</v>
       </c>
@@ -19062,7 +20073,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>13</v>
       </c>
@@ -19070,7 +20081,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>14</v>
       </c>
@@ -19078,7 +20089,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>15</v>
       </c>
@@ -19086,7 +20097,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>16</v>
       </c>
@@ -19094,7 +20105,7 @@
         <v>44311</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>10</v>
       </c>
@@ -19102,7 +20113,7 @@
         <v>44312</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>11</v>
       </c>
@@ -19110,7 +20121,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>12</v>
       </c>
@@ -19118,7 +20129,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>13</v>
       </c>
@@ -19126,7 +20137,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>14</v>
       </c>
@@ -19134,7 +20145,7 @@
         <v>44316</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>15</v>
       </c>
@@ -19142,7 +20153,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>16</v>
       </c>
@@ -19150,7 +20161,7 @@
         <v>44318</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>10</v>
       </c>
@@ -19158,7 +20169,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>11</v>
       </c>
@@ -19166,7 +20177,7 @@
         <v>44320</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>12</v>
       </c>
@@ -19174,7 +20185,7 @@
         <v>44321</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>13</v>
       </c>
@@ -19182,7 +20193,7 @@
         <v>44322</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>14</v>
       </c>
@@ -19190,7 +20201,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>15</v>
       </c>
@@ -19198,7 +20209,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>16</v>
       </c>
@@ -19206,11 +20217,11 @@
         <v>44325</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="3"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
     </row>
@@ -19230,7 +20241,7 @@
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19246,7 +20257,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19261,7 +20272,7 @@
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/NIDA_Expts/Experiments/SubjectList_ExperimentalProtocol.xlsx
+++ b/NIDA_Expts/Experiments/SubjectList_ExperimentalProtocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\Marios-temp\NIDA_Expts\Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panayimc\Documents\GitHub\Marios-temp\NIDA_Expts\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65017A5-DF3E-41D8-9EBC-E5C3BD7C2328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E6816C-4D1D-4937-8BCE-8DDEFF70F955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{541D3559-B055-4FE0-B959-0E0FD0A7F009}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{541D3559-B055-4FE0-B959-0E0FD0A7F009}"/>
   </bookViews>
   <sheets>
     <sheet name="AnimalWeights" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="181">
   <si>
     <t>Rat</t>
   </si>
@@ -551,6 +551,42 @@
   <si>
     <t>Prob_HighV</t>
   </si>
+  <si>
+    <t>CRF TESTS</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>Left Low/RightHigh</t>
+  </si>
+  <si>
+    <t>LeftHigh/RightLow</t>
+  </si>
+  <si>
+    <t>Test Programs</t>
+  </si>
+  <si>
+    <t>Programs for each subject counterbalanced by Leverside/Cue ID</t>
+  </si>
+  <si>
+    <t>Note that each cue is presented with each lever to control for side bias and equate novelty</t>
+  </si>
+  <si>
+    <t>Identify relevant cue pairs for each of these conditions, different coutnerbalancing for each</t>
+  </si>
+  <si>
+    <t>TestOrder</t>
+  </si>
 </sst>
 </file>
 
@@ -606,7 +642,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,8 +691,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -711,11 +753,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -805,6 +942,33 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2020,16 +2184,16 @@
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="K1" t="s">
         <v>11</v>
       </c>
@@ -2055,7 +2219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2158,7 +2322,7 @@
       <c r="BD2" s="15"/>
       <c r="BE2" s="15"/>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2266,7 +2430,7 @@
       <c r="BD3" s="2"/>
       <c r="BE3" s="2"/>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -2374,7 +2538,7 @@
       <c r="BD4" s="4"/>
       <c r="BE4" s="4"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
@@ -2482,7 +2646,7 @@
       <c r="BD5" s="21"/>
       <c r="BE5" s="21"/>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2590,7 +2754,7 @@
       <c r="BD6" s="2"/>
       <c r="BE6" s="2"/>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -2698,7 +2862,7 @@
       <c r="BD7" s="4"/>
       <c r="BE7" s="4"/>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>5</v>
       </c>
@@ -2806,7 +2970,7 @@
       <c r="BD8" s="21"/>
       <c r="BE8" s="21"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2914,7 +3078,7 @@
       <c r="BD9" s="2"/>
       <c r="BE9" s="2"/>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>5</v>
       </c>
@@ -3022,7 +3186,7 @@
       <c r="BD10" s="21"/>
       <c r="BE10" s="21"/>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -3130,7 +3294,7 @@
       <c r="BD11" s="2"/>
       <c r="BE11" s="2"/>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -3238,7 +3402,7 @@
       <c r="BD12" s="4"/>
       <c r="BE12" s="4"/>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>5</v>
       </c>
@@ -3346,7 +3510,7 @@
       <c r="BD13" s="21"/>
       <c r="BE13" s="21"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -3454,7 +3618,7 @@
       <c r="BD14" s="2"/>
       <c r="BE14" s="2"/>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -3562,7 +3726,7 @@
       <c r="BD15" s="4"/>
       <c r="BE15" s="4"/>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>5</v>
       </c>
@@ -3670,7 +3834,7 @@
       <c r="BD16" s="21"/>
       <c r="BE16" s="21"/>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3778,7 +3942,7 @@
       <c r="BD17" s="2"/>
       <c r="BE17" s="2"/>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>5</v>
       </c>
@@ -3886,7 +4050,7 @@
       <c r="BD18" s="21"/>
       <c r="BE18" s="21"/>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -3994,7 +4158,7 @@
       <c r="BD19" s="2"/>
       <c r="BE19" s="2"/>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
@@ -4102,7 +4266,7 @@
       <c r="BD20" s="4"/>
       <c r="BE20" s="4"/>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>5</v>
       </c>
@@ -4210,7 +4374,7 @@
       <c r="BD21" s="21"/>
       <c r="BE21" s="21"/>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -4318,7 +4482,7 @@
       <c r="BD22" s="2"/>
       <c r="BE22" s="2"/>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -4426,7 +4590,7 @@
       <c r="BD23" s="4"/>
       <c r="BE23" s="4"/>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>5</v>
       </c>
@@ -4534,7 +4698,7 @@
       <c r="BD24" s="21"/>
       <c r="BE24" s="21"/>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -4607,7 +4771,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -4680,7 +4844,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>5</v>
       </c>
@@ -4786,7 +4950,7 @@
       <c r="BD27" s="37"/>
       <c r="BE27" s="37"/>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
@@ -4894,7 +5058,7 @@
       <c r="BD28" s="2"/>
       <c r="BE28" s="2"/>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>8</v>
       </c>
@@ -5002,7 +5166,7 @@
       <c r="BD29" s="21"/>
       <c r="BE29" s="21"/>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
@@ -5110,7 +5274,7 @@
       <c r="BD30" s="2"/>
       <c r="BE30" s="2"/>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
         <v>8</v>
       </c>
@@ -5218,7 +5382,7 @@
       <c r="BD31" s="21"/>
       <c r="BE31" s="21"/>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -5326,7 +5490,7 @@
       <c r="BD32" s="2"/>
       <c r="BE32" s="2"/>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
         <v>8</v>
       </c>
@@ -5434,7 +5598,7 @@
       <c r="BD33" s="21"/>
       <c r="BE33" s="21"/>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
         <v>8</v>
       </c>
@@ -5540,7 +5704,7 @@
       <c r="BD34" s="37"/>
       <c r="BE34" s="37"/>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
         <v>8</v>
       </c>
@@ -5646,7 +5810,7 @@
       <c r="BD35" s="37"/>
       <c r="BE35" s="37"/>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -5754,7 +5918,7 @@
       <c r="BD36" s="2"/>
       <c r="BE36" s="2"/>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
@@ -5862,7 +6026,7 @@
       <c r="BD37" s="4"/>
       <c r="BE37" s="4"/>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>8</v>
       </c>
@@ -5970,7 +6134,7 @@
       <c r="BD38" s="21"/>
       <c r="BE38" s="21"/>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
         <v>8</v>
       </c>
@@ -6078,7 +6242,7 @@
       <c r="BD39" s="37"/>
       <c r="BE39" s="37"/>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A40" s="37" t="s">
         <v>8</v>
       </c>
@@ -6186,7 +6350,7 @@
       <c r="BD40" s="37"/>
       <c r="BE40" s="37"/>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
         <v>8</v>
       </c>
@@ -6294,7 +6458,7 @@
       <c r="BD41" s="37"/>
       <c r="BE41" s="37"/>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
         <v>8</v>
       </c>
@@ -6400,7 +6564,7 @@
       <c r="BD42" s="37"/>
       <c r="BE42" s="37"/>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>8</v>
       </c>
@@ -6506,7 +6670,7 @@
       <c r="BD43" s="37"/>
       <c r="BE43" s="37"/>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
         <v>8</v>
       </c>
@@ -6612,7 +6776,7 @@
       <c r="BD44" s="37"/>
       <c r="BE44" s="37"/>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
         <v>8</v>
       </c>
@@ -6718,7 +6882,7 @@
       <c r="BD45" s="37"/>
       <c r="BE45" s="37"/>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A46" s="37" t="s">
         <v>8</v>
       </c>
@@ -6835,29 +6999,49 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AS58"/>
+  <dimension ref="A2:CG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW24" sqref="AW24"/>
+    <sheetView tabSelected="1" topLeftCell="BG17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CA47" sqref="CA47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="18" max="18" width="8.85546875" style="57"/>
-    <col min="21" max="21" width="8.85546875" style="66"/>
-    <col min="22" max="22" width="13.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.28515625" customWidth="1"/>
-    <col min="38" max="38" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="57"/>
+    <col min="21" max="21" width="8.88671875" style="66"/>
+    <col min="22" max="22" width="13.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" customWidth="1"/>
+    <col min="38" max="38" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="56" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.21875" customWidth="1"/>
+    <col min="58" max="58" width="11.21875" customWidth="1"/>
+    <col min="59" max="59" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="66" width="10.44140625" customWidth="1"/>
+    <col min="67" max="67" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.21875" customWidth="1"/>
+    <col min="80" max="80" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.109375" customWidth="1"/>
+    <col min="83" max="83" width="10.6640625" customWidth="1"/>
+    <col min="85" max="85" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="AE2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -6943,7 +7127,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -7027,7 +7211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -7111,7 +7295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
@@ -7195,7 +7379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -7279,7 +7463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -7363,7 +7547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>5</v>
       </c>
@@ -7450,7 +7634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -7534,7 +7718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>5</v>
       </c>
@@ -7618,7 +7802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -7702,7 +7886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -7786,7 +7970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
@@ -7870,7 +8054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -7954,7 +8138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -8038,7 +8222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>5</v>
       </c>
@@ -8122,7 +8306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -8206,7 +8390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>5</v>
       </c>
@@ -8290,7 +8474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -8336,7 +8520,7 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -8368,7 +8552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>5</v>
       </c>
@@ -8399,8 +8583,27 @@
       <c r="J22" s="21">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="BF22" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="BG22" s="81"/>
+      <c r="BH22" s="81"/>
+      <c r="BI22" s="81"/>
+      <c r="BJ22" s="81"/>
+      <c r="BK22" s="81"/>
+      <c r="BL22" s="81"/>
+      <c r="BM22" s="81"/>
+      <c r="BN22" s="82"/>
+      <c r="BP22" s="80"/>
+      <c r="BQ22" s="81"/>
+      <c r="BR22" s="81"/>
+      <c r="BS22" s="81"/>
+      <c r="BT22" s="81"/>
+      <c r="BU22" s="81"/>
+      <c r="BV22" s="81"/>
+      <c r="BW22" s="82"/>
+    </row>
+    <row r="23" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -8431,8 +8634,37 @@
       <c r="J23" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="BA23" t="s">
+        <v>180</v>
+      </c>
+      <c r="BF23" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="BG23" s="4"/>
+      <c r="BH23" s="4"/>
+      <c r="BI23" s="4"/>
+      <c r="BJ23" s="4"/>
+      <c r="BK23" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BL23" s="4"/>
+      <c r="BM23" s="4"/>
+      <c r="BN23" s="84"/>
+      <c r="BP23" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="BQ23" s="4"/>
+      <c r="BR23" s="4"/>
+      <c r="BS23" s="4"/>
+      <c r="BT23" s="4"/>
+      <c r="BU23" s="4"/>
+      <c r="BV23" s="4"/>
+      <c r="BW23" s="84"/>
+      <c r="BY23" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -8478,8 +8710,33 @@
       <c r="AR24" s="70" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AU24" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF24" s="83"/>
+      <c r="BG24" s="4"/>
+      <c r="BH24" s="4"/>
+      <c r="BI24" s="4"/>
+      <c r="BJ24" s="4"/>
+      <c r="BK24" s="4"/>
+      <c r="BL24" s="4"/>
+      <c r="BM24" s="4"/>
+      <c r="BN24" s="84"/>
+      <c r="BP24" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="BQ24" s="4"/>
+      <c r="BR24" s="4"/>
+      <c r="BS24" s="4"/>
+      <c r="BT24" s="4"/>
+      <c r="BU24" s="4"/>
+      <c r="BV24" s="4"/>
+      <c r="BW24" s="84"/>
+      <c r="BY24" s="72" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>5</v>
       </c>
@@ -8576,6 +8833,9 @@
       <c r="AJ25" s="68" t="s">
         <v>143</v>
       </c>
+      <c r="AK25" s="68" t="s">
+        <v>146</v>
+      </c>
       <c r="AL25" s="70" t="s">
         <v>6</v>
       </c>
@@ -8600,8 +8860,101 @@
       <c r="AS25" s="70" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AU25" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV25" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW25" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX25" s="70"/>
+      <c r="AZ25" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA25" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="BB25" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="BC25" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="BD25" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="BF25" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG25" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH25" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="BI25" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="BJ25" s="4"/>
+      <c r="BK25" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="BL25" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="BM25" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="BN25" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="BP25" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ25" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="BR25" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="BS25" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="BT25" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU25" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="BV25" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="BW25" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="BY25" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="BZ25" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA25" s="74"/>
+      <c r="CB25" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="CC25" s="74"/>
+      <c r="CD25" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="CE25" s="74"/>
+      <c r="CF25" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="CG25" s="79"/>
+    </row>
+    <row r="26" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -8694,6 +9047,9 @@
       </c>
       <c r="AJ26" s="57" t="s">
         <v>59</v>
+      </c>
+      <c r="AK26" s="69" t="s">
+        <v>149</v>
       </c>
       <c r="AL26" t="str">
         <f>AI26</f>
@@ -8727,8 +9083,124 @@
         <f>AJ26</f>
         <v>Siren</v>
       </c>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AU26" s="71">
+        <v>36</v>
+      </c>
+      <c r="AV26" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW26" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX26" t="str">
+        <f>_xlfn.CONCAT(AV26,AW26)</f>
+        <v>ClickNoise</v>
+      </c>
+      <c r="AZ26" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>168</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>167</v>
+      </c>
+      <c r="BF26" s="83" t="str">
+        <f>_xlfn.CONCAT(AL26,AM26)</f>
+        <v>ToneSiren</v>
+      </c>
+      <c r="BG26" s="4" t="str">
+        <f>_xlfn.CONCAT(AN26,AO26)</f>
+        <v>ClickNoise</v>
+      </c>
+      <c r="BH26" s="4" t="str">
+        <f>_xlfn.CONCAT(AP26,AQ26)</f>
+        <v>ClickTone</v>
+      </c>
+      <c r="BI26" s="4" t="str">
+        <f>_xlfn.CONCAT(AR26,AS26)</f>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BJ26" s="4"/>
+      <c r="BK26" s="4" t="str">
+        <f t="shared" ref="BK26:BK41" si="0">_xlfn.CONCAT(AM26,AL26)</f>
+        <v>SirenTone</v>
+      </c>
+      <c r="BL26" s="4" t="str">
+        <f t="shared" ref="BL26:BL41" si="1">_xlfn.CONCAT(AO26,AN26)</f>
+        <v>NoiseClick</v>
+      </c>
+      <c r="BM26" s="4" t="str">
+        <f t="shared" ref="BM26:BM41" si="2">_xlfn.CONCAT(AQ26,AP26)</f>
+        <v>ToneClick</v>
+      </c>
+      <c r="BN26" s="84" t="str">
+        <f t="shared" ref="BN26:BN41" si="3">_xlfn.CONCAT(AS26,AR26)</f>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BP26" s="83" t="str">
+        <f>BF26</f>
+        <v>ToneSiren</v>
+      </c>
+      <c r="BQ26" s="4" t="str">
+        <f>BL26</f>
+        <v>NoiseClick</v>
+      </c>
+      <c r="BR26" s="4" t="str">
+        <f>BH26</f>
+        <v>ClickTone</v>
+      </c>
+      <c r="BS26" s="4" t="str">
+        <f>BN26</f>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BT26" s="4">
+        <f>INDEX($AU$26:$AU$37,MATCH(BP26,$AX$26:$AX$37,0))</f>
+        <v>46</v>
+      </c>
+      <c r="BU26" s="4">
+        <f t="shared" ref="BU26:BW26" si="4">INDEX($AU$26:$AU$37,MATCH(BQ26,$AX$26:$AX$37,0))</f>
+        <v>37</v>
+      </c>
+      <c r="BV26" s="4">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="BW26" s="84">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="BY26" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="BZ26" s="76">
+        <f>IF(BA26="Value_100",BT26,IF(BA26="Value_50",BU26,IF(BA26="Prob_HighV",BV26,IF(BA26="Prob_LowV",BW26,"Error"))))</f>
+        <v>46</v>
+      </c>
+      <c r="CA26" s="76"/>
+      <c r="CB26" s="76">
+        <f>IF(BB26="Value_100",BT26,IF(BB26="Value_50",BU26,IF(BB26="Prob_HighV",BV26,IF(BB26="Prob_LowV",BW26,"Error"))))</f>
+        <v>37</v>
+      </c>
+      <c r="CC26" s="76"/>
+      <c r="CD26" s="76">
+        <f>IF(BC26="Value_100",BT26,IF(BC26="Value_50",BU26,IF(BC26="Prob_HighV",BV26,IF(BC26="Prob_LowV",BW26,"Error"))))</f>
+        <v>38</v>
+      </c>
+      <c r="CE26" s="76"/>
+      <c r="CF26" s="76">
+        <f>IF(BD26="Value_100",BT26,IF(BD26="Value_50",BU26,IF(BD26="Prob_HighV",BV26,IF(BD26="Prob_LowV",BW26,"Error"))))</f>
+        <v>45</v>
+      </c>
+      <c r="CG26" s="79"/>
+    </row>
+    <row r="27" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -8822,40 +9294,159 @@
       <c r="AJ27" s="57" t="s">
         <v>58</v>
       </c>
+      <c r="AK27" s="69" t="s">
+        <v>150</v>
+      </c>
       <c r="AL27" t="str">
-        <f t="shared" ref="AL27:AL41" si="0">AI27</f>
+        <f t="shared" ref="AL27:AL41" si="5">AI27</f>
         <v>Noise</v>
       </c>
       <c r="AM27" t="str">
-        <f t="shared" ref="AM27:AM41" si="1">AJ27</f>
+        <f t="shared" ref="AM27:AM41" si="6">AJ27</f>
         <v>Tone</v>
       </c>
       <c r="AN27" t="str">
-        <f t="shared" ref="AN27:AN41" si="2">AG27</f>
+        <f t="shared" ref="AN27:AN41" si="7">AG27</f>
         <v>Siren</v>
       </c>
       <c r="AO27" t="str">
-        <f t="shared" ref="AO27:AO41" si="3">AH27</f>
+        <f t="shared" ref="AO27:AO41" si="8">AH27</f>
         <v>Click</v>
       </c>
       <c r="AP27" t="str">
-        <f t="shared" ref="AP27:AP41" si="4">AG27</f>
+        <f t="shared" ref="AP27:AP41" si="9">AG27</f>
         <v>Siren</v>
       </c>
       <c r="AQ27" t="str">
-        <f t="shared" ref="AQ27:AQ41" si="5">AI27</f>
+        <f t="shared" ref="AQ27:AQ41" si="10">AI27</f>
         <v>Noise</v>
       </c>
       <c r="AR27" t="str">
-        <f t="shared" ref="AR27:AR41" si="6">AH27</f>
+        <f t="shared" ref="AR27:AR41" si="11">AH27</f>
         <v>Click</v>
       </c>
       <c r="AS27" t="str">
-        <f t="shared" ref="AS27:AS41" si="7">AJ27</f>
+        <f t="shared" ref="AS27:AS41" si="12">AJ27</f>
         <v>Tone</v>
       </c>
-    </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AU27" s="71">
+        <v>37</v>
+      </c>
+      <c r="AV27" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW27" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AX27" t="str">
+        <f t="shared" ref="AX27:AX37" si="13">_xlfn.CONCAT(AV27,AW27)</f>
+        <v>NoiseClick</v>
+      </c>
+      <c r="AZ27" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>168</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF27" s="83" t="str">
+        <f t="shared" ref="BF27:BF40" si="14">_xlfn.CONCAT(AL27,AM27)</f>
+        <v>NoiseTone</v>
+      </c>
+      <c r="BG27" s="4" t="str">
+        <f t="shared" ref="BG27:BG41" si="15">_xlfn.CONCAT(AN27,AO27)</f>
+        <v>SirenClick</v>
+      </c>
+      <c r="BH27" s="4" t="str">
+        <f t="shared" ref="BH27:BH41" si="16">_xlfn.CONCAT(AP27,AQ27)</f>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BI27" s="4" t="str">
+        <f t="shared" ref="BI27:BI41" si="17">_xlfn.CONCAT(AR27,AS27)</f>
+        <v>ClickTone</v>
+      </c>
+      <c r="BJ27" s="4"/>
+      <c r="BK27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ToneNoise</v>
+      </c>
+      <c r="BL27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>ClickSiren</v>
+      </c>
+      <c r="BM27" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BN27" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>ToneClick</v>
+      </c>
+      <c r="BP27" s="83" t="str">
+        <f>BK27</f>
+        <v>ToneNoise</v>
+      </c>
+      <c r="BQ27" s="4" t="str">
+        <f>BG27</f>
+        <v>SirenClick</v>
+      </c>
+      <c r="BR27" s="4" t="str">
+        <f>BM27</f>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BS27" s="4" t="str">
+        <f>BI27</f>
+        <v>ClickTone</v>
+      </c>
+      <c r="BT27" s="4">
+        <f t="shared" ref="BT27:BT41" si="18">INDEX($AU$26:$AU$37,MATCH(BP27,$AX$26:$AX$37,0))</f>
+        <v>43</v>
+      </c>
+      <c r="BU27" s="4">
+        <f t="shared" ref="BU27:BU41" si="19">INDEX($AU$26:$AU$37,MATCH(BQ27,$AX$26:$AX$37,0))</f>
+        <v>41</v>
+      </c>
+      <c r="BV27" s="4">
+        <f t="shared" ref="BV27:BV41" si="20">INDEX($AU$26:$AU$37,MATCH(BR27,$AX$26:$AX$37,0))</f>
+        <v>44</v>
+      </c>
+      <c r="BW27" s="84">
+        <f t="shared" ref="BW27:BW41" si="21">INDEX($AU$26:$AU$37,MATCH(BS27,$AX$26:$AX$37,0))</f>
+        <v>38</v>
+      </c>
+      <c r="BY27" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="BZ27" s="76">
+        <f>IF(BA27="Value_100",BT27,IF(BA27="Value_50",BU27,IF(BA27="Prob_HighV",BV27,IF(BA27="Prob_LowV",BW27,"Error"))))</f>
+        <v>44</v>
+      </c>
+      <c r="CA27" s="76"/>
+      <c r="CB27" s="76">
+        <f t="shared" ref="CB27:CB41" si="22">IF(BB27="Value_100",BT27,IF(BB27="Value_50",BU27,IF(BB27="Prob_HighV",BV27,IF(BB27="Prob_LowV",BW27,"Error"))))</f>
+        <v>38</v>
+      </c>
+      <c r="CC27" s="76"/>
+      <c r="CD27" s="76">
+        <f t="shared" ref="CD27:CD41" si="23">IF(BC27="Value_100",BT27,IF(BC27="Value_50",BU27,IF(BC27="Prob_HighV",BV27,IF(BC27="Prob_LowV",BW27,"Error"))))</f>
+        <v>43</v>
+      </c>
+      <c r="CE27" s="76"/>
+      <c r="CF27" s="76">
+        <f t="shared" ref="CF27:CF41" si="24">IF(BD27="Value_100",BT27,IF(BD27="Value_50",BU27,IF(BD27="Prob_HighV",BV27,IF(BD27="Prob_LowV",BW27,"Error"))))</f>
+        <v>41</v>
+      </c>
+      <c r="CG27" s="79"/>
+    </row>
+    <row r="28" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>5</v>
       </c>
@@ -8949,1694 +9540,3308 @@
       <c r="AJ28" s="57" t="s">
         <v>145</v>
       </c>
+      <c r="AK28" s="69" t="s">
+        <v>151</v>
+      </c>
       <c r="AL28" t="str">
-        <f t="shared" si="0"/>
-        <v>Click</v>
-      </c>
-      <c r="AM28" t="str">
-        <f t="shared" si="1"/>
-        <v>Noise</v>
-      </c>
-      <c r="AN28" t="str">
-        <f t="shared" si="2"/>
-        <v>Tone</v>
-      </c>
-      <c r="AO28" t="str">
-        <f t="shared" si="3"/>
-        <v>Siren</v>
-      </c>
-      <c r="AP28" t="str">
-        <f t="shared" si="4"/>
-        <v>Tone</v>
-      </c>
-      <c r="AQ28" t="str">
         <f t="shared" si="5"/>
         <v>Click</v>
       </c>
+      <c r="AM28" t="str">
+        <f t="shared" si="6"/>
+        <v>Noise</v>
+      </c>
+      <c r="AN28" t="str">
+        <f t="shared" si="7"/>
+        <v>Tone</v>
+      </c>
+      <c r="AO28" t="str">
+        <f t="shared" si="8"/>
+        <v>Siren</v>
+      </c>
+      <c r="AP28" t="str">
+        <f t="shared" si="9"/>
+        <v>Tone</v>
+      </c>
+      <c r="AQ28" t="str">
+        <f t="shared" si="10"/>
+        <v>Click</v>
+      </c>
       <c r="AR28" t="str">
+        <f t="shared" si="11"/>
+        <v>Siren</v>
+      </c>
+      <c r="AS28" t="str">
+        <f t="shared" si="12"/>
+        <v>Noise</v>
+      </c>
+      <c r="AU28" s="71">
+        <v>38</v>
+      </c>
+      <c r="AV28" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW28" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX28" t="str">
+        <f t="shared" si="13"/>
+        <v>ClickTone</v>
+      </c>
+      <c r="AZ28" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>168</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>167</v>
+      </c>
+      <c r="BF28" s="83" t="str">
+        <f t="shared" si="14"/>
+        <v>ClickNoise</v>
+      </c>
+      <c r="BG28" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>ToneSiren</v>
+      </c>
+      <c r="BH28" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>ToneClick</v>
+      </c>
+      <c r="BI28" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BJ28" s="4"/>
+      <c r="BK28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>NoiseClick</v>
+      </c>
+      <c r="BL28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SirenTone</v>
+      </c>
+      <c r="BM28" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>ClickTone</v>
+      </c>
+      <c r="BN28" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BP28" s="83" t="str">
+        <f>BF28</f>
+        <v>ClickNoise</v>
+      </c>
+      <c r="BQ28" s="4" t="str">
+        <f t="shared" ref="BQ28" si="25">BL28</f>
+        <v>SirenTone</v>
+      </c>
+      <c r="BR28" s="4" t="str">
+        <f>BH28</f>
+        <v>ToneClick</v>
+      </c>
+      <c r="BS28" s="4" t="str">
+        <f t="shared" ref="BS28" si="26">BN28</f>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BT28" s="4">
+        <f t="shared" si="18"/>
+        <v>36</v>
+      </c>
+      <c r="BU28" s="4">
+        <f t="shared" si="19"/>
+        <v>47</v>
+      </c>
+      <c r="BV28" s="4">
+        <f t="shared" si="20"/>
+        <v>39</v>
+      </c>
+      <c r="BW28" s="84">
+        <f t="shared" si="21"/>
+        <v>44</v>
+      </c>
+      <c r="BY28" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="BZ28" s="76">
+        <f t="shared" ref="BZ28:BZ41" si="27">IF(BA28="Value_100",BT28,IF(BA28="Value_50",BU28,IF(BA28="Prob_HighV",BV28,IF(BA28="Prob_LowV",BW28,"Error"))))</f>
+        <v>36</v>
+      </c>
+      <c r="CA28" s="76"/>
+      <c r="CB28" s="76">
+        <f t="shared" si="22"/>
+        <v>47</v>
+      </c>
+      <c r="CC28" s="76"/>
+      <c r="CD28" s="76">
+        <f t="shared" si="23"/>
+        <v>39</v>
+      </c>
+      <c r="CE28" s="76"/>
+      <c r="CF28" s="76">
+        <f t="shared" si="24"/>
+        <v>44</v>
+      </c>
+      <c r="CG28" s="79"/>
+    </row>
+    <row r="29" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2">
+        <v>69382</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="2">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="2">
+        <v>11</v>
+      </c>
+      <c r="H29" s="2">
+        <v>218744</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" s="2">
+        <v>26</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N29" s="2">
+        <v>3</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="2">
+        <v>69299</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="51">
+        <v>5</v>
+      </c>
+      <c r="S29" s="2">
+        <v>218752</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U29" s="60">
+        <v>12</v>
+      </c>
+      <c r="V29" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB29" s="66">
+        <v>14</v>
+      </c>
+      <c r="AD29" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE29" s="8">
+        <v>14</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG29" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH29" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI29" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ29" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK29" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL29" t="str">
+        <f t="shared" si="5"/>
+        <v>Siren</v>
+      </c>
+      <c r="AM29" t="str">
+        <f t="shared" si="6"/>
+        <v>Click</v>
+      </c>
+      <c r="AN29" t="str">
+        <f t="shared" si="7"/>
+        <v>Noise</v>
+      </c>
+      <c r="AO29" t="str">
+        <f t="shared" si="8"/>
+        <v>Tone</v>
+      </c>
+      <c r="AP29" t="str">
+        <f t="shared" si="9"/>
+        <v>Noise</v>
+      </c>
+      <c r="AQ29" t="str">
+        <f t="shared" si="10"/>
+        <v>Siren</v>
+      </c>
+      <c r="AR29" t="str">
+        <f t="shared" si="11"/>
+        <v>Tone</v>
+      </c>
+      <c r="AS29" t="str">
+        <f t="shared" si="12"/>
+        <v>Click</v>
+      </c>
+      <c r="AU29" s="71">
+        <v>39</v>
+      </c>
+      <c r="AV29" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW29" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AX29" t="str">
+        <f t="shared" si="13"/>
+        <v>ToneClick</v>
+      </c>
+      <c r="AZ29" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>168</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF29" s="83" t="str">
+        <f t="shared" si="14"/>
+        <v>SirenClick</v>
+      </c>
+      <c r="BG29" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>NoiseTone</v>
+      </c>
+      <c r="BH29" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BI29" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>ToneClick</v>
+      </c>
+      <c r="BJ29" s="4"/>
+      <c r="BK29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ClickSiren</v>
+      </c>
+      <c r="BL29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>ToneNoise</v>
+      </c>
+      <c r="BM29" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BN29" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>ClickTone</v>
+      </c>
+      <c r="BP29" s="83" t="str">
+        <f t="shared" ref="BP29" si="28">BK29</f>
+        <v>ClickSiren</v>
+      </c>
+      <c r="BQ29" s="4" t="str">
+        <f>BG29</f>
+        <v>NoiseTone</v>
+      </c>
+      <c r="BR29" s="4" t="str">
+        <f t="shared" ref="BR29" si="29">BM29</f>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BS29" s="4" t="str">
+        <f>BI29</f>
+        <v>ToneClick</v>
+      </c>
+      <c r="BT29" s="4">
+        <f t="shared" si="18"/>
+        <v>40</v>
+      </c>
+      <c r="BU29" s="4">
+        <f t="shared" si="19"/>
+        <v>42</v>
+      </c>
+      <c r="BV29" s="4">
+        <f t="shared" si="20"/>
+        <v>45</v>
+      </c>
+      <c r="BW29" s="84">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="BY29" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="BZ29" s="76">
+        <f t="shared" si="27"/>
+        <v>45</v>
+      </c>
+      <c r="CA29" s="76"/>
+      <c r="CB29" s="76">
+        <f t="shared" si="22"/>
+        <v>39</v>
+      </c>
+      <c r="CC29" s="76"/>
+      <c r="CD29" s="76">
+        <f t="shared" si="23"/>
+        <v>40</v>
+      </c>
+      <c r="CE29" s="76"/>
+      <c r="CF29" s="76">
+        <f t="shared" si="24"/>
+        <v>42</v>
+      </c>
+      <c r="CG29" s="79"/>
+    </row>
+    <row r="30" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="21">
+        <v>69383</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="21">
+        <v>11</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="21">
+        <v>11</v>
+      </c>
+      <c r="H30" s="21">
+        <v>218744</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="J30" s="21">
+        <v>27</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N30" s="4">
+        <v>3</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="4">
+        <v>69300</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" s="52">
+        <v>5</v>
+      </c>
+      <c r="S30" s="4">
+        <v>218752</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U30" s="61">
+        <v>13</v>
+      </c>
+      <c r="V30" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB30" s="66">
+        <v>11</v>
+      </c>
+      <c r="AD30" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE30" s="8">
+        <v>11</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG30" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH30" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI30" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ30" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK30" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL30" t="str">
+        <f t="shared" si="5"/>
+        <v>Tone</v>
+      </c>
+      <c r="AM30" t="str">
         <f t="shared" si="6"/>
         <v>Siren</v>
       </c>
-      <c r="AS28" t="str">
+      <c r="AN30" t="str">
+        <f t="shared" si="7"/>
+        <v>Click</v>
+      </c>
+      <c r="AO30" t="str">
+        <f t="shared" si="8"/>
+        <v>Noise</v>
+      </c>
+      <c r="AP30" t="str">
+        <f t="shared" si="9"/>
+        <v>Click</v>
+      </c>
+      <c r="AQ30" t="str">
+        <f t="shared" si="10"/>
+        <v>Tone</v>
+      </c>
+      <c r="AR30" t="str">
+        <f t="shared" si="11"/>
+        <v>Noise</v>
+      </c>
+      <c r="AS30" t="str">
+        <f t="shared" si="12"/>
+        <v>Siren</v>
+      </c>
+      <c r="AU30" s="71">
+        <v>40</v>
+      </c>
+      <c r="AV30" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW30" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX30" t="str">
+        <f t="shared" si="13"/>
+        <v>ClickSiren</v>
+      </c>
+      <c r="AZ30" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>166</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF30" s="83" t="str">
+        <f t="shared" si="14"/>
+        <v>ToneSiren</v>
+      </c>
+      <c r="BG30" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>ClickNoise</v>
+      </c>
+      <c r="BH30" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>ClickTone</v>
+      </c>
+      <c r="BI30" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BJ30" s="4"/>
+      <c r="BK30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>SirenTone</v>
+      </c>
+      <c r="BL30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>NoiseClick</v>
+      </c>
+      <c r="BM30" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>ToneClick</v>
+      </c>
+      <c r="BN30" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BP30" s="83" t="str">
+        <f>BK30</f>
+        <v>SirenTone</v>
+      </c>
+      <c r="BQ30" s="4" t="str">
+        <f>BG30</f>
+        <v>ClickNoise</v>
+      </c>
+      <c r="BR30" s="4" t="str">
+        <f>BM30</f>
+        <v>ToneClick</v>
+      </c>
+      <c r="BS30" s="4" t="str">
+        <f>BI30</f>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BT30" s="4">
+        <f t="shared" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="BU30" s="4">
+        <f t="shared" si="19"/>
+        <v>36</v>
+      </c>
+      <c r="BV30" s="4">
+        <f t="shared" si="20"/>
+        <v>39</v>
+      </c>
+      <c r="BW30" s="84">
+        <f t="shared" si="21"/>
+        <v>44</v>
+      </c>
+      <c r="BY30" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ30" s="76">
+        <f t="shared" si="27"/>
+        <v>44</v>
+      </c>
+      <c r="CA30" s="76"/>
+      <c r="CB30" s="76">
+        <f t="shared" si="22"/>
+        <v>39</v>
+      </c>
+      <c r="CC30" s="76"/>
+      <c r="CD30" s="76">
+        <f t="shared" si="23"/>
+        <v>36</v>
+      </c>
+      <c r="CE30" s="76"/>
+      <c r="CF30" s="76">
+        <f t="shared" si="24"/>
+        <v>47</v>
+      </c>
+      <c r="CG30" s="79"/>
+    </row>
+    <row r="31" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2">
+        <v>69374</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="2">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="2">
+        <v>12</v>
+      </c>
+      <c r="H31" s="2">
+        <v>218745</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" s="2">
+        <v>28</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="N31" s="21">
+        <v>3</v>
+      </c>
+      <c r="O31" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="21">
+        <v>69366</v>
+      </c>
+      <c r="Q31" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="R31" s="53">
+        <v>5</v>
+      </c>
+      <c r="S31" s="21">
+        <v>218752</v>
+      </c>
+      <c r="T31" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="U31" s="62">
+        <v>14</v>
+      </c>
+      <c r="V31" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="W31" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB31" s="66">
+        <v>12</v>
+      </c>
+      <c r="AD31" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE31" s="8">
+        <v>12</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG31" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH31" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI31" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ31" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK31" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL31" t="str">
+        <f t="shared" si="5"/>
+        <v>Noise</v>
+      </c>
+      <c r="AM31" t="str">
+        <f t="shared" si="6"/>
+        <v>Tone</v>
+      </c>
+      <c r="AN31" t="str">
+        <f t="shared" si="7"/>
+        <v>Siren</v>
+      </c>
+      <c r="AO31" t="str">
+        <f t="shared" si="8"/>
+        <v>Click</v>
+      </c>
+      <c r="AP31" t="str">
+        <f t="shared" si="9"/>
+        <v>Siren</v>
+      </c>
+      <c r="AQ31" t="str">
+        <f t="shared" si="10"/>
+        <v>Noise</v>
+      </c>
+      <c r="AR31" t="str">
+        <f t="shared" si="11"/>
+        <v>Click</v>
+      </c>
+      <c r="AS31" t="str">
+        <f t="shared" si="12"/>
+        <v>Tone</v>
+      </c>
+      <c r="AU31" s="71">
+        <v>41</v>
+      </c>
+      <c r="AV31" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW31" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AX31" t="str">
+        <f t="shared" si="13"/>
+        <v>SirenClick</v>
+      </c>
+      <c r="AZ31" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF31" s="83" t="str">
+        <f t="shared" si="14"/>
+        <v>NoiseTone</v>
+      </c>
+      <c r="BG31" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>SirenClick</v>
+      </c>
+      <c r="BH31" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BI31" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>ClickTone</v>
+      </c>
+      <c r="BJ31" s="4"/>
+      <c r="BK31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ToneNoise</v>
+      </c>
+      <c r="BL31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>ClickSiren</v>
+      </c>
+      <c r="BM31" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BN31" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>ToneClick</v>
+      </c>
+      <c r="BP31" s="83" t="str">
+        <f>BF31</f>
+        <v>NoiseTone</v>
+      </c>
+      <c r="BQ31" s="4" t="str">
+        <f t="shared" ref="BQ31" si="30">BL31</f>
+        <v>ClickSiren</v>
+      </c>
+      <c r="BR31" s="4" t="str">
+        <f>BH31</f>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BS31" s="4" t="str">
+        <f t="shared" ref="BS31" si="31">BN31</f>
+        <v>ToneClick</v>
+      </c>
+      <c r="BT31" s="4">
+        <f t="shared" si="18"/>
+        <v>42</v>
+      </c>
+      <c r="BU31" s="4">
+        <f t="shared" si="19"/>
+        <v>40</v>
+      </c>
+      <c r="BV31" s="4">
+        <f t="shared" si="20"/>
+        <v>45</v>
+      </c>
+      <c r="BW31" s="84">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="BY31" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="BZ31" s="76">
+        <f t="shared" si="27"/>
+        <v>40</v>
+      </c>
+      <c r="CA31" s="76"/>
+      <c r="CB31" s="76">
+        <f t="shared" si="22"/>
+        <v>42</v>
+      </c>
+      <c r="CC31" s="76"/>
+      <c r="CD31" s="76">
+        <f t="shared" si="23"/>
+        <v>39</v>
+      </c>
+      <c r="CE31" s="76"/>
+      <c r="CF31" s="76">
+        <f t="shared" si="24"/>
+        <v>45</v>
+      </c>
+      <c r="CG31" s="79"/>
+    </row>
+    <row r="32" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="21">
+        <v>69387</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="21">
+        <v>11</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="21">
+        <v>12</v>
+      </c>
+      <c r="H32" s="21">
+        <v>218745</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" s="21">
+        <v>29</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N32" s="2">
+        <v>3</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="2">
+        <v>69273</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="51">
+        <v>16</v>
+      </c>
+      <c r="S32" s="2">
+        <v>218693</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U32" s="60">
+        <v>34</v>
+      </c>
+      <c r="V32" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB32" s="66">
+        <v>11</v>
+      </c>
+      <c r="AD32" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE32" s="8">
+        <v>11</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG32" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH32" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI32" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ32" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK32" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL32" t="str">
+        <f t="shared" si="5"/>
+        <v>Tone</v>
+      </c>
+      <c r="AM32" t="str">
+        <f t="shared" si="6"/>
+        <v>Siren</v>
+      </c>
+      <c r="AN32" t="str">
+        <f t="shared" si="7"/>
+        <v>Click</v>
+      </c>
+      <c r="AO32" t="str">
+        <f t="shared" si="8"/>
+        <v>Noise</v>
+      </c>
+      <c r="AP32" t="str">
+        <f t="shared" si="9"/>
+        <v>Click</v>
+      </c>
+      <c r="AQ32" t="str">
+        <f t="shared" si="10"/>
+        <v>Tone</v>
+      </c>
+      <c r="AR32" t="str">
+        <f t="shared" si="11"/>
+        <v>Noise</v>
+      </c>
+      <c r="AS32" t="str">
+        <f t="shared" si="12"/>
+        <v>Siren</v>
+      </c>
+      <c r="AU32" s="71">
+        <v>42</v>
+      </c>
+      <c r="AV32" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW32" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX32" t="str">
+        <f t="shared" si="13"/>
+        <v>NoiseTone</v>
+      </c>
+      <c r="AZ32" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF32" s="83" t="str">
+        <f t="shared" si="14"/>
+        <v>ToneSiren</v>
+      </c>
+      <c r="BG32" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>ClickNoise</v>
+      </c>
+      <c r="BH32" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>ClickTone</v>
+      </c>
+      <c r="BI32" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BJ32" s="4"/>
+      <c r="BK32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>SirenTone</v>
+      </c>
+      <c r="BL32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>NoiseClick</v>
+      </c>
+      <c r="BM32" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>ToneClick</v>
+      </c>
+      <c r="BN32" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BP32" s="83" t="str">
+        <f>BF32</f>
+        <v>ToneSiren</v>
+      </c>
+      <c r="BQ32" s="4" t="str">
+        <f t="shared" ref="BQ32" si="32">BL32</f>
+        <v>NoiseClick</v>
+      </c>
+      <c r="BR32" s="4" t="str">
+        <f>BH32</f>
+        <v>ClickTone</v>
+      </c>
+      <c r="BS32" s="4" t="str">
+        <f t="shared" ref="BS32" si="33">BN32</f>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BT32" s="4">
+        <f t="shared" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="BU32" s="4">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="BV32" s="4">
+        <f t="shared" si="20"/>
+        <v>38</v>
+      </c>
+      <c r="BW32" s="84">
+        <f t="shared" si="21"/>
+        <v>45</v>
+      </c>
+      <c r="BY32" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="BZ32" s="76">
+        <f t="shared" si="27"/>
+        <v>37</v>
+      </c>
+      <c r="CA32" s="76"/>
+      <c r="CB32" s="76">
+        <f t="shared" si="22"/>
+        <v>46</v>
+      </c>
+      <c r="CC32" s="76"/>
+      <c r="CD32" s="76">
+        <f t="shared" si="23"/>
+        <v>45</v>
+      </c>
+      <c r="CE32" s="76"/>
+      <c r="CF32" s="76">
+        <f t="shared" si="24"/>
+        <v>38</v>
+      </c>
+      <c r="CG32" s="79"/>
+    </row>
+    <row r="33" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2">
+        <v>69329</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="2">
+        <v>15</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="2">
+        <v>13</v>
+      </c>
+      <c r="H33" s="2">
+        <v>218750</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" s="2">
+        <v>30</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N33" s="4">
+        <v>3</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" s="4">
+        <v>69274</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R33" s="52">
+        <v>16</v>
+      </c>
+      <c r="S33" s="4">
+        <v>218693</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U33" s="61">
+        <v>35</v>
+      </c>
+      <c r="V33" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB33" s="66">
+        <v>12</v>
+      </c>
+      <c r="AD33" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE33" s="8">
+        <v>12</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG33" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH33" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI33" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ33" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK33" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL33" t="str">
+        <f t="shared" si="5"/>
+        <v>Noise</v>
+      </c>
+      <c r="AM33" t="str">
+        <f t="shared" si="6"/>
+        <v>Tone</v>
+      </c>
+      <c r="AN33" t="str">
+        <f t="shared" si="7"/>
+        <v>Siren</v>
+      </c>
+      <c r="AO33" t="str">
+        <f t="shared" si="8"/>
+        <v>Click</v>
+      </c>
+      <c r="AP33" t="str">
+        <f t="shared" si="9"/>
+        <v>Siren</v>
+      </c>
+      <c r="AQ33" t="str">
+        <f t="shared" si="10"/>
+        <v>Noise</v>
+      </c>
+      <c r="AR33" t="str">
+        <f t="shared" si="11"/>
+        <v>Click</v>
+      </c>
+      <c r="AS33" t="str">
+        <f t="shared" si="12"/>
+        <v>Tone</v>
+      </c>
+      <c r="AU33" s="71">
+        <v>43</v>
+      </c>
+      <c r="AV33" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW33" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX33" t="str">
+        <f t="shared" si="13"/>
+        <v>ToneNoise</v>
+      </c>
+      <c r="AZ33" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>166</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF33" s="83" t="str">
+        <f t="shared" si="14"/>
+        <v>NoiseTone</v>
+      </c>
+      <c r="BG33" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>SirenClick</v>
+      </c>
+      <c r="BH33" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BI33" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>ClickTone</v>
+      </c>
+      <c r="BJ33" s="4"/>
+      <c r="BK33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ToneNoise</v>
+      </c>
+      <c r="BL33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>ClickSiren</v>
+      </c>
+      <c r="BM33" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BN33" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>ToneClick</v>
+      </c>
+      <c r="BP33" s="83" t="str">
+        <f t="shared" ref="BP33" si="34">BK33</f>
+        <v>ToneNoise</v>
+      </c>
+      <c r="BQ33" s="4" t="str">
+        <f>BG33</f>
+        <v>SirenClick</v>
+      </c>
+      <c r="BR33" s="4" t="str">
+        <f t="shared" ref="BR33" si="35">BM33</f>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BS33" s="4" t="str">
+        <f>BI33</f>
+        <v>ClickTone</v>
+      </c>
+      <c r="BT33" s="4">
+        <f t="shared" si="18"/>
+        <v>43</v>
+      </c>
+      <c r="BU33" s="4">
+        <f t="shared" si="19"/>
+        <v>41</v>
+      </c>
+      <c r="BV33" s="4">
+        <f t="shared" si="20"/>
+        <v>44</v>
+      </c>
+      <c r="BW33" s="84">
+        <f t="shared" si="21"/>
+        <v>38</v>
+      </c>
+      <c r="BY33" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="BZ33" s="76">
+        <f t="shared" si="27"/>
+        <v>38</v>
+      </c>
+      <c r="CA33" s="76"/>
+      <c r="CB33" s="76">
+        <f t="shared" si="22"/>
+        <v>44</v>
+      </c>
+      <c r="CC33" s="76"/>
+      <c r="CD33" s="76">
+        <f t="shared" si="23"/>
+        <v>41</v>
+      </c>
+      <c r="CE33" s="76"/>
+      <c r="CF33" s="76">
+        <f t="shared" si="24"/>
+        <v>43</v>
+      </c>
+      <c r="CG33" s="79"/>
+    </row>
+    <row r="34" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="21">
+        <v>69331</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="21">
+        <v>15</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="21">
+        <v>13</v>
+      </c>
+      <c r="H34" s="21">
+        <v>218750</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" s="21">
+        <v>31</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N34" s="4">
+        <v>3</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P34" s="4">
+        <v>69275</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R34" s="52">
+        <v>16</v>
+      </c>
+      <c r="S34" s="4">
+        <v>218693</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U34" s="61">
+        <v>36</v>
+      </c>
+      <c r="V34" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB34" s="66">
+        <v>13</v>
+      </c>
+      <c r="AD34" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE34" s="8">
+        <v>13</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG34" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH34" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI34" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ34" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK34" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL34" t="str">
+        <f t="shared" si="5"/>
+        <v>Click</v>
+      </c>
+      <c r="AM34" t="str">
+        <f t="shared" si="6"/>
+        <v>Noise</v>
+      </c>
+      <c r="AN34" t="str">
+        <f t="shared" si="7"/>
+        <v>Tone</v>
+      </c>
+      <c r="AO34" t="str">
+        <f t="shared" si="8"/>
+        <v>Siren</v>
+      </c>
+      <c r="AP34" t="str">
+        <f t="shared" si="9"/>
+        <v>Tone</v>
+      </c>
+      <c r="AQ34" t="str">
+        <f t="shared" si="10"/>
+        <v>Click</v>
+      </c>
+      <c r="AR34" t="str">
+        <f t="shared" si="11"/>
+        <v>Siren</v>
+      </c>
+      <c r="AS34" t="str">
+        <f t="shared" si="12"/>
+        <v>Noise</v>
+      </c>
+      <c r="AU34" s="71">
+        <v>44</v>
+      </c>
+      <c r="AV34" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW34" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX34" t="str">
+        <f t="shared" si="13"/>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="AZ34" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF34" s="83" t="str">
+        <f t="shared" si="14"/>
+        <v>ClickNoise</v>
+      </c>
+      <c r="BG34" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>ToneSiren</v>
+      </c>
+      <c r="BH34" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>ToneClick</v>
+      </c>
+      <c r="BI34" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BJ34" s="4"/>
+      <c r="BK34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>NoiseClick</v>
+      </c>
+      <c r="BL34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SirenTone</v>
+      </c>
+      <c r="BM34" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>ClickTone</v>
+      </c>
+      <c r="BN34" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BP34" s="83" t="str">
+        <f>BF34</f>
+        <v>ClickNoise</v>
+      </c>
+      <c r="BQ34" s="4" t="str">
+        <f t="shared" ref="BQ34" si="36">BL34</f>
+        <v>SirenTone</v>
+      </c>
+      <c r="BR34" s="4" t="str">
+        <f>BH34</f>
+        <v>ToneClick</v>
+      </c>
+      <c r="BS34" s="4" t="str">
+        <f t="shared" ref="BS34" si="37">BN34</f>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BT34" s="4">
+        <f t="shared" si="18"/>
+        <v>36</v>
+      </c>
+      <c r="BU34" s="4">
+        <f t="shared" si="19"/>
+        <v>47</v>
+      </c>
+      <c r="BV34" s="4">
+        <f t="shared" si="20"/>
+        <v>39</v>
+      </c>
+      <c r="BW34" s="84">
+        <f t="shared" si="21"/>
+        <v>44</v>
+      </c>
+      <c r="BY34" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="BZ34" s="76">
+        <f t="shared" si="27"/>
+        <v>47</v>
+      </c>
+      <c r="CA34" s="76"/>
+      <c r="CB34" s="76">
+        <f t="shared" si="22"/>
+        <v>36</v>
+      </c>
+      <c r="CC34" s="76"/>
+      <c r="CD34" s="76">
+        <f t="shared" si="23"/>
+        <v>44</v>
+      </c>
+      <c r="CE34" s="76"/>
+      <c r="CF34" s="76">
+        <f t="shared" si="24"/>
+        <v>39</v>
+      </c>
+      <c r="CG34" s="79"/>
+    </row>
+    <row r="35" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="A35" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="37">
+        <v>69270</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="37">
+        <v>16</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="37">
+        <v>14</v>
+      </c>
+      <c r="H35" s="37">
+        <v>218724</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35" s="37">
+        <v>32</v>
+      </c>
+      <c r="M35" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="N35" s="37">
+        <v>3</v>
+      </c>
+      <c r="O35" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="37">
+        <v>69259</v>
+      </c>
+      <c r="Q35" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="58">
+        <v>17</v>
+      </c>
+      <c r="S35" s="37">
+        <v>218699</v>
+      </c>
+      <c r="T35" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="U35" s="67">
+        <v>37</v>
+      </c>
+      <c r="V35" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="W35" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB35" s="66">
+        <v>14</v>
+      </c>
+      <c r="AD35" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE35" s="8">
+        <v>14</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG35" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH35" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI35" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ35" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK35" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL35" t="str">
+        <f t="shared" si="5"/>
+        <v>Siren</v>
+      </c>
+      <c r="AM35" t="str">
+        <f t="shared" si="6"/>
+        <v>Click</v>
+      </c>
+      <c r="AN35" t="str">
         <f t="shared" si="7"/>
         <v>Noise</v>
       </c>
-    </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="AO35" t="str">
+        <f t="shared" si="8"/>
+        <v>Tone</v>
+      </c>
+      <c r="AP35" t="str">
+        <f t="shared" si="9"/>
+        <v>Noise</v>
+      </c>
+      <c r="AQ35" t="str">
+        <f t="shared" si="10"/>
+        <v>Siren</v>
+      </c>
+      <c r="AR35" t="str">
+        <f t="shared" si="11"/>
+        <v>Tone</v>
+      </c>
+      <c r="AS35" t="str">
+        <f t="shared" si="12"/>
+        <v>Click</v>
+      </c>
+      <c r="AU35" s="71">
+        <v>45</v>
+      </c>
+      <c r="AV35" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW35" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX35" t="str">
+        <f t="shared" si="13"/>
+        <v>SirenNoise</v>
+      </c>
+      <c r="AZ35" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>166</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF35" s="83" t="str">
+        <f t="shared" si="14"/>
+        <v>SirenClick</v>
+      </c>
+      <c r="BG35" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>NoiseTone</v>
+      </c>
+      <c r="BH35" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BI35" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>ToneClick</v>
+      </c>
+      <c r="BJ35" s="4"/>
+      <c r="BK35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ClickSiren</v>
+      </c>
+      <c r="BL35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>ToneNoise</v>
+      </c>
+      <c r="BM35" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BN35" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>ClickTone</v>
+      </c>
+      <c r="BP35" s="83" t="str">
+        <f t="shared" ref="BP35" si="38">BK35</f>
+        <v>ClickSiren</v>
+      </c>
+      <c r="BQ35" s="4" t="str">
+        <f>BG35</f>
+        <v>NoiseTone</v>
+      </c>
+      <c r="BR35" s="4" t="str">
+        <f t="shared" ref="BR35" si="39">BM35</f>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BS35" s="4" t="str">
+        <f>BI35</f>
+        <v>ToneClick</v>
+      </c>
+      <c r="BT35" s="4">
+        <f t="shared" si="18"/>
+        <v>40</v>
+      </c>
+      <c r="BU35" s="4">
+        <f t="shared" si="19"/>
+        <v>42</v>
+      </c>
+      <c r="BV35" s="4">
+        <f t="shared" si="20"/>
+        <v>45</v>
+      </c>
+      <c r="BW35" s="84">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="BY35" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="BZ35" s="76">
+        <f t="shared" si="27"/>
+        <v>39</v>
+      </c>
+      <c r="CA35" s="76"/>
+      <c r="CB35" s="76">
+        <f t="shared" si="22"/>
+        <v>45</v>
+      </c>
+      <c r="CC35" s="76"/>
+      <c r="CD35" s="76">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="CE35" s="76"/>
+      <c r="CF35" s="76">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="CG35" s="79"/>
+    </row>
+    <row r="36" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="A36" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="2">
-        <v>69382</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B36" s="37">
+        <v>69277</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="37">
+        <v>16</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="37">
+        <v>15</v>
+      </c>
+      <c r="H36" s="37">
+        <v>218730</v>
+      </c>
+      <c r="I36" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" s="37">
+        <v>33</v>
+      </c>
+      <c r="M36" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="N36" s="37">
+        <v>3</v>
+      </c>
+      <c r="O36" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="P36" s="37">
+        <v>69260</v>
+      </c>
+      <c r="Q36" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="R36" s="58">
+        <v>18</v>
+      </c>
+      <c r="S36" s="37">
+        <v>218700</v>
+      </c>
+      <c r="T36" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="U36" s="67">
+        <v>38</v>
+      </c>
+      <c r="V36" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="W36" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB36" s="66">
         <v>11</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="AD36" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE36" s="8">
+        <v>11</v>
+      </c>
+      <c r="AF36" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="2">
-        <v>11</v>
-      </c>
-      <c r="H29" s="2">
-        <v>218744</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="AG36" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH36" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI36" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ36" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK36" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL36" t="str">
+        <f t="shared" si="5"/>
+        <v>Tone</v>
+      </c>
+      <c r="AM36" t="str">
+        <f t="shared" si="6"/>
+        <v>Siren</v>
+      </c>
+      <c r="AN36" t="str">
+        <f t="shared" si="7"/>
+        <v>Click</v>
+      </c>
+      <c r="AO36" t="str">
+        <f t="shared" si="8"/>
+        <v>Noise</v>
+      </c>
+      <c r="AP36" t="str">
+        <f t="shared" si="9"/>
+        <v>Click</v>
+      </c>
+      <c r="AQ36" t="str">
+        <f t="shared" si="10"/>
+        <v>Tone</v>
+      </c>
+      <c r="AR36" t="str">
+        <f t="shared" si="11"/>
+        <v>Noise</v>
+      </c>
+      <c r="AS36" t="str">
+        <f t="shared" si="12"/>
+        <v>Siren</v>
+      </c>
+      <c r="AU36" s="71">
+        <v>46</v>
+      </c>
+      <c r="AV36" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW36" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX36" t="str">
+        <f t="shared" si="13"/>
+        <v>ToneSiren</v>
+      </c>
+      <c r="AZ36" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>168</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>167</v>
+      </c>
+      <c r="BF36" s="83" t="str">
+        <f t="shared" si="14"/>
+        <v>ToneSiren</v>
+      </c>
+      <c r="BG36" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>ClickNoise</v>
+      </c>
+      <c r="BH36" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>ClickTone</v>
+      </c>
+      <c r="BI36" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BJ36" s="4"/>
+      <c r="BK36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>SirenTone</v>
+      </c>
+      <c r="BL36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>NoiseClick</v>
+      </c>
+      <c r="BM36" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>ToneClick</v>
+      </c>
+      <c r="BN36" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BP36" s="83" t="str">
+        <f>BK36</f>
+        <v>SirenTone</v>
+      </c>
+      <c r="BQ36" s="4" t="str">
+        <f>BG36</f>
+        <v>ClickNoise</v>
+      </c>
+      <c r="BR36" s="4" t="str">
+        <f>BM36</f>
+        <v>ToneClick</v>
+      </c>
+      <c r="BS36" s="4" t="str">
+        <f>BI36</f>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BT36" s="4">
+        <f t="shared" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="BU36" s="4">
+        <f t="shared" si="19"/>
+        <v>36</v>
+      </c>
+      <c r="BV36" s="4">
+        <f t="shared" si="20"/>
+        <v>39</v>
+      </c>
+      <c r="BW36" s="84">
+        <f t="shared" si="21"/>
+        <v>44</v>
+      </c>
+      <c r="BY36" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="BZ36" s="76">
+        <f t="shared" si="27"/>
+        <v>47</v>
+      </c>
+      <c r="CA36" s="76"/>
+      <c r="CB36" s="76">
+        <f t="shared" si="22"/>
+        <v>36</v>
+      </c>
+      <c r="CC36" s="76"/>
+      <c r="CD36" s="76">
+        <f t="shared" si="23"/>
+        <v>39</v>
+      </c>
+      <c r="CE36" s="76"/>
+      <c r="CF36" s="76">
+        <f t="shared" si="24"/>
+        <v>44</v>
+      </c>
+      <c r="CG36" s="79"/>
+    </row>
+    <row r="37" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2">
+        <v>69273</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="2">
+        <v>16</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="2">
+        <v>16</v>
+      </c>
+      <c r="H37" s="2">
+        <v>218693</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J29" s="2">
-        <v>26</v>
-      </c>
-      <c r="M29" s="2" t="s">
+      <c r="J37" s="2">
+        <v>34</v>
+      </c>
+      <c r="M37" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N37" s="37">
         <v>3</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O37" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="P37" s="37">
+        <v>69261</v>
+      </c>
+      <c r="Q37" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="R37" s="58">
+        <v>19</v>
+      </c>
+      <c r="S37" s="37">
+        <v>218701</v>
+      </c>
+      <c r="T37" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="U37" s="67">
+        <v>39</v>
+      </c>
+      <c r="V37" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="W37" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB37" s="66">
+        <v>12</v>
+      </c>
+      <c r="AD37" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE37" s="8">
+        <v>12</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG37" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH37" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI37" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ37" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK37" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL37" t="str">
+        <f t="shared" si="5"/>
+        <v>Noise</v>
+      </c>
+      <c r="AM37" t="str">
+        <f t="shared" si="6"/>
+        <v>Tone</v>
+      </c>
+      <c r="AN37" t="str">
+        <f t="shared" si="7"/>
+        <v>Siren</v>
+      </c>
+      <c r="AO37" t="str">
+        <f t="shared" si="8"/>
+        <v>Click</v>
+      </c>
+      <c r="AP37" t="str">
+        <f t="shared" si="9"/>
+        <v>Siren</v>
+      </c>
+      <c r="AQ37" t="str">
+        <f t="shared" si="10"/>
+        <v>Noise</v>
+      </c>
+      <c r="AR37" t="str">
+        <f t="shared" si="11"/>
+        <v>Click</v>
+      </c>
+      <c r="AS37" t="str">
+        <f t="shared" si="12"/>
+        <v>Tone</v>
+      </c>
+      <c r="AU37" s="71">
+        <v>47</v>
+      </c>
+      <c r="AV37" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW37" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX37" t="str">
+        <f t="shared" si="13"/>
+        <v>SirenTone</v>
+      </c>
+      <c r="AZ37" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>168</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF37" s="83" t="str">
+        <f t="shared" si="14"/>
+        <v>NoiseTone</v>
+      </c>
+      <c r="BG37" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>SirenClick</v>
+      </c>
+      <c r="BH37" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BI37" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>ClickTone</v>
+      </c>
+      <c r="BJ37" s="4"/>
+      <c r="BK37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ToneNoise</v>
+      </c>
+      <c r="BL37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>ClickSiren</v>
+      </c>
+      <c r="BM37" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BN37" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>ToneClick</v>
+      </c>
+      <c r="BP37" s="83" t="str">
+        <f>BF37</f>
+        <v>NoiseTone</v>
+      </c>
+      <c r="BQ37" s="4" t="str">
+        <f t="shared" ref="BQ37" si="40">BL37</f>
+        <v>ClickSiren</v>
+      </c>
+      <c r="BR37" s="4" t="str">
+        <f>BH37</f>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BS37" s="4" t="str">
+        <f t="shared" ref="BS37" si="41">BN37</f>
+        <v>ToneClick</v>
+      </c>
+      <c r="BT37" s="4">
+        <f t="shared" si="18"/>
+        <v>42</v>
+      </c>
+      <c r="BU37" s="4">
+        <f t="shared" si="19"/>
+        <v>40</v>
+      </c>
+      <c r="BV37" s="4">
+        <f t="shared" si="20"/>
+        <v>45</v>
+      </c>
+      <c r="BW37" s="84">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="BY37" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ37" s="76">
+        <f t="shared" si="27"/>
+        <v>45</v>
+      </c>
+      <c r="CA37" s="76"/>
+      <c r="CB37" s="76">
+        <f t="shared" si="22"/>
+        <v>39</v>
+      </c>
+      <c r="CC37" s="76"/>
+      <c r="CD37" s="76">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="CE37" s="76"/>
+      <c r="CF37" s="76">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="CG37" s="79"/>
+    </row>
+    <row r="38" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="4">
+        <v>69274</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="4">
+        <v>16</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="4">
+        <v>16</v>
+      </c>
+      <c r="H38" s="4">
+        <v>218693</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J38" s="4">
+        <v>35</v>
+      </c>
+      <c r="M38" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="N38" s="47">
+        <v>4</v>
+      </c>
+      <c r="O38" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="2">
-        <v>69299</v>
-      </c>
-      <c r="Q29" s="2" t="s">
+      <c r="P38" s="47">
+        <v>69278</v>
+      </c>
+      <c r="Q38" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="R29" s="51">
+      <c r="R38" s="54">
+        <v>6</v>
+      </c>
+      <c r="S38" s="47">
+        <v>218690</v>
+      </c>
+      <c r="T38" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="U38" s="63">
+        <v>15</v>
+      </c>
+      <c r="V38" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="W38" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB38" s="66">
+        <v>13</v>
+      </c>
+      <c r="AD38" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE38" s="8">
+        <v>13</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG38" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH38" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI38" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ38" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK38" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL38" t="str">
+        <f t="shared" si="5"/>
+        <v>Click</v>
+      </c>
+      <c r="AM38" t="str">
+        <f t="shared" si="6"/>
+        <v>Noise</v>
+      </c>
+      <c r="AN38" t="str">
+        <f t="shared" si="7"/>
+        <v>Tone</v>
+      </c>
+      <c r="AO38" t="str">
+        <f t="shared" si="8"/>
+        <v>Siren</v>
+      </c>
+      <c r="AP38" t="str">
+        <f t="shared" si="9"/>
+        <v>Tone</v>
+      </c>
+      <c r="AQ38" t="str">
+        <f t="shared" si="10"/>
+        <v>Click</v>
+      </c>
+      <c r="AR38" t="str">
+        <f t="shared" si="11"/>
+        <v>Siren</v>
+      </c>
+      <c r="AS38" t="str">
+        <f t="shared" si="12"/>
+        <v>Noise</v>
+      </c>
+      <c r="AZ38" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>166</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF38" s="83" t="str">
+        <f t="shared" si="14"/>
+        <v>ClickNoise</v>
+      </c>
+      <c r="BG38" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>ToneSiren</v>
+      </c>
+      <c r="BH38" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>ToneClick</v>
+      </c>
+      <c r="BI38" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BJ38" s="4"/>
+      <c r="BK38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>NoiseClick</v>
+      </c>
+      <c r="BL38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SirenTone</v>
+      </c>
+      <c r="BM38" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>ClickTone</v>
+      </c>
+      <c r="BN38" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BP38" s="83" t="str">
+        <f>BK38</f>
+        <v>NoiseClick</v>
+      </c>
+      <c r="BQ38" s="4" t="str">
+        <f>BG38</f>
+        <v>ToneSiren</v>
+      </c>
+      <c r="BR38" s="4" t="str">
+        <f>BM38</f>
+        <v>ClickTone</v>
+      </c>
+      <c r="BS38" s="4" t="str">
+        <f>BI38</f>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BT38" s="4">
+        <f t="shared" si="18"/>
+        <v>37</v>
+      </c>
+      <c r="BU38" s="4">
+        <f t="shared" si="19"/>
+        <v>46</v>
+      </c>
+      <c r="BV38" s="4">
+        <f t="shared" si="20"/>
+        <v>38</v>
+      </c>
+      <c r="BW38" s="84">
+        <f t="shared" si="21"/>
+        <v>45</v>
+      </c>
+      <c r="BY38" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="BZ38" s="78">
+        <f t="shared" si="27"/>
+        <v>45</v>
+      </c>
+      <c r="CA38" s="78"/>
+      <c r="CB38" s="78">
+        <f t="shared" si="22"/>
+        <v>38</v>
+      </c>
+      <c r="CC38" s="78"/>
+      <c r="CD38" s="78">
+        <f t="shared" si="23"/>
+        <v>46</v>
+      </c>
+      <c r="CE38" s="78"/>
+      <c r="CF38" s="78">
+        <f t="shared" si="24"/>
+        <v>37</v>
+      </c>
+      <c r="CG38" s="79"/>
+    </row>
+    <row r="39" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="21">
+        <v>69275</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="21">
+        <v>16</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="21">
+        <v>16</v>
+      </c>
+      <c r="H39" s="21">
+        <v>218693</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="J39" s="21">
+        <v>36</v>
+      </c>
+      <c r="M39" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="N39" s="48">
+        <v>4</v>
+      </c>
+      <c r="O39" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="2">
-        <v>218752</v>
-      </c>
-      <c r="T29" s="2" t="s">
+      <c r="P39" s="48">
+        <v>69280</v>
+      </c>
+      <c r="Q39" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="R39" s="55">
+        <v>6</v>
+      </c>
+      <c r="S39" s="48">
+        <v>218690</v>
+      </c>
+      <c r="T39" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="U29" s="60">
-        <v>12</v>
-      </c>
-      <c r="V29" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="W29" s="2" t="s">
+      <c r="U39" s="64">
+        <v>16</v>
+      </c>
+      <c r="V39" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="W39" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Y39" t="s">
         <v>126</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Z39" t="s">
         <v>126</v>
       </c>
-      <c r="AB29" s="66">
+      <c r="AB39" s="66">
         <v>14</v>
       </c>
-      <c r="AD29" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE29" s="8">
+      <c r="AD39" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE39" s="8">
         <v>14</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AF39" t="s">
         <v>110</v>
       </c>
-      <c r="AG29" s="57" t="s">
+      <c r="AG39" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="AH29" s="57" t="s">
+      <c r="AH39" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="AI29" s="57" t="s">
+      <c r="AI39" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="AJ29" s="57" t="s">
+      <c r="AJ39" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="AL29" t="str">
-        <f t="shared" si="0"/>
-        <v>Siren</v>
-      </c>
-      <c r="AM29" t="str">
-        <f t="shared" si="1"/>
-        <v>Click</v>
-      </c>
-      <c r="AN29" t="str">
-        <f t="shared" si="2"/>
-        <v>Noise</v>
-      </c>
-      <c r="AO29" t="str">
-        <f t="shared" si="3"/>
-        <v>Tone</v>
-      </c>
-      <c r="AP29" t="str">
-        <f t="shared" si="4"/>
-        <v>Noise</v>
-      </c>
-      <c r="AQ29" t="str">
+      <c r="AK39" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL39" t="str">
         <f t="shared" si="5"/>
         <v>Siren</v>
       </c>
-      <c r="AR29" t="str">
+      <c r="AM39" t="str">
         <f t="shared" si="6"/>
+        <v>Click</v>
+      </c>
+      <c r="AN39" t="str">
+        <f t="shared" si="7"/>
+        <v>Noise</v>
+      </c>
+      <c r="AO39" t="str">
+        <f t="shared" si="8"/>
         <v>Tone</v>
       </c>
-      <c r="AS29" t="str">
-        <f t="shared" si="7"/>
+      <c r="AP39" t="str">
+        <f t="shared" si="9"/>
+        <v>Noise</v>
+      </c>
+      <c r="AQ39" t="str">
+        <f t="shared" si="10"/>
+        <v>Siren</v>
+      </c>
+      <c r="AR39" t="str">
+        <f t="shared" si="11"/>
+        <v>Tone</v>
+      </c>
+      <c r="AS39" t="str">
+        <f t="shared" si="12"/>
         <v>Click</v>
       </c>
-    </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="AZ39" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF39" s="83" t="str">
+        <f t="shared" si="14"/>
+        <v>SirenClick</v>
+      </c>
+      <c r="BG39" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>NoiseTone</v>
+      </c>
+      <c r="BH39" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BI39" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>ToneClick</v>
+      </c>
+      <c r="BJ39" s="4"/>
+      <c r="BK39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ClickSiren</v>
+      </c>
+      <c r="BL39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>ToneNoise</v>
+      </c>
+      <c r="BM39" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BN39" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>ClickTone</v>
+      </c>
+      <c r="BP39" s="83" t="str">
+        <f>BF39</f>
+        <v>SirenClick</v>
+      </c>
+      <c r="BQ39" s="4" t="str">
+        <f t="shared" ref="BQ39" si="42">BL39</f>
+        <v>ToneNoise</v>
+      </c>
+      <c r="BR39" s="4" t="str">
+        <f>BH39</f>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BS39" s="4" t="str">
+        <f t="shared" ref="BS39" si="43">BN39</f>
+        <v>ClickTone</v>
+      </c>
+      <c r="BT39" s="4">
+        <f t="shared" si="18"/>
+        <v>41</v>
+      </c>
+      <c r="BU39" s="4">
+        <f t="shared" si="19"/>
+        <v>43</v>
+      </c>
+      <c r="BV39" s="4">
+        <f t="shared" si="20"/>
+        <v>44</v>
+      </c>
+      <c r="BW39" s="84">
+        <f t="shared" si="21"/>
+        <v>38</v>
+      </c>
+      <c r="BY39" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="BZ39" s="78">
+        <f t="shared" si="27"/>
+        <v>43</v>
+      </c>
+      <c r="CA39" s="78"/>
+      <c r="CB39" s="78">
+        <f t="shared" si="22"/>
+        <v>41</v>
+      </c>
+      <c r="CC39" s="78"/>
+      <c r="CD39" s="78">
+        <f t="shared" si="23"/>
+        <v>38</v>
+      </c>
+      <c r="CE39" s="78"/>
+      <c r="CF39" s="78">
+        <f t="shared" si="24"/>
+        <v>44</v>
+      </c>
+      <c r="CG39" s="79"/>
+    </row>
+    <row r="40" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="A40" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="21">
-        <v>69383</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="21">
-        <v>11</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="21">
-        <v>11</v>
-      </c>
-      <c r="H30" s="21">
-        <v>218744</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="J30" s="21">
-        <v>27</v>
-      </c>
-      <c r="M30" s="4" t="s">
+      <c r="B40" s="37">
+        <v>69259</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="37">
+        <v>17</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="37">
+        <v>17</v>
+      </c>
+      <c r="H40" s="37">
+        <v>218699</v>
+      </c>
+      <c r="I40" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="J40" s="37">
+        <v>37</v>
+      </c>
+      <c r="M40" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="N30" s="4">
-        <v>3</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="4">
-        <v>69300</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R30" s="52">
-        <v>5</v>
-      </c>
-      <c r="S30" s="4">
-        <v>218752</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="U30" s="61">
+      <c r="N40" s="49">
+        <v>4</v>
+      </c>
+      <c r="O40" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="P40" s="49">
+        <v>69264</v>
+      </c>
+      <c r="Q40" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="R40" s="56">
+        <v>20</v>
+      </c>
+      <c r="S40" s="49">
+        <v>218727</v>
+      </c>
+      <c r="T40" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="U40" s="65">
+        <v>40</v>
+      </c>
+      <c r="V40" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="W40" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB40" s="66">
         <v>13</v>
       </c>
-      <c r="V30" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB30" s="66">
-        <v>11</v>
-      </c>
-      <c r="AD30" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE30" s="8">
-        <v>11</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG30" s="57" t="s">
+      <c r="AD40" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE40" s="8">
+        <v>13</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG40" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH40" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI40" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="AH30" s="57" t="s">
+      <c r="AJ40" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="AI30" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ30" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL30" t="str">
-        <f t="shared" si="0"/>
-        <v>Tone</v>
-      </c>
-      <c r="AM30" t="str">
-        <f t="shared" si="1"/>
-        <v>Siren</v>
-      </c>
-      <c r="AN30" t="str">
-        <f t="shared" si="2"/>
+      <c r="AK40" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL40" t="str">
+        <f t="shared" si="5"/>
         <v>Click</v>
       </c>
-      <c r="AO30" t="str">
-        <f t="shared" si="3"/>
-        <v>Noise</v>
-      </c>
-      <c r="AP30" t="str">
-        <f t="shared" si="4"/>
-        <v>Click</v>
-      </c>
-      <c r="AQ30" t="str">
-        <f t="shared" si="5"/>
-        <v>Tone</v>
-      </c>
-      <c r="AR30" t="str">
+      <c r="AM40" t="str">
         <f t="shared" si="6"/>
         <v>Noise</v>
       </c>
-      <c r="AS30" t="str">
+      <c r="AN40" t="str">
         <f t="shared" si="7"/>
+        <v>Tone</v>
+      </c>
+      <c r="AO40" t="str">
+        <f t="shared" si="8"/>
         <v>Siren</v>
       </c>
-    </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="AP40" t="str">
+        <f t="shared" si="9"/>
+        <v>Tone</v>
+      </c>
+      <c r="AQ40" t="str">
+        <f t="shared" si="10"/>
+        <v>Click</v>
+      </c>
+      <c r="AR40" t="str">
+        <f t="shared" si="11"/>
+        <v>Siren</v>
+      </c>
+      <c r="AS40" t="str">
+        <f t="shared" si="12"/>
+        <v>Noise</v>
+      </c>
+      <c r="AZ40" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="BA40" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>168</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>167</v>
+      </c>
+      <c r="BF40" s="83" t="str">
+        <f t="shared" si="14"/>
+        <v>ClickNoise</v>
+      </c>
+      <c r="BG40" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>ToneSiren</v>
+      </c>
+      <c r="BH40" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>ToneClick</v>
+      </c>
+      <c r="BI40" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BJ40" s="4"/>
+      <c r="BK40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>NoiseClick</v>
+      </c>
+      <c r="BL40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SirenTone</v>
+      </c>
+      <c r="BM40" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>ClickTone</v>
+      </c>
+      <c r="BN40" s="84" t="str">
+        <f t="shared" si="3"/>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BP40" s="83" t="str">
+        <f>BK40</f>
+        <v>NoiseClick</v>
+      </c>
+      <c r="BQ40" s="4" t="str">
+        <f>BG40</f>
+        <v>ToneSiren</v>
+      </c>
+      <c r="BR40" s="4" t="str">
+        <f>BM40</f>
+        <v>ClickTone</v>
+      </c>
+      <c r="BS40" s="4" t="str">
+        <f>BI40</f>
+        <v>SirenNoise</v>
+      </c>
+      <c r="BT40" s="4">
+        <f t="shared" si="18"/>
+        <v>37</v>
+      </c>
+      <c r="BU40" s="4">
+        <f t="shared" si="19"/>
+        <v>46</v>
+      </c>
+      <c r="BV40" s="4">
+        <f t="shared" si="20"/>
+        <v>38</v>
+      </c>
+      <c r="BW40" s="84">
+        <f t="shared" si="21"/>
+        <v>45</v>
+      </c>
+      <c r="BY40" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="BZ40" s="78">
+        <f t="shared" si="27"/>
+        <v>37</v>
+      </c>
+      <c r="CA40" s="78"/>
+      <c r="CB40" s="78">
+        <f t="shared" si="22"/>
+        <v>46</v>
+      </c>
+      <c r="CC40" s="78"/>
+      <c r="CD40" s="78">
+        <f t="shared" si="23"/>
+        <v>38</v>
+      </c>
+      <c r="CE40" s="78"/>
+      <c r="CF40" s="78">
+        <f t="shared" si="24"/>
+        <v>45</v>
+      </c>
+      <c r="CG40" s="79"/>
+    </row>
+    <row r="41" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="2">
-        <v>69374</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B41" s="37">
+        <v>69260</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="37">
+        <v>17</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="37">
+        <v>18</v>
+      </c>
+      <c r="H41" s="37">
+        <v>218700</v>
+      </c>
+      <c r="I41" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="J41" s="37">
+        <v>38</v>
+      </c>
+      <c r="M41" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="N41" s="49">
         <v>4</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="2">
-        <v>12</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="2">
-        <v>12</v>
-      </c>
-      <c r="H31" s="2">
-        <v>218745</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="O41" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="49">
+        <v>69266</v>
+      </c>
+      <c r="Q41" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="R41" s="56">
+        <v>21</v>
+      </c>
+      <c r="S41" s="49">
+        <v>218725</v>
+      </c>
+      <c r="T41" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="U41" s="65">
+        <v>41</v>
+      </c>
+      <c r="V41" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="J31" s="2">
-        <v>28</v>
-      </c>
-      <c r="M31" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="N31" s="21">
-        <v>3</v>
-      </c>
-      <c r="O31" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="21">
-        <v>69366</v>
-      </c>
-      <c r="Q31" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="R31" s="53">
-        <v>5</v>
-      </c>
-      <c r="S31" s="21">
-        <v>218752</v>
-      </c>
-      <c r="T31" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="U31" s="62">
+      <c r="W41" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB41" s="66">
         <v>14</v>
       </c>
-      <c r="V31" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="W31" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB31" s="66">
-        <v>12</v>
-      </c>
-      <c r="AD31" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE31" s="8">
-        <v>12</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG31" s="57" t="s">
+      <c r="AD41" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE41" s="8">
+        <v>14</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG41" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH41" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI41" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="AH31" s="57" t="s">
+      <c r="AJ41" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="AI31" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ31" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL31" t="str">
-        <f t="shared" si="0"/>
-        <v>Noise</v>
-      </c>
-      <c r="AM31" t="str">
-        <f t="shared" si="1"/>
-        <v>Tone</v>
-      </c>
-      <c r="AN31" t="str">
-        <f t="shared" si="2"/>
+      <c r="AK41" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL41" t="str">
+        <f t="shared" si="5"/>
         <v>Siren</v>
       </c>
-      <c r="AO31" t="str">
-        <f t="shared" si="3"/>
-        <v>Click</v>
-      </c>
-      <c r="AP31" t="str">
-        <f t="shared" si="4"/>
-        <v>Siren</v>
-      </c>
-      <c r="AQ31" t="str">
-        <f t="shared" si="5"/>
-        <v>Noise</v>
-      </c>
-      <c r="AR31" t="str">
+      <c r="AM41" t="str">
         <f t="shared" si="6"/>
         <v>Click</v>
       </c>
-      <c r="AS31" t="str">
-        <f t="shared" si="7"/>
-        <v>Tone</v>
-      </c>
-    </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="21">
-        <v>69387</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="21">
-        <v>11</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G32" s="21">
-        <v>12</v>
-      </c>
-      <c r="H32" s="21">
-        <v>218745</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="J32" s="21">
-        <v>29</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="N32" s="2">
-        <v>3</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P32" s="2">
-        <v>69273</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="51">
-        <v>16</v>
-      </c>
-      <c r="S32" s="2">
-        <v>218693</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="U32" s="60">
-        <v>34</v>
-      </c>
-      <c r="V32" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB32" s="66">
-        <v>11</v>
-      </c>
-      <c r="AD32" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE32" s="8">
-        <v>11</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG32" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH32" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI32" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ32" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL32" t="str">
-        <f t="shared" si="0"/>
-        <v>Tone</v>
-      </c>
-      <c r="AM32" t="str">
-        <f t="shared" si="1"/>
-        <v>Siren</v>
-      </c>
-      <c r="AN32" t="str">
-        <f t="shared" si="2"/>
-        <v>Click</v>
-      </c>
-      <c r="AO32" t="str">
-        <f t="shared" si="3"/>
-        <v>Noise</v>
-      </c>
-      <c r="AP32" t="str">
-        <f t="shared" si="4"/>
-        <v>Click</v>
-      </c>
-      <c r="AQ32" t="str">
-        <f t="shared" si="5"/>
-        <v>Tone</v>
-      </c>
-      <c r="AR32" t="str">
-        <f t="shared" si="6"/>
-        <v>Noise</v>
-      </c>
-      <c r="AS32" t="str">
-        <f t="shared" si="7"/>
-        <v>Siren</v>
-      </c>
-    </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="2">
-        <v>69329</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="2">
-        <v>15</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33" s="2">
-        <v>13</v>
-      </c>
-      <c r="H33" s="2">
-        <v>218750</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J33" s="2">
-        <v>30</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N33" s="4">
-        <v>3</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P33" s="4">
-        <v>69274</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R33" s="52">
-        <v>16</v>
-      </c>
-      <c r="S33" s="4">
-        <v>218693</v>
-      </c>
-      <c r="T33" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="U33" s="61">
-        <v>35</v>
-      </c>
-      <c r="V33" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="W33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB33" s="66">
-        <v>12</v>
-      </c>
-      <c r="AD33" s="69" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE33" s="8">
-        <v>12</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG33" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH33" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI33" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ33" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL33" t="str">
-        <f t="shared" si="0"/>
-        <v>Noise</v>
-      </c>
-      <c r="AM33" t="str">
-        <f t="shared" si="1"/>
-        <v>Tone</v>
-      </c>
-      <c r="AN33" t="str">
-        <f t="shared" si="2"/>
-        <v>Siren</v>
-      </c>
-      <c r="AO33" t="str">
-        <f t="shared" si="3"/>
-        <v>Click</v>
-      </c>
-      <c r="AP33" t="str">
-        <f t="shared" si="4"/>
-        <v>Siren</v>
-      </c>
-      <c r="AQ33" t="str">
-        <f t="shared" si="5"/>
-        <v>Noise</v>
-      </c>
-      <c r="AR33" t="str">
-        <f t="shared" si="6"/>
-        <v>Click</v>
-      </c>
-      <c r="AS33" t="str">
-        <f t="shared" si="7"/>
-        <v>Tone</v>
-      </c>
-    </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="21">
-        <v>69331</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="21">
-        <v>15</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" s="21">
-        <v>13</v>
-      </c>
-      <c r="H34" s="21">
-        <v>218750</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="J34" s="21">
-        <v>31</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N34" s="4">
-        <v>3</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P34" s="4">
-        <v>69275</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R34" s="52">
-        <v>16</v>
-      </c>
-      <c r="S34" s="4">
-        <v>218693</v>
-      </c>
-      <c r="T34" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="U34" s="61">
-        <v>36</v>
-      </c>
-      <c r="V34" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="W34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB34" s="66">
-        <v>13</v>
-      </c>
-      <c r="AD34" s="69" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE34" s="8">
-        <v>13</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG34" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH34" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI34" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ34" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL34" t="str">
-        <f t="shared" si="0"/>
-        <v>Click</v>
-      </c>
-      <c r="AM34" t="str">
-        <f t="shared" si="1"/>
-        <v>Noise</v>
-      </c>
-      <c r="AN34" t="str">
-        <f t="shared" si="2"/>
-        <v>Tone</v>
-      </c>
-      <c r="AO34" t="str">
-        <f t="shared" si="3"/>
-        <v>Siren</v>
-      </c>
-      <c r="AP34" t="str">
-        <f t="shared" si="4"/>
-        <v>Tone</v>
-      </c>
-      <c r="AQ34" t="str">
-        <f t="shared" si="5"/>
-        <v>Click</v>
-      </c>
-      <c r="AR34" t="str">
-        <f t="shared" si="6"/>
-        <v>Siren</v>
-      </c>
-      <c r="AS34" t="str">
+      <c r="AN41" t="str">
         <f t="shared" si="7"/>
         <v>Noise</v>
       </c>
-    </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="37">
-        <v>69270</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="37">
-        <v>16</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" s="37">
-        <v>14</v>
-      </c>
-      <c r="H35" s="37">
-        <v>218724</v>
-      </c>
-      <c r="I35" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="J35" s="37">
-        <v>32</v>
-      </c>
-      <c r="M35" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="N35" s="37">
-        <v>3</v>
-      </c>
-      <c r="O35" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="P35" s="37">
-        <v>69259</v>
-      </c>
-      <c r="Q35" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="R35" s="58">
-        <v>17</v>
-      </c>
-      <c r="S35" s="37">
-        <v>218699</v>
-      </c>
-      <c r="T35" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="U35" s="67">
-        <v>37</v>
-      </c>
-      <c r="V35" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="W35" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB35" s="66">
-        <v>14</v>
-      </c>
-      <c r="AD35" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE35" s="8">
-        <v>14</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG35" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH35" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI35" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ35" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL35" t="str">
+      <c r="AO41" t="str">
+        <f t="shared" si="8"/>
+        <v>Tone</v>
+      </c>
+      <c r="AP41" t="str">
+        <f t="shared" si="9"/>
+        <v>Noise</v>
+      </c>
+      <c r="AQ41" t="str">
+        <f t="shared" si="10"/>
+        <v>Siren</v>
+      </c>
+      <c r="AR41" t="str">
+        <f t="shared" si="11"/>
+        <v>Tone</v>
+      </c>
+      <c r="AS41" t="str">
+        <f t="shared" si="12"/>
+        <v>Click</v>
+      </c>
+      <c r="AZ41" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>168</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF41" s="87" t="str">
+        <f>_xlfn.CONCAT(AL41,AM41)</f>
+        <v>SirenClick</v>
+      </c>
+      <c r="BG41" s="88" t="str">
+        <f t="shared" si="15"/>
+        <v>NoiseTone</v>
+      </c>
+      <c r="BH41" s="88" t="str">
+        <f t="shared" si="16"/>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BI41" s="88" t="str">
+        <f t="shared" si="17"/>
+        <v>ToneClick</v>
+      </c>
+      <c r="BJ41" s="88"/>
+      <c r="BK41" s="88" t="str">
         <f t="shared" si="0"/>
-        <v>Siren</v>
-      </c>
-      <c r="AM35" t="str">
+        <v>ClickSiren</v>
+      </c>
+      <c r="BL41" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>Click</v>
-      </c>
-      <c r="AN35" t="str">
+        <v>ToneNoise</v>
+      </c>
+      <c r="BM41" s="88" t="str">
         <f t="shared" si="2"/>
-        <v>Noise</v>
-      </c>
-      <c r="AO35" t="str">
+        <v>SirenNoise</v>
+      </c>
+      <c r="BN41" s="89" t="str">
         <f t="shared" si="3"/>
-        <v>Tone</v>
-      </c>
-      <c r="AP35" t="str">
-        <f t="shared" si="4"/>
-        <v>Noise</v>
-      </c>
-      <c r="AQ35" t="str">
-        <f t="shared" si="5"/>
-        <v>Siren</v>
-      </c>
-      <c r="AR35" t="str">
-        <f t="shared" si="6"/>
-        <v>Tone</v>
-      </c>
-      <c r="AS35" t="str">
-        <f t="shared" si="7"/>
-        <v>Click</v>
-      </c>
-    </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="37">
-        <v>69277</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="37">
-        <v>16</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="37">
-        <v>15</v>
-      </c>
-      <c r="H36" s="37">
-        <v>218730</v>
-      </c>
-      <c r="I36" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="J36" s="37">
-        <v>33</v>
-      </c>
-      <c r="M36" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="N36" s="37">
-        <v>3</v>
-      </c>
-      <c r="O36" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="P36" s="37">
-        <v>69260</v>
-      </c>
-      <c r="Q36" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="R36" s="58">
-        <v>18</v>
-      </c>
-      <c r="S36" s="37">
-        <v>218700</v>
-      </c>
-      <c r="T36" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="U36" s="67">
+        <v>ClickTone</v>
+      </c>
+      <c r="BP41" s="87" t="str">
+        <f>BF41</f>
+        <v>SirenClick</v>
+      </c>
+      <c r="BQ41" s="88" t="str">
+        <f t="shared" ref="BQ41" si="44">BL41</f>
+        <v>ToneNoise</v>
+      </c>
+      <c r="BR41" s="88" t="str">
+        <f>BH41</f>
+        <v>NoiseSiren</v>
+      </c>
+      <c r="BS41" s="88" t="str">
+        <f t="shared" ref="BS41" si="45">BN41</f>
+        <v>ClickTone</v>
+      </c>
+      <c r="BT41" s="88">
+        <f t="shared" si="18"/>
+        <v>41</v>
+      </c>
+      <c r="BU41" s="88">
+        <f t="shared" si="19"/>
+        <v>43</v>
+      </c>
+      <c r="BV41" s="88">
+        <f t="shared" si="20"/>
+        <v>44</v>
+      </c>
+      <c r="BW41" s="89">
+        <f t="shared" si="21"/>
         <v>38</v>
       </c>
-      <c r="V36" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="W36" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB36" s="66">
-        <v>11</v>
-      </c>
-      <c r="AD36" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE36" s="8">
-        <v>11</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG36" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH36" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI36" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ36" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL36" t="str">
-        <f t="shared" si="0"/>
-        <v>Tone</v>
-      </c>
-      <c r="AM36" t="str">
-        <f t="shared" si="1"/>
-        <v>Siren</v>
-      </c>
-      <c r="AN36" t="str">
-        <f t="shared" si="2"/>
-        <v>Click</v>
-      </c>
-      <c r="AO36" t="str">
-        <f t="shared" si="3"/>
-        <v>Noise</v>
-      </c>
-      <c r="AP36" t="str">
-        <f t="shared" si="4"/>
-        <v>Click</v>
-      </c>
-      <c r="AQ36" t="str">
-        <f t="shared" si="5"/>
-        <v>Tone</v>
-      </c>
-      <c r="AR36" t="str">
-        <f t="shared" si="6"/>
-        <v>Noise</v>
-      </c>
-      <c r="AS36" t="str">
-        <f t="shared" si="7"/>
-        <v>Siren</v>
-      </c>
-    </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="2">
-        <v>69273</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="2">
-        <v>16</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" s="2">
-        <v>16</v>
-      </c>
-      <c r="H37" s="2">
-        <v>218693</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J37" s="2">
-        <v>34</v>
-      </c>
-      <c r="M37" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="N37" s="37">
-        <v>3</v>
-      </c>
-      <c r="O37" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="P37" s="37">
-        <v>69261</v>
-      </c>
-      <c r="Q37" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="R37" s="58">
-        <v>19</v>
-      </c>
-      <c r="S37" s="37">
-        <v>218701</v>
-      </c>
-      <c r="T37" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="U37" s="67">
-        <v>39</v>
-      </c>
-      <c r="V37" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="W37" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB37" s="66">
-        <v>12</v>
-      </c>
-      <c r="AD37" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE37" s="8">
-        <v>12</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG37" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH37" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI37" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ37" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL37" t="str">
-        <f t="shared" si="0"/>
-        <v>Noise</v>
-      </c>
-      <c r="AM37" t="str">
-        <f t="shared" si="1"/>
-        <v>Tone</v>
-      </c>
-      <c r="AN37" t="str">
-        <f t="shared" si="2"/>
-        <v>Siren</v>
-      </c>
-      <c r="AO37" t="str">
-        <f t="shared" si="3"/>
-        <v>Click</v>
-      </c>
-      <c r="AP37" t="str">
-        <f t="shared" si="4"/>
-        <v>Siren</v>
-      </c>
-      <c r="AQ37" t="str">
-        <f t="shared" si="5"/>
-        <v>Noise</v>
-      </c>
-      <c r="AR37" t="str">
-        <f t="shared" si="6"/>
-        <v>Click</v>
-      </c>
-      <c r="AS37" t="str">
-        <f t="shared" si="7"/>
-        <v>Tone</v>
-      </c>
-    </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="4">
-        <v>69274</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="4">
-        <v>16</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="4">
-        <v>16</v>
-      </c>
-      <c r="H38" s="4">
-        <v>218693</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J38" s="4">
-        <v>35</v>
-      </c>
-      <c r="M38" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="N38" s="47">
-        <v>4</v>
-      </c>
-      <c r="O38" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="P38" s="47">
-        <v>69278</v>
-      </c>
-      <c r="Q38" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="R38" s="54">
-        <v>6</v>
-      </c>
-      <c r="S38" s="47">
-        <v>218690</v>
-      </c>
-      <c r="T38" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="U38" s="63">
-        <v>15</v>
-      </c>
-      <c r="V38" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="W38" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB38" s="66">
-        <v>13</v>
-      </c>
-      <c r="AD38" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE38" s="8">
-        <v>13</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG38" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH38" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI38" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ38" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL38" t="str">
-        <f t="shared" si="0"/>
-        <v>Click</v>
-      </c>
-      <c r="AM38" t="str">
-        <f t="shared" si="1"/>
-        <v>Noise</v>
-      </c>
-      <c r="AN38" t="str">
-        <f t="shared" si="2"/>
-        <v>Tone</v>
-      </c>
-      <c r="AO38" t="str">
-        <f t="shared" si="3"/>
-        <v>Siren</v>
-      </c>
-      <c r="AP38" t="str">
-        <f t="shared" si="4"/>
-        <v>Tone</v>
-      </c>
-      <c r="AQ38" t="str">
-        <f t="shared" si="5"/>
-        <v>Click</v>
-      </c>
-      <c r="AR38" t="str">
-        <f t="shared" si="6"/>
-        <v>Siren</v>
-      </c>
-      <c r="AS38" t="str">
-        <f t="shared" si="7"/>
-        <v>Noise</v>
-      </c>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="21">
-        <v>69275</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="21">
-        <v>16</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39" s="21">
-        <v>16</v>
-      </c>
-      <c r="H39" s="21">
-        <v>218693</v>
-      </c>
-      <c r="I39" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="J39" s="21">
-        <v>36</v>
-      </c>
-      <c r="M39" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="N39" s="48">
-        <v>4</v>
-      </c>
-      <c r="O39" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="P39" s="48">
-        <v>69280</v>
-      </c>
-      <c r="Q39" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="R39" s="55">
-        <v>6</v>
-      </c>
-      <c r="S39" s="48">
-        <v>218690</v>
-      </c>
-      <c r="T39" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="U39" s="64">
-        <v>16</v>
-      </c>
-      <c r="V39" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="W39" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB39" s="66">
-        <v>14</v>
-      </c>
-      <c r="AD39" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE39" s="8">
-        <v>14</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG39" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH39" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI39" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ39" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL39" t="str">
-        <f t="shared" si="0"/>
-        <v>Siren</v>
-      </c>
-      <c r="AM39" t="str">
-        <f t="shared" si="1"/>
-        <v>Click</v>
-      </c>
-      <c r="AN39" t="str">
-        <f t="shared" si="2"/>
-        <v>Noise</v>
-      </c>
-      <c r="AO39" t="str">
-        <f t="shared" si="3"/>
-        <v>Tone</v>
-      </c>
-      <c r="AP39" t="str">
-        <f t="shared" si="4"/>
-        <v>Noise</v>
-      </c>
-      <c r="AQ39" t="str">
-        <f t="shared" si="5"/>
-        <v>Siren</v>
-      </c>
-      <c r="AR39" t="str">
-        <f t="shared" si="6"/>
-        <v>Tone</v>
-      </c>
-      <c r="AS39" t="str">
-        <f t="shared" si="7"/>
-        <v>Click</v>
-      </c>
-    </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="37">
-        <v>69259</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="37">
-        <v>17</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="G40" s="37">
-        <v>17</v>
-      </c>
-      <c r="H40" s="37">
-        <v>218699</v>
-      </c>
-      <c r="I40" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="J40" s="37">
-        <v>37</v>
-      </c>
-      <c r="M40" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="N40" s="49">
-        <v>4</v>
-      </c>
-      <c r="O40" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="P40" s="49">
-        <v>69264</v>
-      </c>
-      <c r="Q40" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="R40" s="56">
-        <v>20</v>
-      </c>
-      <c r="S40" s="49">
-        <v>218727</v>
-      </c>
-      <c r="T40" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="U40" s="65">
-        <v>40</v>
-      </c>
-      <c r="V40" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="W40" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB40" s="66">
-        <v>13</v>
-      </c>
-      <c r="AD40" s="69" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE40" s="8">
-        <v>13</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG40" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH40" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI40" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ40" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL40" t="str">
-        <f t="shared" si="0"/>
-        <v>Click</v>
-      </c>
-      <c r="AM40" t="str">
-        <f t="shared" si="1"/>
-        <v>Noise</v>
-      </c>
-      <c r="AN40" t="str">
-        <f t="shared" si="2"/>
-        <v>Tone</v>
-      </c>
-      <c r="AO40" t="str">
-        <f t="shared" si="3"/>
-        <v>Siren</v>
-      </c>
-      <c r="AP40" t="str">
-        <f t="shared" si="4"/>
-        <v>Tone</v>
-      </c>
-      <c r="AQ40" t="str">
-        <f t="shared" si="5"/>
-        <v>Click</v>
-      </c>
-      <c r="AR40" t="str">
-        <f t="shared" si="6"/>
-        <v>Siren</v>
-      </c>
-      <c r="AS40" t="str">
-        <f t="shared" si="7"/>
-        <v>Noise</v>
-      </c>
-    </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="37">
-        <v>69260</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="37">
-        <v>17</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="G41" s="37">
-        <v>18</v>
-      </c>
-      <c r="H41" s="37">
-        <v>218700</v>
-      </c>
-      <c r="I41" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="J41" s="37">
+      <c r="BY41" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="BZ41" s="78">
+        <f t="shared" si="27"/>
+        <v>44</v>
+      </c>
+      <c r="CA41" s="78"/>
+      <c r="CB41" s="78">
+        <f t="shared" si="22"/>
         <v>38</v>
       </c>
-      <c r="M41" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="N41" s="49">
-        <v>4</v>
-      </c>
-      <c r="O41" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="P41" s="49">
-        <v>69266</v>
-      </c>
-      <c r="Q41" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="R41" s="56">
-        <v>21</v>
-      </c>
-      <c r="S41" s="49">
-        <v>218725</v>
-      </c>
-      <c r="T41" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="U41" s="65">
+      <c r="CC41" s="78"/>
+      <c r="CD41" s="78">
+        <f t="shared" si="23"/>
         <v>41</v>
       </c>
-      <c r="V41" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="W41" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB41" s="66">
-        <v>14</v>
-      </c>
-      <c r="AD41" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE41" s="8">
-        <v>14</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG41" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH41" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI41" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ41" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL41" t="str">
-        <f t="shared" si="0"/>
-        <v>Siren</v>
-      </c>
-      <c r="AM41" t="str">
-        <f t="shared" si="1"/>
-        <v>Click</v>
-      </c>
-      <c r="AN41" t="str">
-        <f t="shared" si="2"/>
-        <v>Noise</v>
-      </c>
-      <c r="AO41" t="str">
-        <f t="shared" si="3"/>
-        <v>Tone</v>
-      </c>
-      <c r="AP41" t="str">
-        <f t="shared" si="4"/>
-        <v>Noise</v>
-      </c>
-      <c r="AQ41" t="str">
-        <f t="shared" si="5"/>
-        <v>Siren</v>
-      </c>
-      <c r="AR41" t="str">
-        <f t="shared" si="6"/>
-        <v>Tone</v>
-      </c>
-      <c r="AS41" t="str">
-        <f t="shared" si="7"/>
-        <v>Click</v>
-      </c>
-    </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="CE41" s="78"/>
+      <c r="CF41" s="78">
+        <f t="shared" si="24"/>
+        <v>43</v>
+      </c>
+      <c r="CG41" s="79"/>
+    </row>
+    <row r="42" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
         <v>8</v>
       </c>
@@ -10668,7 +12873,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>8</v>
       </c>
@@ -10700,7 +12905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
         <v>8</v>
       </c>
@@ -10732,7 +12937,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
         <v>8</v>
       </c>
@@ -10764,7 +12969,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A46" s="37" t="s">
         <v>8</v>
       </c>
@@ -10795,50 +13000,8 @@
       <c r="J46" s="37">
         <v>43</v>
       </c>
-      <c r="M46" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O46" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="P46" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="R46" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="S46" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="T46" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="U46" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="V46" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="W46" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="X46" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y46" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A47" s="37" t="s">
         <v>8</v>
       </c>
@@ -10869,553 +13032,599 @@
       <c r="J47" s="37">
         <v>44</v>
       </c>
-      <c r="M47" t="s">
+    </row>
+    <row r="59" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M59" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P59" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R59" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="S59" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="T59" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U59" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="V59" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="W59" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X59" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y59" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M60" t="s">
         <v>123</v>
       </c>
-      <c r="N47">
+      <c r="N60">
         <v>5</v>
       </c>
-      <c r="O47" s="2" t="s">
+      <c r="O60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P47" s="2">
+      <c r="P60" s="2">
         <v>69281</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="Q60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="51">
+      <c r="R60" s="51">
         <v>7</v>
       </c>
-      <c r="S47" s="2">
+      <c r="S60" s="2">
         <v>218698</v>
       </c>
-      <c r="T47" s="2" t="s">
+      <c r="T60" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="U47" s="60">
+      <c r="U60" s="60">
         <v>17</v>
       </c>
-      <c r="V47" s="66" t="s">
+      <c r="V60" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="W47" t="s">
+      <c r="W60" t="s">
         <v>117</v>
       </c>
-      <c r="X47" t="s">
+      <c r="X60" t="s">
         <v>117</v>
       </c>
-      <c r="Y47" t="str">
-        <f>IF(Z47=16, "A", "B")</f>
+      <c r="Y60" t="str">
+        <f>IF(Z60=16, "A", "B")</f>
         <v>A</v>
       </c>
-      <c r="Z47">
+      <c r="Z60">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="M48" t="s">
+    <row r="61" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M61" t="s">
         <v>123</v>
       </c>
-      <c r="N48">
+      <c r="N61">
         <v>5</v>
       </c>
-      <c r="O48" s="4" t="s">
+      <c r="O61" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P48" s="4">
+      <c r="P61" s="4">
         <v>69335</v>
       </c>
-      <c r="Q48" s="4" t="s">
+      <c r="Q61" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="52">
+      <c r="R61" s="52">
         <v>7</v>
       </c>
-      <c r="S48" s="4">
+      <c r="S61" s="4">
         <v>218698</v>
       </c>
-      <c r="T48" s="4" t="s">
+      <c r="T61" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="U48" s="61">
+      <c r="U61" s="61">
         <v>18</v>
       </c>
-      <c r="V48" s="66" t="s">
+      <c r="V61" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="W48" t="s">
+      <c r="W61" t="s">
         <v>118</v>
       </c>
-      <c r="X48" t="s">
+      <c r="X61" t="s">
         <v>117</v>
       </c>
-      <c r="Y48" t="str">
-        <f t="shared" ref="Y48:Y58" si="8">IF(Z48=16, "A", "B")</f>
+      <c r="Y61" t="str">
+        <f>IF(Z61=16, "A", "B")</f>
         <v>B</v>
       </c>
-      <c r="Z48">
+      <c r="Z61">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M49" t="s">
+    <row r="62" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M62" t="s">
         <v>123</v>
       </c>
-      <c r="N49">
+      <c r="N62">
         <v>5</v>
       </c>
-      <c r="O49" s="21" t="s">
+      <c r="O62" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P49" s="21">
+      <c r="P62" s="21">
         <v>69336</v>
       </c>
-      <c r="Q49" s="21" t="s">
+      <c r="Q62" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="R49" s="53">
+      <c r="R62" s="53">
         <v>7</v>
       </c>
-      <c r="S49" s="21">
+      <c r="S62" s="21">
         <v>218698</v>
       </c>
-      <c r="T49" s="21" t="s">
+      <c r="T62" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="U49" s="62">
+      <c r="U62" s="62">
         <v>19</v>
       </c>
-      <c r="V49" s="66" t="s">
+      <c r="V62" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="W49" t="s">
+      <c r="W62" t="s">
         <v>117</v>
       </c>
-      <c r="X49" t="s">
+      <c r="X62" t="s">
         <v>118</v>
       </c>
-      <c r="Y49" t="str">
-        <f t="shared" si="8"/>
+      <c r="Y62" t="str">
+        <f>IF(Z62=16, "A", "B")</f>
         <v>A</v>
       </c>
-      <c r="Z49">
+      <c r="Z62">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M50" t="s">
+    <row r="63" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M63" t="s">
         <v>123</v>
       </c>
-      <c r="N50">
+      <c r="N63">
         <v>5</v>
       </c>
-      <c r="O50" s="2" t="s">
+      <c r="O63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P50" s="2">
+      <c r="P63" s="2">
         <v>69291</v>
       </c>
-      <c r="Q50" s="2" t="s">
+      <c r="Q63" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R50" s="51">
+      <c r="R63" s="51">
         <v>8</v>
       </c>
-      <c r="S50" s="2">
+      <c r="S63" s="2">
         <v>218705</v>
       </c>
-      <c r="T50" s="2" t="s">
+      <c r="T63" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="U50" s="60">
+      <c r="U63" s="60">
         <v>20</v>
       </c>
-      <c r="V50" s="66" t="s">
+      <c r="V63" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="W50" t="s">
+      <c r="W63" t="s">
         <v>118</v>
       </c>
-      <c r="X50" t="s">
+      <c r="X63" t="s">
         <v>118</v>
       </c>
-      <c r="Y50" t="str">
-        <f t="shared" si="8"/>
+      <c r="Y63" t="str">
+        <f>IF(Z63=16, "A", "B")</f>
         <v>B</v>
       </c>
-      <c r="Z50">
+      <c r="Z63">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M51" t="s">
+    <row r="64" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M64" t="s">
         <v>123</v>
       </c>
-      <c r="N51">
+      <c r="N64">
         <v>5</v>
       </c>
-      <c r="O51" s="4" t="s">
+      <c r="O64" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P51" s="4">
+      <c r="P64" s="4">
         <v>69327</v>
       </c>
-      <c r="Q51" s="4" t="s">
+      <c r="Q64" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R51" s="52">
+      <c r="R64" s="52">
         <v>8</v>
       </c>
-      <c r="S51" s="4">
+      <c r="S64" s="4">
         <v>218705</v>
       </c>
-      <c r="T51" s="4" t="s">
+      <c r="T64" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="U51" s="61">
+      <c r="U64" s="61">
         <v>21</v>
       </c>
-      <c r="V51" s="66" t="s">
+      <c r="V64" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="W51" t="s">
+      <c r="W64" t="s">
         <v>117</v>
       </c>
-      <c r="X51" t="s">
+      <c r="X64" t="s">
         <v>118</v>
       </c>
-      <c r="Y51" t="str">
-        <f t="shared" si="8"/>
+      <c r="Y64" t="str">
+        <f>IF(Z64=16, "A", "B")</f>
         <v>A</v>
       </c>
-      <c r="Z51">
+      <c r="Z64">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M52" t="s">
+    <row r="65" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M65" t="s">
         <v>123</v>
       </c>
-      <c r="N52">
+      <c r="N65">
         <v>5</v>
       </c>
-      <c r="O52" s="4" t="s">
+      <c r="O65" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P52" s="4">
+      <c r="P65" s="4">
         <v>69348</v>
       </c>
-      <c r="Q52" s="4" t="s">
+      <c r="Q65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R52" s="52">
+      <c r="R65" s="52">
         <v>8</v>
       </c>
-      <c r="S52" s="4">
+      <c r="S65" s="4">
         <v>218705</v>
       </c>
-      <c r="T52" s="4" t="s">
+      <c r="T65" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="U52" s="61">
+      <c r="U65" s="61">
         <v>22</v>
       </c>
-      <c r="V52" s="66" t="s">
+      <c r="V65" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="W52" t="s">
+      <c r="W65" t="s">
         <v>118</v>
       </c>
-      <c r="X52" t="s">
+      <c r="X65" t="s">
         <v>118</v>
       </c>
-      <c r="Y52" t="str">
-        <f t="shared" si="8"/>
+      <c r="Y65" t="str">
+        <f>IF(Z65=16, "A", "B")</f>
         <v>B</v>
       </c>
-      <c r="Z52">
+      <c r="Z65">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M53" s="37" t="s">
+    <row r="66" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M66" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="N53" s="37">
+      <c r="N66" s="37">
         <v>5</v>
       </c>
-      <c r="O53" s="37" t="s">
+      <c r="O66" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="P53" s="37">
+      <c r="P66" s="37">
         <v>69285</v>
       </c>
-      <c r="Q53" s="37" t="s">
+      <c r="Q66" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="R53" s="58">
+      <c r="R66" s="58">
         <v>22</v>
       </c>
-      <c r="S53" s="37">
+      <c r="S66" s="37">
         <v>218731</v>
       </c>
-      <c r="T53" s="37" t="s">
+      <c r="T66" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="U53" s="67">
+      <c r="U66" s="67">
         <v>42</v>
       </c>
-      <c r="V53" s="67" t="s">
+      <c r="V66" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="W53" s="37" t="s">
+      <c r="W66" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="X53" s="37" t="s">
+      <c r="X66" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="Y53" t="str">
-        <f t="shared" si="8"/>
+      <c r="Y66" t="str">
+        <f>IF(Z66=16, "A", "B")</f>
         <v>A</v>
       </c>
-      <c r="Z53">
+      <c r="Z66">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M54" s="37" t="s">
+    <row r="67" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M67" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="N54" s="37">
+      <c r="N67" s="37">
         <v>5</v>
       </c>
-      <c r="O54" s="37" t="s">
+      <c r="O67" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="P54" s="37">
+      <c r="P67" s="37">
         <v>69287</v>
       </c>
-      <c r="Q54" s="37" t="s">
+      <c r="Q67" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="R54" s="58">
+      <c r="R67" s="58">
         <v>23</v>
       </c>
-      <c r="S54" s="37">
+      <c r="S67" s="37">
         <v>218729</v>
       </c>
-      <c r="T54" s="37" t="s">
+      <c r="T67" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="U54" s="67">
+      <c r="U67" s="67">
         <v>43</v>
       </c>
-      <c r="V54" s="67" t="s">
+      <c r="V67" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="W54" s="37" t="s">
+      <c r="W67" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="X54" s="37" t="s">
+      <c r="X67" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="Y54" t="str">
-        <f t="shared" si="8"/>
+      <c r="Y67" t="str">
+        <f>IF(Z67=16, "A", "B")</f>
         <v>B</v>
       </c>
-      <c r="Z54">
+      <c r="Z67">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M55" s="37" t="s">
+    <row r="68" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M68" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="N55" s="37">
+      <c r="N68" s="37">
         <v>5</v>
       </c>
-      <c r="O55" s="37" t="s">
+      <c r="O68" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="P55" s="37">
+      <c r="P68" s="37">
         <v>69298</v>
       </c>
-      <c r="Q55" s="37" t="s">
+      <c r="Q68" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="R55" s="58">
+      <c r="R68" s="58">
         <v>24</v>
       </c>
-      <c r="S55" s="37">
+      <c r="S68" s="37">
         <v>218726</v>
       </c>
-      <c r="T55" s="37" t="s">
+      <c r="T68" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="U55" s="67">
+      <c r="U68" s="67">
         <v>44</v>
       </c>
-      <c r="V55" s="67" t="s">
+      <c r="V68" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="W55" s="37" t="s">
+      <c r="W68" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="X55" s="37" t="s">
+      <c r="X68" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="Y55" t="str">
-        <f t="shared" si="8"/>
+      <c r="Y68" t="str">
+        <f>IF(Z68=16, "A", "B")</f>
         <v>A</v>
       </c>
-      <c r="Z55">
+      <c r="Z68">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M56" s="49" t="s">
+    <row r="69" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M69" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="N56" s="49">
+      <c r="N69" s="49">
         <v>6</v>
       </c>
-      <c r="O56" s="49" t="s">
+      <c r="O69" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="P56" s="49">
+      <c r="P69" s="49">
         <v>69267</v>
       </c>
-      <c r="Q56" s="49" t="s">
+      <c r="Q69" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="R56" s="56">
+      <c r="R69" s="56">
         <v>9</v>
       </c>
-      <c r="S56" s="49">
+      <c r="S69" s="49">
         <v>218720</v>
       </c>
-      <c r="T56" s="49" t="s">
+      <c r="T69" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="U56" s="65">
+      <c r="U69" s="65">
         <v>23</v>
       </c>
-      <c r="V56" s="65" t="s">
+      <c r="V69" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="W56" s="49" t="s">
+      <c r="W69" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="X56" s="49" t="s">
+      <c r="X69" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="Y56" t="str">
-        <f t="shared" si="8"/>
+      <c r="Y69" t="str">
+        <f>IF(Z69=16, "A", "B")</f>
         <v>A</v>
       </c>
-      <c r="Z56">
+      <c r="Z69">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M57" s="49" t="s">
+    <row r="70" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M70" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="N57" s="49">
+      <c r="N70" s="49">
         <v>6</v>
       </c>
-      <c r="O57" s="49" t="s">
+      <c r="O70" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="P57" s="49">
+      <c r="P70" s="49">
         <v>69269</v>
       </c>
-      <c r="Q57" s="49" t="s">
+      <c r="Q70" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="R57" s="56">
+      <c r="R70" s="56">
         <v>9</v>
       </c>
-      <c r="S57" s="49">
+      <c r="S70" s="49">
         <v>218720</v>
       </c>
-      <c r="T57" s="49" t="s">
+      <c r="T70" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="U57" s="65">
+      <c r="U70" s="65">
         <v>24</v>
       </c>
-      <c r="V57" s="65" t="s">
+      <c r="V70" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="W57" s="49" t="s">
+      <c r="W70" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="X57" s="49" t="s">
+      <c r="X70" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="Y57" t="str">
-        <f t="shared" si="8"/>
+      <c r="Y70" t="str">
+        <f>IF(Z70=16, "A", "B")</f>
         <v>B</v>
       </c>
-      <c r="Z57">
+      <c r="Z70">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M58" s="49" t="s">
+    <row r="71" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M71" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="N58" s="49">
+      <c r="N71" s="49">
         <v>6</v>
       </c>
-      <c r="O58" s="49" t="s">
+      <c r="O71" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="P58" s="49">
+      <c r="P71" s="49">
         <v>69389</v>
       </c>
-      <c r="Q58" s="49" t="s">
+      <c r="Q71" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="R58" s="56">
+      <c r="R71" s="56">
         <v>10</v>
       </c>
-      <c r="S58" s="49">
+      <c r="S71" s="49">
         <v>218739</v>
       </c>
-      <c r="T58" s="49" t="s">
+      <c r="T71" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="U58" s="65">
+      <c r="U71" s="65">
         <v>25</v>
       </c>
-      <c r="V58" s="65" t="s">
+      <c r="V71" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="W58" s="49" t="s">
+      <c r="W71" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="X58" s="49" t="s">
+      <c r="X71" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="Y58" t="str">
-        <f t="shared" si="8"/>
+      <c r="Y71" t="str">
+        <f>IF(Z71=16, "A", "B")</f>
         <v>B</v>
       </c>
-      <c r="Z58">
+      <c r="Z71">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O47:X58">
-    <sortCondition ref="V47:V58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O60:X71">
+    <sortCondition ref="V60:V71"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="41" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="13" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11427,9 +13636,9 @@
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -11461,7 +13670,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -11519,7 +13728,7 @@
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -11577,7 +13786,7 @@
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
@@ -11635,7 +13844,7 @@
       <c r="AI4" s="21"/>
       <c r="AJ4" s="21"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -11693,7 +13902,7 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -11751,7 +13960,7 @@
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>5</v>
       </c>
@@ -11809,7 +14018,7 @@
       <c r="AI7" s="21"/>
       <c r="AJ7" s="21"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -11867,7 +14076,7 @@
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>5</v>
       </c>
@@ -11925,7 +14134,7 @@
       <c r="AI9" s="21"/>
       <c r="AJ9" s="21"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -11983,7 +14192,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -12041,7 +14250,7 @@
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>5</v>
       </c>
@@ -12099,7 +14308,7 @@
       <c r="AI12" s="21"/>
       <c r="AJ12" s="21"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -12157,7 +14366,7 @@
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -12215,7 +14424,7 @@
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>5</v>
       </c>
@@ -12273,7 +14482,7 @@
       <c r="AI15" s="21"/>
       <c r="AJ15" s="21"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -12331,7 +14540,7 @@
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>5</v>
       </c>
@@ -12389,7 +14598,7 @@
       <c r="AI17" s="21"/>
       <c r="AJ17" s="21"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -12447,7 +14656,7 @@
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
@@ -12505,7 +14714,7 @@
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>5</v>
       </c>
@@ -12563,7 +14772,7 @@
       <c r="AI20" s="21"/>
       <c r="AJ20" s="21"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -12621,7 +14830,7 @@
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
@@ -12679,7 +14888,7 @@
       <c r="AI22" s="4"/>
       <c r="AJ22" s="4"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>5</v>
       </c>
@@ -12737,7 +14946,7 @@
       <c r="AI23" s="21"/>
       <c r="AJ23" s="21"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -12769,7 +14978,7 @@
         <v>290.40000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -12801,7 +15010,7 @@
         <v>311.60000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>5</v>
       </c>
@@ -12859,7 +15068,7 @@
       <c r="AI26" s="37"/>
       <c r="AJ26" s="37"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -12917,7 +15126,7 @@
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>8</v>
       </c>
@@ -12975,7 +15184,7 @@
       <c r="AI28" s="21"/>
       <c r="AJ28" s="21"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -13033,7 +15242,7 @@
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>8</v>
       </c>
@@ -13091,7 +15300,7 @@
       <c r="AI30" s="21"/>
       <c r="AJ30" s="21"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -13149,7 +15358,7 @@
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>8</v>
       </c>
@@ -13207,7 +15416,7 @@
       <c r="AI32" s="21"/>
       <c r="AJ32" s="21"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" s="37" t="s">
         <v>8</v>
       </c>
@@ -13265,7 +15474,7 @@
       <c r="AI33" s="37"/>
       <c r="AJ33" s="37"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
         <v>8</v>
       </c>
@@ -13323,7 +15532,7 @@
       <c r="AI34" s="37"/>
       <c r="AJ34" s="37"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>8</v>
       </c>
@@ -13381,7 +15590,7 @@
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>8</v>
       </c>
@@ -13439,7 +15648,7 @@
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
         <v>8</v>
       </c>
@@ -13497,7 +15706,7 @@
       <c r="AI37" s="21"/>
       <c r="AJ37" s="21"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
         <v>8</v>
       </c>
@@ -13555,7 +15764,7 @@
       <c r="AI38" s="37"/>
       <c r="AJ38" s="37"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
         <v>8</v>
       </c>
@@ -13613,7 +15822,7 @@
       <c r="AI39" s="37"/>
       <c r="AJ39" s="37"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40" s="37" t="s">
         <v>8</v>
       </c>
@@ -13671,7 +15880,7 @@
       <c r="AI40" s="37"/>
       <c r="AJ40" s="37"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
         <v>8</v>
       </c>
@@ -13729,7 +15938,7 @@
       <c r="AI41" s="37"/>
       <c r="AJ41" s="37"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
         <v>8</v>
       </c>
@@ -13787,7 +15996,7 @@
       <c r="AI42" s="37"/>
       <c r="AJ42" s="37"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>8</v>
       </c>
@@ -13845,7 +16054,7 @@
       <c r="AI43" s="37"/>
       <c r="AJ43" s="37"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
         <v>8</v>
       </c>
@@ -13903,7 +16112,7 @@
       <c r="AI44" s="37"/>
       <c r="AJ44" s="37"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
         <v>8</v>
       </c>
@@ -13977,32 +16186,32 @@
       <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="3.5703125" customWidth="1"/>
-    <col min="11" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.42578125" customWidth="1"/>
-    <col min="23" max="23" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.5546875" customWidth="1"/>
+    <col min="11" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.44140625" customWidth="1"/>
+    <col min="23" max="23" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.88671875" customWidth="1"/>
     <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5703125" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5546875" customWidth="1"/>
+    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>94</v>
       </c>
@@ -14010,7 +16219,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="K2" t="s">
         <v>11</v>
       </c>
@@ -14027,7 +16236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -14120,7 +16329,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -14217,7 +16426,7 @@
         <v>227.60000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -14314,7 +16523,7 @@
         <v>229.20000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
@@ -14411,7 +16620,7 @@
         <v>230.8</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -14508,7 +16717,7 @@
         <v>266.40000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -14605,7 +16814,7 @@
         <v>249.60000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>5</v>
       </c>
@@ -14702,7 +16911,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -14799,7 +17008,7 @@
         <v>226.4</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>5</v>
       </c>
@@ -14896,7 +17105,7 @@
         <v>237.20000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -14993,7 +17202,7 @@
         <v>215.20000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -15090,7 +17299,7 @@
         <v>207.60000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
@@ -15187,7 +17396,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -15284,7 +17493,7 @@
         <v>295.60000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -15381,7 +17590,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>5</v>
       </c>
@@ -15478,7 +17687,7 @@
         <v>208.4</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -15575,7 +17784,7 @@
         <v>193.60000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>5</v>
       </c>
@@ -15672,7 +17881,7 @@
         <v>245.60000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -15769,7 +17978,7 @@
         <v>243.20000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -15866,7 +18075,7 @@
         <v>243.20000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>5</v>
       </c>
@@ -15963,7 +18172,7 @@
         <v>319.60000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -16060,7 +18269,7 @@
         <v>262.40000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -16157,7 +18366,7 @@
         <v>220.8</v>
       </c>
     </row>
-    <row r="25" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>5</v>
       </c>
@@ -16254,7 +18463,7 @@
         <v>262.40000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -16351,7 +18560,7 @@
         <v>290.40000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -16448,7 +18657,7 @@
         <v>311.60000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>5</v>
       </c>
@@ -16542,7 +18751,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -16639,7 +18848,7 @@
         <v>401.20000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>8</v>
       </c>
@@ -16736,7 +18945,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="31" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -16833,7 +19042,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>8</v>
       </c>
@@ -16930,7 +19139,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="33" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -17027,7 +19236,7 @@
         <v>436.40000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
         <v>8</v>
       </c>
@@ -17124,7 +19333,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
         <v>8</v>
       </c>
@@ -17218,7 +19427,7 @@
         <v>421.6</v>
       </c>
     </row>
-    <row r="36" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
         <v>8</v>
       </c>
@@ -17312,7 +19521,7 @@
         <v>454.8</v>
       </c>
     </row>
-    <row r="37" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
@@ -17409,7 +19618,7 @@
         <v>422.8</v>
       </c>
     </row>
-    <row r="38" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
@@ -17506,7 +19715,7 @@
         <v>442.40000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
         <v>8</v>
       </c>
@@ -17603,7 +19812,7 @@
         <v>396.40000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="37" t="s">
         <v>8</v>
       </c>
@@ -17700,7 +19909,7 @@
         <v>596.80000000000007</v>
       </c>
     </row>
-    <row r="41" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
         <v>8</v>
       </c>
@@ -17797,7 +20006,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="42" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
         <v>8</v>
       </c>
@@ -17894,7 +20103,7 @@
         <v>532.80000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>8</v>
       </c>
@@ -17988,7 +20197,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="44" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
         <v>8</v>
       </c>
@@ -18082,7 +20291,7 @@
         <v>483.20000000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
         <v>8</v>
       </c>
@@ -18176,7 +20385,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="46" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="37" t="s">
         <v>8</v>
       </c>
@@ -18270,7 +20479,7 @@
         <v>464.8</v>
       </c>
     </row>
-    <row r="47" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="37" t="s">
         <v>8</v>
       </c>
@@ -18364,7 +20573,7 @@
         <v>431.6</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -18393,19 +20602,19 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="110.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="85.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="110.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1"/>
+    <col min="8" max="8" width="44.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>28</v>
       </c>
@@ -18416,7 +20625,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -18452,7 +20661,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -18466,7 +20675,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -18480,7 +20689,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -18503,7 +20712,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -18526,7 +20735,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -18549,7 +20758,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -18566,7 +20775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -18586,7 +20795,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -18606,7 +20815,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -18626,7 +20835,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -18646,7 +20855,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -18666,7 +20875,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -18683,7 +20892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -18700,7 +20909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -18717,7 +20926,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -18743,7 +20952,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -18769,7 +20978,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -18795,7 +21004,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -18821,7 +21030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>14</v>
       </c>
@@ -18847,7 +21056,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -18873,7 +21082,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
@@ -18899,7 +21108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -18925,7 +21134,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -18951,7 +21160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -18974,7 +21183,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>13</v>
       </c>
@@ -18982,7 +21191,7 @@
         <v>44189</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
         <v>14</v>
       </c>
@@ -18990,7 +21199,7 @@
         <v>44190</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>15</v>
       </c>
@@ -19016,7 +21225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>16</v>
       </c>
@@ -19045,7 +21254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -19074,7 +21283,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -19100,7 +21309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
@@ -19120,7 +21329,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="44" t="s">
         <v>13</v>
       </c>
@@ -19128,7 +21337,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>14</v>
       </c>
@@ -19136,7 +21345,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -19162,7 +21371,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>16</v>
       </c>
@@ -19185,7 +21394,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
@@ -19214,7 +21423,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
@@ -19225,7 +21434,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
@@ -19233,7 +21442,7 @@
         <v>44202</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
@@ -19241,7 +21450,7 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>14</v>
       </c>
@@ -19249,7 +21458,7 @@
         <v>44204</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>15</v>
       </c>
@@ -19257,7 +21466,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>16</v>
       </c>
@@ -19265,7 +21474,7 @@
         <v>44206</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -19273,7 +21482,7 @@
         <v>44207</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
@@ -19281,7 +21490,7 @@
         <v>44208</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -19289,7 +21498,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>13</v>
       </c>
@@ -19297,7 +21506,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>14</v>
       </c>
@@ -19305,7 +21514,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>15</v>
       </c>
@@ -19313,7 +21522,7 @@
         <v>44212</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>16</v>
       </c>
@@ -19321,7 +21530,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>10</v>
       </c>
@@ -19329,7 +21538,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -19337,7 +21546,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>12</v>
       </c>
@@ -19345,7 +21554,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>13</v>
       </c>
@@ -19353,7 +21562,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>14</v>
       </c>
@@ -19361,7 +21570,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>15</v>
       </c>
@@ -19369,7 +21578,7 @@
         <v>44219</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>16</v>
       </c>
@@ -19377,7 +21586,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>10</v>
       </c>
@@ -19385,7 +21594,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>11</v>
       </c>
@@ -19393,7 +21602,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>12</v>
       </c>
@@ -19401,7 +21610,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>13</v>
       </c>
@@ -19409,7 +21618,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>14</v>
       </c>
@@ -19417,7 +21626,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>15</v>
       </c>
@@ -19425,7 +21634,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>16</v>
       </c>
@@ -19433,7 +21642,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
@@ -19441,7 +21650,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>11</v>
       </c>
@@ -19449,7 +21658,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>12</v>
       </c>
@@ -19457,7 +21666,7 @@
         <v>44230</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>13</v>
       </c>
@@ -19465,7 +21674,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>14</v>
       </c>
@@ -19473,7 +21682,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>15</v>
       </c>
@@ -19481,7 +21690,7 @@
         <v>44233</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>16</v>
       </c>
@@ -19489,7 +21698,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
@@ -19497,7 +21706,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>11</v>
       </c>
@@ -19505,7 +21714,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>12</v>
       </c>
@@ -19513,7 +21722,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>13</v>
       </c>
@@ -19521,7 +21730,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>14</v>
       </c>
@@ -19529,7 +21738,7 @@
         <v>44239</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>15</v>
       </c>
@@ -19537,7 +21746,7 @@
         <v>44240</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>16</v>
       </c>
@@ -19545,7 +21754,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>10</v>
       </c>
@@ -19553,7 +21762,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>11</v>
       </c>
@@ -19561,7 +21770,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>12</v>
       </c>
@@ -19569,7 +21778,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>13</v>
       </c>
@@ -19577,7 +21786,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>14</v>
       </c>
@@ -19585,7 +21794,7 @@
         <v>44246</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>15</v>
       </c>
@@ -19593,7 +21802,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>16</v>
       </c>
@@ -19601,7 +21810,7 @@
         <v>44248</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>10</v>
       </c>
@@ -19609,7 +21818,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>11</v>
       </c>
@@ -19617,7 +21826,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>12</v>
       </c>
@@ -19625,7 +21834,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>13</v>
       </c>
@@ -19633,7 +21842,7 @@
         <v>44252</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>14</v>
       </c>
@@ -19641,7 +21850,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>15</v>
       </c>
@@ -19649,7 +21858,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>16</v>
       </c>
@@ -19657,7 +21866,7 @@
         <v>44255</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>10</v>
       </c>
@@ -19665,7 +21874,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>11</v>
       </c>
@@ -19673,7 +21882,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>12</v>
       </c>
@@ -19681,7 +21890,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>13</v>
       </c>
@@ -19689,7 +21898,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>14</v>
       </c>
@@ -19697,7 +21906,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>15</v>
       </c>
@@ -19705,7 +21914,7 @@
         <v>44261</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>16</v>
       </c>
@@ -19713,7 +21922,7 @@
         <v>44262</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>10</v>
       </c>
@@ -19721,7 +21930,7 @@
         <v>44263</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>11</v>
       </c>
@@ -19729,7 +21938,7 @@
         <v>44264</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>12</v>
       </c>
@@ -19737,7 +21946,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>13</v>
       </c>
@@ -19745,7 +21954,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>14</v>
       </c>
@@ -19753,7 +21962,7 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>15</v>
       </c>
@@ -19761,7 +21970,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>16</v>
       </c>
@@ -19769,7 +21978,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>10</v>
       </c>
@@ -19777,7 +21986,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>11</v>
       </c>
@@ -19785,7 +21994,7 @@
         <v>44271</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>12</v>
       </c>
@@ -19793,7 +22002,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>13</v>
       </c>
@@ -19801,7 +22010,7 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>14</v>
       </c>
@@ -19809,7 +22018,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>15</v>
       </c>
@@ -19817,7 +22026,7 @@
         <v>44275</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>16</v>
       </c>
@@ -19825,7 +22034,7 @@
         <v>44276</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>10</v>
       </c>
@@ -19833,7 +22042,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>11</v>
       </c>
@@ -19841,7 +22050,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>12</v>
       </c>
@@ -19849,7 +22058,7 @@
         <v>44279</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>13</v>
       </c>
@@ -19857,7 +22066,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>14</v>
       </c>
@@ -19865,7 +22074,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>15</v>
       </c>
@@ -19873,7 +22082,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>16</v>
       </c>
@@ -19881,7 +22090,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>10</v>
       </c>
@@ -19889,7 +22098,7 @@
         <v>44284</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>11</v>
       </c>
@@ -19897,7 +22106,7 @@
         <v>44285</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>12</v>
       </c>
@@ -19905,7 +22114,7 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>13</v>
       </c>
@@ -19913,7 +22122,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>14</v>
       </c>
@@ -19921,7 +22130,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>15</v>
       </c>
@@ -19929,7 +22138,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>16</v>
       </c>
@@ -19937,7 +22146,7 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>10</v>
       </c>
@@ -19945,7 +22154,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>11</v>
       </c>
@@ -19953,7 +22162,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>12</v>
       </c>
@@ -19961,7 +22170,7 @@
         <v>44293</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>13</v>
       </c>
@@ -19969,7 +22178,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>14</v>
       </c>
@@ -19977,7 +22186,7 @@
         <v>44295</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>15</v>
       </c>
@@ -19985,7 +22194,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>16</v>
       </c>
@@ -19993,7 +22202,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>10</v>
       </c>
@@ -20001,7 +22210,7 @@
         <v>44298</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>11</v>
       </c>
@@ -20009,7 +22218,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>12</v>
       </c>
@@ -20017,7 +22226,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>13</v>
       </c>
@@ -20025,7 +22234,7 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>14</v>
       </c>
@@ -20033,7 +22242,7 @@
         <v>44302</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>15</v>
       </c>
@@ -20041,7 +22250,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>16</v>
       </c>
@@ -20049,7 +22258,7 @@
         <v>44304</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>10</v>
       </c>
@@ -20057,7 +22266,7 @@
         <v>44305</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>11</v>
       </c>
@@ -20065,7 +22274,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>12</v>
       </c>
@@ -20073,7 +22282,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>13</v>
       </c>
@@ -20081,7 +22290,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>14</v>
       </c>
@@ -20089,7 +22298,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>15</v>
       </c>
@@ -20097,7 +22306,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
         <v>16</v>
       </c>
@@ -20105,7 +22314,7 @@
         <v>44311</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>10</v>
       </c>
@@ -20113,7 +22322,7 @@
         <v>44312</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>11</v>
       </c>
@@ -20121,7 +22330,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>12</v>
       </c>
@@ -20129,7 +22338,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>13</v>
       </c>
@@ -20137,7 +22346,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>14</v>
       </c>
@@ -20145,7 +22354,7 @@
         <v>44316</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>15</v>
       </c>
@@ -20153,7 +22362,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
         <v>16</v>
       </c>
@@ -20161,7 +22370,7 @@
         <v>44318</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>10</v>
       </c>
@@ -20169,7 +22378,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>11</v>
       </c>
@@ -20177,7 +22386,7 @@
         <v>44320</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>12</v>
       </c>
@@ -20185,7 +22394,7 @@
         <v>44321</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>13</v>
       </c>
@@ -20193,7 +22402,7 @@
         <v>44322</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>14</v>
       </c>
@@ -20201,7 +22410,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>15</v>
       </c>
@@ -20209,7 +22418,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="6" t="s">
         <v>16</v>
       </c>
@@ -20217,11 +22426,11 @@
         <v>44325</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="3"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
     </row>
@@ -20241,7 +22450,7 @@
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20257,7 +22466,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20272,7 +22481,7 @@
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/NIDA_Expts/Experiments/SubjectList_ExperimentalProtocol.xlsx
+++ b/NIDA_Expts/Experiments/SubjectList_ExperimentalProtocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panayimc\Documents\GitHub\Marios-temp\NIDA_Expts\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E6816C-4D1D-4937-8BCE-8DDEFF70F955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78D45AE-3763-4FFA-95B9-11C009615E49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{541D3559-B055-4FE0-B959-0E0FD0A7F009}"/>
+    <workbookView xWindow="4140" yWindow="2568" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{541D3559-B055-4FE0-B959-0E0FD0A7F009}"/>
   </bookViews>
   <sheets>
     <sheet name="AnimalWeights" sheetId="10" r:id="rId1"/>
@@ -7001,7 +7001,7 @@
   </sheetPr>
   <dimension ref="A2:CG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="CA47" sqref="CA47"/>
     </sheetView>
   </sheetViews>
@@ -13115,7 +13115,7 @@
         <v>117</v>
       </c>
       <c r="Y60" t="str">
-        <f>IF(Z60=16, "A", "B")</f>
+        <f t="shared" ref="Y60:Y71" si="46">IF(Z60=16, "A", "B")</f>
         <v>A</v>
       </c>
       <c r="Z60">
@@ -13160,7 +13160,7 @@
         <v>117</v>
       </c>
       <c r="Y61" t="str">
-        <f>IF(Z61=16, "A", "B")</f>
+        <f t="shared" si="46"/>
         <v>B</v>
       </c>
       <c r="Z61">
@@ -13205,7 +13205,7 @@
         <v>118</v>
       </c>
       <c r="Y62" t="str">
-        <f>IF(Z62=16, "A", "B")</f>
+        <f t="shared" si="46"/>
         <v>A</v>
       </c>
       <c r="Z62">
@@ -13250,7 +13250,7 @@
         <v>118</v>
       </c>
       <c r="Y63" t="str">
-        <f>IF(Z63=16, "A", "B")</f>
+        <f t="shared" si="46"/>
         <v>B</v>
       </c>
       <c r="Z63">
@@ -13295,7 +13295,7 @@
         <v>118</v>
       </c>
       <c r="Y64" t="str">
-        <f>IF(Z64=16, "A", "B")</f>
+        <f t="shared" si="46"/>
         <v>A</v>
       </c>
       <c r="Z64">
@@ -13340,7 +13340,7 @@
         <v>118</v>
       </c>
       <c r="Y65" t="str">
-        <f>IF(Z65=16, "A", "B")</f>
+        <f t="shared" si="46"/>
         <v>B</v>
       </c>
       <c r="Z65">
@@ -13385,7 +13385,7 @@
         <v>117</v>
       </c>
       <c r="Y66" t="str">
-        <f>IF(Z66=16, "A", "B")</f>
+        <f t="shared" si="46"/>
         <v>A</v>
       </c>
       <c r="Z66">
@@ -13430,7 +13430,7 @@
         <v>118</v>
       </c>
       <c r="Y67" t="str">
-        <f>IF(Z67=16, "A", "B")</f>
+        <f t="shared" si="46"/>
         <v>B</v>
       </c>
       <c r="Z67">
@@ -13475,7 +13475,7 @@
         <v>118</v>
       </c>
       <c r="Y68" t="str">
-        <f>IF(Z68=16, "A", "B")</f>
+        <f t="shared" si="46"/>
         <v>A</v>
       </c>
       <c r="Z68">
@@ -13520,7 +13520,7 @@
         <v>117</v>
       </c>
       <c r="Y69" t="str">
-        <f>IF(Z69=16, "A", "B")</f>
+        <f t="shared" si="46"/>
         <v>A</v>
       </c>
       <c r="Z69">
@@ -13565,7 +13565,7 @@
         <v>117</v>
       </c>
       <c r="Y70" t="str">
-        <f>IF(Z70=16, "A", "B")</f>
+        <f t="shared" si="46"/>
         <v>B</v>
       </c>
       <c r="Z70">
@@ -13610,7 +13610,7 @@
         <v>117</v>
       </c>
       <c r="Y71" t="str">
-        <f>IF(Z71=16, "A", "B")</f>
+        <f t="shared" si="46"/>
         <v>B</v>
       </c>
       <c r="Z71">

--- a/NIDA_Expts/Experiments/SubjectList_ExperimentalProtocol.xlsx
+++ b/NIDA_Expts/Experiments/SubjectList_ExperimentalProtocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panayimc\Documents\GitHub\Marios-temp\NIDA_Expts\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78D45AE-3763-4FFA-95B9-11C009615E49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90858F9-3C6C-4202-843C-F9C65974BAC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="2568" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{541D3559-B055-4FE0-B959-0E0FD0A7F009}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{541D3559-B055-4FE0-B959-0E0FD0A7F009}"/>
   </bookViews>
   <sheets>
     <sheet name="AnimalWeights" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="188">
   <si>
     <t>Rat</t>
   </si>
@@ -586,6 +586,27 @@
   </si>
   <si>
     <t>TestOrder</t>
+  </si>
+  <si>
+    <t>P50_HighVsLow</t>
+  </si>
+  <si>
+    <t>P100_HighVsLow</t>
+  </si>
+  <si>
+    <t>High_100Vs50</t>
+  </si>
+  <si>
+    <t>Low_100Vs50</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS_LeftLeverName </t>
+  </si>
+  <si>
+    <t>CS_RightLeverName</t>
   </si>
 </sst>
 </file>
@@ -6999,10 +7020,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:CG71"/>
+  <dimension ref="A2:CK71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CA47" sqref="CA47"/>
+    <sheetView tabSelected="1" topLeftCell="BS19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CK27" sqref="CK27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7034,6 +7055,10 @@
     <col min="81" max="81" width="11.109375" customWidth="1"/>
     <col min="83" max="83" width="10.6640625" customWidth="1"/>
     <col min="85" max="85" width="11.21875" customWidth="1"/>
+    <col min="86" max="86" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="9.109375" customWidth="1"/>
+    <col min="88" max="88" width="11" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
@@ -8222,7 +8247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>5</v>
       </c>
@@ -8306,7 +8331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -8390,7 +8415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>5</v>
       </c>
@@ -8474,7 +8499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -8520,7 +8545,7 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:89" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -8552,7 +8577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>5</v>
       </c>
@@ -8602,8 +8627,12 @@
       <c r="BU22" s="81"/>
       <c r="BV22" s="81"/>
       <c r="BW22" s="82"/>
-    </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="CH22" s="85"/>
+      <c r="CI22" s="70"/>
+      <c r="CJ22" s="70"/>
+      <c r="CK22" s="70"/>
+    </row>
+    <row r="23" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -8664,7 +8693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -8735,8 +8764,17 @@
       <c r="BY24" s="72" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="25" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="CH24" t="s">
+        <v>185</v>
+      </c>
+      <c r="CI24" t="s">
+        <v>186</v>
+      </c>
+      <c r="CJ24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>5</v>
       </c>
@@ -8953,8 +8991,17 @@
         <v>173</v>
       </c>
       <c r="CG25" s="79"/>
-    </row>
-    <row r="26" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="CH25" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="CI25" t="s">
+        <v>140</v>
+      </c>
+      <c r="CJ25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -9199,8 +9246,17 @@
         <v>45</v>
       </c>
       <c r="CG26" s="79"/>
-    </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="CH26" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="CI26" t="s">
+        <v>140</v>
+      </c>
+      <c r="CJ26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -9445,8 +9501,17 @@
         <v>41</v>
       </c>
       <c r="CG27" s="79"/>
-    </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="CH27" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI27" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>5</v>
       </c>
@@ -9691,8 +9756,17 @@
         <v>44</v>
       </c>
       <c r="CG28" s="79"/>
-    </row>
-    <row r="29" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="CH28" s="85" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI28" t="s">
+        <v>141</v>
+      </c>
+      <c r="CJ28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -9937,8 +10011,17 @@
         <v>42</v>
       </c>
       <c r="CG29" s="79"/>
-    </row>
-    <row r="30" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="CH29" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="CI29" t="s">
+        <v>141</v>
+      </c>
+      <c r="CJ29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>8</v>
       </c>
@@ -10186,8 +10269,17 @@
         <v>47</v>
       </c>
       <c r="CG30" s="79"/>
-    </row>
-    <row r="31" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="CH30" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="CI30" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -10432,8 +10524,17 @@
         <v>45</v>
       </c>
       <c r="CG31" s="79"/>
-    </row>
-    <row r="32" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="CH31" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI31" t="s">
+        <v>143</v>
+      </c>
+      <c r="CJ31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>8</v>
       </c>
@@ -10678,6 +10779,15 @@
         <v>38</v>
       </c>
       <c r="CG32" s="79"/>
+      <c r="CH32" s="85" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>143</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="33" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">

--- a/NIDA_Expts/Experiments/SubjectList_ExperimentalProtocol.xlsx
+++ b/NIDA_Expts/Experiments/SubjectList_ExperimentalProtocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panayimc\Documents\GitHub\Marios-temp\NIDA_Expts\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90858F9-3C6C-4202-843C-F9C65974BAC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6BD597-D7F5-473A-89A0-620EE150FC81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{541D3559-B055-4FE0-B959-0E0FD0A7F009}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="192">
   <si>
     <t>Rat</t>
   </si>
@@ -608,6 +608,18 @@
   <si>
     <t>CS_RightLeverName</t>
   </si>
+  <si>
+    <t>Test Programs First Round Just 30 mins levers out</t>
+  </si>
+  <si>
+    <t>Test Programs Second Round Discrete trial until 1 LP/CS on each lever then 30 mins levers out</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Corresponding New</t>
+  </si>
 </sst>
 </file>
 
@@ -663,7 +675,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,6 +727,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -990,6 +1008,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7022,8 +7045,8 @@
   </sheetPr>
   <dimension ref="A2:CK71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CK27" sqref="CK27"/>
+    <sheetView tabSelected="1" topLeftCell="BK27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BX43" sqref="BX43:CH64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8627,6 +8650,9 @@
       <c r="BU22" s="81"/>
       <c r="BV22" s="81"/>
       <c r="BW22" s="82"/>
+      <c r="BY22" t="s">
+        <v>188</v>
+      </c>
       <c r="CH22" s="85"/>
       <c r="CI22" s="70"/>
       <c r="CJ22" s="70"/>
@@ -10789,7 +10815,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -11035,7 +11061,7 @@
       </c>
       <c r="CG33" s="79"/>
     </row>
-    <row r="34" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
         <v>8</v>
       </c>
@@ -11281,7 +11307,7 @@
       </c>
       <c r="CG34" s="79"/>
     </row>
-    <row r="35" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
         <v>8</v>
       </c>
@@ -11527,7 +11553,7 @@
       </c>
       <c r="CG35" s="79"/>
     </row>
-    <row r="36" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
         <v>8</v>
       </c>
@@ -11773,7 +11799,7 @@
       </c>
       <c r="CG36" s="79"/>
     </row>
-    <row r="37" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
@@ -12019,7 +12045,7 @@
       </c>
       <c r="CG37" s="79"/>
     </row>
-    <row r="38" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
@@ -12252,7 +12278,7 @@
       </c>
       <c r="CG38" s="79"/>
     </row>
-    <row r="39" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
         <v>8</v>
       </c>
@@ -12485,7 +12511,7 @@
       </c>
       <c r="CG39" s="79"/>
     </row>
-    <row r="40" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A40" s="37" t="s">
         <v>8</v>
       </c>
@@ -12718,7 +12744,7 @@
       </c>
       <c r="CG40" s="79"/>
     </row>
-    <row r="41" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="37" t="s">
         <v>8</v>
       </c>
@@ -12951,7 +12977,7 @@
       </c>
       <c r="CG41" s="79"/>
     </row>
-    <row r="42" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
         <v>8</v>
       </c>
@@ -12983,7 +13009,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>8</v>
       </c>
@@ -13014,8 +13040,11 @@
       <c r="J43" s="37">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="BY43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
         <v>8</v>
       </c>
@@ -13046,8 +13075,11 @@
       <c r="J44" s="37">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="BY44" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
         <v>8</v>
       </c>
@@ -13078,8 +13110,17 @@
       <c r="J45" s="37">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="BY45" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="CI45" t="s">
+        <v>190</v>
+      </c>
+      <c r="CJ45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A46" s="37" t="s">
         <v>8</v>
       </c>
@@ -13110,8 +13151,33 @@
       <c r="J46" s="37">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="BY46" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="BZ46" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA46" s="74"/>
+      <c r="CB46" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="CC46" s="74"/>
+      <c r="CD46" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="CE46" s="74"/>
+      <c r="CF46" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="CG46" s="79"/>
+      <c r="CI46" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A47" s="37" t="s">
         <v>8</v>
       </c>
@@ -13142,8 +13208,378 @@
       <c r="J47" s="37">
         <v>44</v>
       </c>
-    </row>
-    <row r="59" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="BY47" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="BZ47" s="76">
+        <f>INDEX($CJ$47:$CJ$58, MATCH(BZ26,$CI$47:$CI$58,0))</f>
+        <v>73</v>
+      </c>
+      <c r="CA47" s="76"/>
+      <c r="CB47" s="76">
+        <f>INDEX($CJ$47:$CJ$58, MATCH(CB26,$CI$47:$CI$58,0))</f>
+        <v>64</v>
+      </c>
+      <c r="CC47" s="76"/>
+      <c r="CD47" s="76">
+        <f>INDEX($CJ$47:$CJ$58, MATCH(CD26,$CI$47:$CI$58,0))</f>
+        <v>65</v>
+      </c>
+      <c r="CE47" s="76"/>
+      <c r="CF47" s="76">
+        <f>INDEX($CJ$47:$CJ$58, MATCH(CF26,$CI$47:$CI$58,0))</f>
+        <v>72</v>
+      </c>
+      <c r="CG47" s="79"/>
+      <c r="CI47" s="71">
+        <v>36</v>
+      </c>
+      <c r="CJ47">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="BY48" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="BZ48" s="76">
+        <f t="shared" ref="BZ48:CB62" si="46">INDEX($CJ$47:$CJ$58, MATCH(BZ27,$CI$47:$CI$58,0))</f>
+        <v>71</v>
+      </c>
+      <c r="CA48" s="76"/>
+      <c r="CB48" s="76">
+        <f t="shared" si="46"/>
+        <v>65</v>
+      </c>
+      <c r="CC48" s="76"/>
+      <c r="CD48" s="76">
+        <f t="shared" ref="CD48" si="47">INDEX($CJ$47:$CJ$58, MATCH(CD27,$CI$47:$CI$58,0))</f>
+        <v>70</v>
+      </c>
+      <c r="CE48" s="76"/>
+      <c r="CF48" s="76">
+        <f t="shared" ref="CF48" si="48">INDEX($CJ$47:$CJ$58, MATCH(CF27,$CI$47:$CI$58,0))</f>
+        <v>68</v>
+      </c>
+      <c r="CG48" s="79"/>
+      <c r="CI48" s="71">
+        <v>37</v>
+      </c>
+      <c r="CJ48">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="13:88" x14ac:dyDescent="0.3">
+      <c r="BY49" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="BZ49" s="76">
+        <f t="shared" si="46"/>
+        <v>63</v>
+      </c>
+      <c r="CA49" s="76"/>
+      <c r="CB49" s="76">
+        <f t="shared" si="46"/>
+        <v>74</v>
+      </c>
+      <c r="CC49" s="76"/>
+      <c r="CD49" s="76">
+        <f t="shared" ref="CD49" si="49">INDEX($CJ$47:$CJ$58, MATCH(CD28,$CI$47:$CI$58,0))</f>
+        <v>66</v>
+      </c>
+      <c r="CE49" s="76"/>
+      <c r="CF49" s="76">
+        <f t="shared" ref="CF49" si="50">INDEX($CJ$47:$CJ$58, MATCH(CF28,$CI$47:$CI$58,0))</f>
+        <v>71</v>
+      </c>
+      <c r="CG49" s="79"/>
+      <c r="CI49" s="71">
+        <v>38</v>
+      </c>
+      <c r="CJ49">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="13:88" x14ac:dyDescent="0.3">
+      <c r="BY50" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="BZ50" s="76">
+        <f t="shared" si="46"/>
+        <v>72</v>
+      </c>
+      <c r="CA50" s="76"/>
+      <c r="CB50" s="76">
+        <f t="shared" si="46"/>
+        <v>66</v>
+      </c>
+      <c r="CC50" s="76"/>
+      <c r="CD50" s="76">
+        <f t="shared" ref="CD50" si="51">INDEX($CJ$47:$CJ$58, MATCH(CD29,$CI$47:$CI$58,0))</f>
+        <v>67</v>
+      </c>
+      <c r="CE50" s="76"/>
+      <c r="CF50" s="76">
+        <f t="shared" ref="CF50" si="52">INDEX($CJ$47:$CJ$58, MATCH(CF29,$CI$47:$CI$58,0))</f>
+        <v>69</v>
+      </c>
+      <c r="CG50" s="79"/>
+      <c r="CI50" s="71">
+        <v>39</v>
+      </c>
+      <c r="CJ50">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="13:88" x14ac:dyDescent="0.3">
+      <c r="BY51" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ51" s="76">
+        <f t="shared" si="46"/>
+        <v>71</v>
+      </c>
+      <c r="CA51" s="76"/>
+      <c r="CB51" s="76">
+        <f t="shared" si="46"/>
+        <v>66</v>
+      </c>
+      <c r="CC51" s="76"/>
+      <c r="CD51" s="76">
+        <f t="shared" ref="CD51" si="53">INDEX($CJ$47:$CJ$58, MATCH(CD30,$CI$47:$CI$58,0))</f>
+        <v>63</v>
+      </c>
+      <c r="CE51" s="76"/>
+      <c r="CF51" s="76">
+        <f t="shared" ref="CF51" si="54">INDEX($CJ$47:$CJ$58, MATCH(CF30,$CI$47:$CI$58,0))</f>
+        <v>74</v>
+      </c>
+      <c r="CG51" s="79"/>
+      <c r="CI51" s="71">
+        <v>40</v>
+      </c>
+      <c r="CJ51">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="13:88" x14ac:dyDescent="0.3">
+      <c r="BY52" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="BZ52" s="76">
+        <f t="shared" si="46"/>
+        <v>67</v>
+      </c>
+      <c r="CA52" s="76"/>
+      <c r="CB52" s="76">
+        <f t="shared" si="46"/>
+        <v>69</v>
+      </c>
+      <c r="CC52" s="76"/>
+      <c r="CD52" s="76">
+        <f t="shared" ref="CD52" si="55">INDEX($CJ$47:$CJ$58, MATCH(CD31,$CI$47:$CI$58,0))</f>
+        <v>66</v>
+      </c>
+      <c r="CE52" s="76"/>
+      <c r="CF52" s="76">
+        <f t="shared" ref="CF52" si="56">INDEX($CJ$47:$CJ$58, MATCH(CF31,$CI$47:$CI$58,0))</f>
+        <v>72</v>
+      </c>
+      <c r="CG52" s="79"/>
+      <c r="CI52" s="71">
+        <v>41</v>
+      </c>
+      <c r="CJ52">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="13:88" x14ac:dyDescent="0.3">
+      <c r="BY53" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="BZ53" s="76">
+        <f t="shared" si="46"/>
+        <v>64</v>
+      </c>
+      <c r="CA53" s="76"/>
+      <c r="CB53" s="76">
+        <f t="shared" si="46"/>
+        <v>73</v>
+      </c>
+      <c r="CC53" s="76"/>
+      <c r="CD53" s="76">
+        <f t="shared" ref="CD53" si="57">INDEX($CJ$47:$CJ$58, MATCH(CD32,$CI$47:$CI$58,0))</f>
+        <v>72</v>
+      </c>
+      <c r="CE53" s="76"/>
+      <c r="CF53" s="76">
+        <f t="shared" ref="CF53" si="58">INDEX($CJ$47:$CJ$58, MATCH(CF32,$CI$47:$CI$58,0))</f>
+        <v>65</v>
+      </c>
+      <c r="CG53" s="79"/>
+      <c r="CI53" s="71">
+        <v>42</v>
+      </c>
+      <c r="CJ53">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="13:88" x14ac:dyDescent="0.3">
+      <c r="BY54" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="BZ54" s="76">
+        <f t="shared" si="46"/>
+        <v>65</v>
+      </c>
+      <c r="CA54" s="76"/>
+      <c r="CB54" s="76">
+        <f t="shared" si="46"/>
+        <v>71</v>
+      </c>
+      <c r="CC54" s="76"/>
+      <c r="CD54" s="76">
+        <f t="shared" ref="CD54" si="59">INDEX($CJ$47:$CJ$58, MATCH(CD33,$CI$47:$CI$58,0))</f>
+        <v>68</v>
+      </c>
+      <c r="CE54" s="76"/>
+      <c r="CF54" s="76">
+        <f t="shared" ref="CF54" si="60">INDEX($CJ$47:$CJ$58, MATCH(CF33,$CI$47:$CI$58,0))</f>
+        <v>70</v>
+      </c>
+      <c r="CG54" s="79"/>
+      <c r="CI54" s="71">
+        <v>43</v>
+      </c>
+      <c r="CJ54">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="13:88" x14ac:dyDescent="0.3">
+      <c r="BY55" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="BZ55" s="76">
+        <f t="shared" si="46"/>
+        <v>74</v>
+      </c>
+      <c r="CA55" s="76"/>
+      <c r="CB55" s="76">
+        <f t="shared" si="46"/>
+        <v>63</v>
+      </c>
+      <c r="CC55" s="76"/>
+      <c r="CD55" s="76">
+        <f t="shared" ref="CD55" si="61">INDEX($CJ$47:$CJ$58, MATCH(CD34,$CI$47:$CI$58,0))</f>
+        <v>71</v>
+      </c>
+      <c r="CE55" s="76"/>
+      <c r="CF55" s="76">
+        <f t="shared" ref="CF55" si="62">INDEX($CJ$47:$CJ$58, MATCH(CF34,$CI$47:$CI$58,0))</f>
+        <v>66</v>
+      </c>
+      <c r="CG55" s="79"/>
+      <c r="CI55" s="71">
+        <v>44</v>
+      </c>
+      <c r="CJ55">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="13:88" x14ac:dyDescent="0.3">
+      <c r="BY56" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="BZ56" s="76">
+        <f t="shared" si="46"/>
+        <v>66</v>
+      </c>
+      <c r="CA56" s="76"/>
+      <c r="CB56" s="76">
+        <f t="shared" si="46"/>
+        <v>72</v>
+      </c>
+      <c r="CC56" s="76"/>
+      <c r="CD56" s="76">
+        <f t="shared" ref="CD56" si="63">INDEX($CJ$47:$CJ$58, MATCH(CD35,$CI$47:$CI$58,0))</f>
+        <v>69</v>
+      </c>
+      <c r="CE56" s="76"/>
+      <c r="CF56" s="76">
+        <f t="shared" ref="CF56" si="64">INDEX($CJ$47:$CJ$58, MATCH(CF35,$CI$47:$CI$58,0))</f>
+        <v>67</v>
+      </c>
+      <c r="CG56" s="79"/>
+      <c r="CI56" s="71">
+        <v>45</v>
+      </c>
+      <c r="CJ56">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="13:88" x14ac:dyDescent="0.3">
+      <c r="BY57" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="BZ57" s="76">
+        <f t="shared" si="46"/>
+        <v>74</v>
+      </c>
+      <c r="CA57" s="76"/>
+      <c r="CB57" s="76">
+        <f t="shared" si="46"/>
+        <v>63</v>
+      </c>
+      <c r="CC57" s="76"/>
+      <c r="CD57" s="76">
+        <f t="shared" ref="CD57" si="65">INDEX($CJ$47:$CJ$58, MATCH(CD36,$CI$47:$CI$58,0))</f>
+        <v>66</v>
+      </c>
+      <c r="CE57" s="76"/>
+      <c r="CF57" s="76">
+        <f t="shared" ref="CF57" si="66">INDEX($CJ$47:$CJ$58, MATCH(CF36,$CI$47:$CI$58,0))</f>
+        <v>71</v>
+      </c>
+      <c r="CG57" s="79"/>
+      <c r="CI57" s="71">
+        <v>46</v>
+      </c>
+      <c r="CJ57">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="13:88" x14ac:dyDescent="0.3">
+      <c r="BY58" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ58" s="76">
+        <f t="shared" si="46"/>
+        <v>72</v>
+      </c>
+      <c r="CA58" s="76"/>
+      <c r="CB58" s="76">
+        <f t="shared" si="46"/>
+        <v>66</v>
+      </c>
+      <c r="CC58" s="76"/>
+      <c r="CD58" s="76">
+        <f t="shared" ref="CD58" si="67">INDEX($CJ$47:$CJ$58, MATCH(CD37,$CI$47:$CI$58,0))</f>
+        <v>69</v>
+      </c>
+      <c r="CE58" s="76"/>
+      <c r="CF58" s="76">
+        <f t="shared" ref="CF58" si="68">INDEX($CJ$47:$CJ$58, MATCH(CF37,$CI$47:$CI$58,0))</f>
+        <v>67</v>
+      </c>
+      <c r="CG58" s="79"/>
+      <c r="CI58" s="71">
+        <v>47</v>
+      </c>
+      <c r="CJ58">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="13:88" x14ac:dyDescent="0.3">
       <c r="M59" s="9" t="s">
         <v>120</v>
       </c>
@@ -13186,8 +13622,31 @@
       <c r="Z59" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="60" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="BY59" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="BZ59" s="91">
+        <f t="shared" si="46"/>
+        <v>72</v>
+      </c>
+      <c r="CA59" s="91"/>
+      <c r="CB59" s="91">
+        <f t="shared" si="46"/>
+        <v>65</v>
+      </c>
+      <c r="CC59" s="91"/>
+      <c r="CD59" s="91">
+        <f t="shared" ref="CD59" si="69">INDEX($CJ$47:$CJ$58, MATCH(CD38,$CI$47:$CI$58,0))</f>
+        <v>73</v>
+      </c>
+      <c r="CE59" s="91"/>
+      <c r="CF59" s="91">
+        <f t="shared" ref="CF59" si="70">INDEX($CJ$47:$CJ$58, MATCH(CF38,$CI$47:$CI$58,0))</f>
+        <v>64</v>
+      </c>
+      <c r="CG59" s="92"/>
+    </row>
+    <row r="60" spans="13:88" x14ac:dyDescent="0.3">
       <c r="M60" t="s">
         <v>123</v>
       </c>
@@ -13225,14 +13684,37 @@
         <v>117</v>
       </c>
       <c r="Y60" t="str">
-        <f t="shared" ref="Y60:Y71" si="46">IF(Z60=16, "A", "B")</f>
+        <f t="shared" ref="Y60:Y71" si="71">IF(Z60=16, "A", "B")</f>
         <v>A</v>
       </c>
       <c r="Z60">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="BY60" s="90" t="s">
+        <v>162</v>
+      </c>
+      <c r="BZ60" s="91">
+        <f t="shared" si="46"/>
+        <v>70</v>
+      </c>
+      <c r="CA60" s="91"/>
+      <c r="CB60" s="91">
+        <f t="shared" si="46"/>
+        <v>68</v>
+      </c>
+      <c r="CC60" s="91"/>
+      <c r="CD60" s="91">
+        <f t="shared" ref="CD60" si="72">INDEX($CJ$47:$CJ$58, MATCH(CD39,$CI$47:$CI$58,0))</f>
+        <v>65</v>
+      </c>
+      <c r="CE60" s="91"/>
+      <c r="CF60" s="91">
+        <f t="shared" ref="CF60" si="73">INDEX($CJ$47:$CJ$58, MATCH(CF39,$CI$47:$CI$58,0))</f>
+        <v>71</v>
+      </c>
+      <c r="CG60" s="92"/>
+    </row>
+    <row r="61" spans="13:88" x14ac:dyDescent="0.3">
       <c r="M61" t="s">
         <v>123</v>
       </c>
@@ -13270,14 +13752,37 @@
         <v>117</v>
       </c>
       <c r="Y61" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="71"/>
         <v>B</v>
       </c>
       <c r="Z61">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="BY61" s="90" t="s">
+        <v>163</v>
+      </c>
+      <c r="BZ61" s="91">
+        <f t="shared" si="46"/>
+        <v>64</v>
+      </c>
+      <c r="CA61" s="91"/>
+      <c r="CB61" s="91">
+        <f t="shared" si="46"/>
+        <v>73</v>
+      </c>
+      <c r="CC61" s="91"/>
+      <c r="CD61" s="91">
+        <f t="shared" ref="CD61" si="74">INDEX($CJ$47:$CJ$58, MATCH(CD40,$CI$47:$CI$58,0))</f>
+        <v>65</v>
+      </c>
+      <c r="CE61" s="91"/>
+      <c r="CF61" s="91">
+        <f t="shared" ref="CF61" si="75">INDEX($CJ$47:$CJ$58, MATCH(CF40,$CI$47:$CI$58,0))</f>
+        <v>72</v>
+      </c>
+      <c r="CG61" s="92"/>
+    </row>
+    <row r="62" spans="13:88" x14ac:dyDescent="0.3">
       <c r="M62" t="s">
         <v>123</v>
       </c>
@@ -13315,14 +13820,37 @@
         <v>118</v>
       </c>
       <c r="Y62" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="71"/>
         <v>A</v>
       </c>
       <c r="Z62">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="BY62" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="BZ62" s="91">
+        <f t="shared" si="46"/>
+        <v>71</v>
+      </c>
+      <c r="CA62" s="91"/>
+      <c r="CB62" s="91">
+        <f t="shared" si="46"/>
+        <v>65</v>
+      </c>
+      <c r="CC62" s="91"/>
+      <c r="CD62" s="91">
+        <f t="shared" ref="CD62" si="76">INDEX($CJ$47:$CJ$58, MATCH(CD41,$CI$47:$CI$58,0))</f>
+        <v>68</v>
+      </c>
+      <c r="CE62" s="91"/>
+      <c r="CF62" s="91">
+        <f t="shared" ref="CF62" si="77">INDEX($CJ$47:$CJ$58, MATCH(CF41,$CI$47:$CI$58,0))</f>
+        <v>70</v>
+      </c>
+      <c r="CG62" s="92"/>
+    </row>
+    <row r="63" spans="13:88" x14ac:dyDescent="0.3">
       <c r="M63" t="s">
         <v>123</v>
       </c>
@@ -13360,14 +13888,14 @@
         <v>118</v>
       </c>
       <c r="Y63" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="71"/>
         <v>B</v>
       </c>
       <c r="Z63">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="13:88" x14ac:dyDescent="0.3">
       <c r="M64" t="s">
         <v>123</v>
       </c>
@@ -13405,7 +13933,7 @@
         <v>118</v>
       </c>
       <c r="Y64" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="71"/>
         <v>A</v>
       </c>
       <c r="Z64">
@@ -13450,7 +13978,7 @@
         <v>118</v>
       </c>
       <c r="Y65" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="71"/>
         <v>B</v>
       </c>
       <c r="Z65">
@@ -13495,7 +14023,7 @@
         <v>117</v>
       </c>
       <c r="Y66" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="71"/>
         <v>A</v>
       </c>
       <c r="Z66">
@@ -13540,7 +14068,7 @@
         <v>118</v>
       </c>
       <c r="Y67" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="71"/>
         <v>B</v>
       </c>
       <c r="Z67">
@@ -13585,7 +14113,7 @@
         <v>118</v>
       </c>
       <c r="Y68" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="71"/>
         <v>A</v>
       </c>
       <c r="Z68">
@@ -13630,7 +14158,7 @@
         <v>117</v>
       </c>
       <c r="Y69" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="71"/>
         <v>A</v>
       </c>
       <c r="Z69">
@@ -13675,7 +14203,7 @@
         <v>117</v>
       </c>
       <c r="Y70" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="71"/>
         <v>B</v>
       </c>
       <c r="Z70">
@@ -13720,7 +14248,7 @@
         <v>117</v>
       </c>
       <c r="Y71" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="71"/>
         <v>B</v>
       </c>
       <c r="Z71">
